--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="248">
   <si>
     <t>No</t>
   </si>
@@ -27482,8 +27482,8 @@
   <dimension ref="A1:AF1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A797" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E819" sqref="E819"/>
+      <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D825" sqref="D825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -66269,27 +66269,42 @@
       </c>
     </row>
     <row r="819" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A819" s="2">
+        <v>609</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C819">
+        <v>7</v>
+      </c>
       <c r="D819" s="8">
-        <v>42743</v>
+        <v>42745</v>
+      </c>
+      <c r="E819" s="2">
+        <v>1</v>
       </c>
       <c r="F819" s="2">
         <v>2017</v>
       </c>
+      <c r="G819" s="2">
+        <v>425000</v>
+      </c>
       <c r="H819">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I819">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J819">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K819">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P819" t="b">
         <f t="shared" si="4"/>
@@ -66301,27 +66316,42 @@
       </c>
     </row>
     <row r="820" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A820" s="2">
+        <v>609</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C820">
+        <v>7</v>
+      </c>
       <c r="D820" s="8">
-        <v>42743</v>
+        <v>42745</v>
+      </c>
+      <c r="E820" s="2">
+        <v>1</v>
       </c>
       <c r="F820" s="2">
         <v>2017</v>
       </c>
+      <c r="G820" s="2">
+        <v>425000</v>
+      </c>
       <c r="H820">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I820">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J820">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K820">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P820" t="b">
         <f t="shared" si="4"/>
@@ -66333,27 +66363,42 @@
       </c>
     </row>
     <row r="821" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A821" s="2">
+        <v>609</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C821">
+        <v>7</v>
+      </c>
       <c r="D821" s="8">
-        <v>42743</v>
+        <v>42745</v>
+      </c>
+      <c r="E821" s="2">
+        <v>1</v>
       </c>
       <c r="F821" s="2">
         <v>2017</v>
       </c>
+      <c r="G821" s="2">
+        <v>425000</v>
+      </c>
       <c r="H821">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I821">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J821">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K821">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P821" t="b">
         <f t="shared" si="4"/>
@@ -66365,27 +66410,42 @@
       </c>
     </row>
     <row r="822" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A822" s="2">
+        <v>610</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C822">
+        <v>11</v>
+      </c>
       <c r="D822" s="8">
-        <v>42743</v>
+        <v>42745</v>
+      </c>
+      <c r="E822" s="2">
+        <v>1</v>
       </c>
       <c r="F822" s="2">
         <v>2017</v>
       </c>
+      <c r="G822" s="2">
+        <v>425000</v>
+      </c>
       <c r="H822">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I822">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J822">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K822">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P822" t="b">
         <f t="shared" si="4"/>
@@ -66397,27 +66457,42 @@
       </c>
     </row>
     <row r="823" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A823" s="2">
+        <v>610</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C823">
+        <v>6</v>
+      </c>
       <c r="D823" s="8">
-        <v>42743</v>
+        <v>42745</v>
+      </c>
+      <c r="E823" s="2">
+        <v>1</v>
       </c>
       <c r="F823" s="2">
         <v>2017</v>
       </c>
+      <c r="G823" s="2">
+        <v>425000</v>
+      </c>
       <c r="H823">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I823">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J823">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K823">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P823" t="b">
         <f t="shared" si="4"/>
@@ -66429,27 +66504,42 @@
       </c>
     </row>
     <row r="824" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A824" s="2">
+        <v>610</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C824">
+        <v>9</v>
+      </c>
       <c r="D824" s="8">
-        <v>42743</v>
+        <v>42745</v>
+      </c>
+      <c r="E824" s="2">
+        <v>1</v>
       </c>
       <c r="F824" s="2">
         <v>2017</v>
       </c>
+      <c r="G824" s="2">
+        <v>425000</v>
+      </c>
       <c r="H824">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I824">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J824">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K824">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P824" t="b">
         <f t="shared" si="4"/>
@@ -66462,7 +66552,7 @@
     </row>
     <row r="825" spans="1:17" ht="15.75" customHeight="1">
       <c r="D825" s="8">
-        <v>42743</v>
+        <v>42745</v>
       </c>
       <c r="F825" s="2">
         <v>2017</v>
@@ -66494,7 +66584,7 @@
     </row>
     <row r="826" spans="1:17" ht="15.75" customHeight="1">
       <c r="D826" s="8">
-        <v>42743</v>
+        <v>42745</v>
       </c>
       <c r="F826" s="2">
         <v>2017</v>
@@ -66526,7 +66616,7 @@
     </row>
     <row r="827" spans="1:17" ht="15.75" customHeight="1">
       <c r="D827" s="8">
-        <v>42743</v>
+        <v>42745</v>
       </c>
       <c r="F827" s="2">
         <v>2017</v>
@@ -66558,7 +66648,7 @@
     </row>
     <row r="828" spans="1:17" ht="15.75" customHeight="1">
       <c r="D828" s="8">
-        <v>42743</v>
+        <v>42745</v>
       </c>
       <c r="F828" s="2">
         <v>2017</v>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -19,13 +19,13 @@
   <calcPr calcId="124519"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="254">
   <si>
     <t>No</t>
   </si>
@@ -779,6 +779,15 @@
   <si>
     <t>Muhammad Fakhrudin Mutsaqif</t>
   </si>
+  <si>
+    <t>Dipa Surya Purnama</t>
+  </si>
+  <si>
+    <t>Yahya bin Abu Musa</t>
+  </si>
+  <si>
+    <t>17/12/2016</t>
+  </si>
 </sst>
 </file>
 
@@ -829,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -845,6 +854,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25013,7 +25023,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B503" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -40869,8 +40879,8 @@
   <dimension ref="A1:AF1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A838" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A859" sqref="A859"/>
+      <pane ySplit="1" topLeftCell="A892" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O913" sqref="O913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -44631,7 +44641,7 @@
         <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -46694,7 +46704,7 @@
         <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="C123" s="2">
         <v>6</v>
@@ -48822,7 +48832,7 @@
         <v>159</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="C168" s="2">
         <v>6</v>
@@ -50955,7 +50965,7 @@
         <v>309</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="C213" s="2">
         <v>6</v>
@@ -53734,7 +53744,7 @@
         <v>365</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="C272" s="2">
         <v>6</v>
@@ -63987,7 +63997,7 @@
         <v>42581</v>
       </c>
       <c r="E487" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F487" s="2">
         <v>2016</v>
@@ -81542,15 +81552,30 @@
       </c>
     </row>
     <row r="859" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A859" s="2">
+        <v>272</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C859">
+        <v>1</v>
+      </c>
       <c r="D859" s="8">
         <v>42655</v>
       </c>
+      <c r="E859" s="2">
+        <v>11</v>
+      </c>
       <c r="F859" s="2">
         <v>2016</v>
       </c>
+      <c r="G859" s="2">
+        <v>150000</v>
+      </c>
       <c r="H859">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I859">
         <f t="shared" si="9"/>
@@ -81574,15 +81599,30 @@
       </c>
     </row>
     <row r="860" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A860" s="2">
+        <v>272</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C860">
+        <v>1</v>
+      </c>
       <c r="D860" s="8">
         <v>42655</v>
       </c>
+      <c r="E860" s="2">
+        <v>12</v>
+      </c>
       <c r="F860" s="2">
         <v>2016</v>
       </c>
+      <c r="G860" s="2">
+        <v>150000</v>
+      </c>
       <c r="H860">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I860">
         <f t="shared" si="9"/>
@@ -81606,15 +81646,30 @@
       </c>
     </row>
     <row r="861" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A861" s="2">
+        <v>272</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C861">
+        <v>1</v>
+      </c>
       <c r="D861" s="8">
         <v>42655</v>
       </c>
+      <c r="E861" s="2">
+        <v>1</v>
+      </c>
       <c r="F861" s="2">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="G861" s="2">
+        <v>150000</v>
       </c>
       <c r="H861">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I861">
         <f t="shared" si="9"/>
@@ -81638,27 +81693,42 @@
       </c>
     </row>
     <row r="862" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A862" s="2">
+        <v>273</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C862">
+        <v>6</v>
+      </c>
       <c r="D862" s="8">
         <v>42655</v>
       </c>
+      <c r="E862" s="2">
+        <v>12</v>
+      </c>
       <c r="F862" s="2">
         <v>2016</v>
       </c>
+      <c r="G862" s="2">
+        <v>425000</v>
+      </c>
       <c r="H862">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I862">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J862">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K862">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P862" t="b">
         <f t="shared" si="4"/>
@@ -81670,15 +81740,30 @@
       </c>
     </row>
     <row r="863" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A863" s="2">
+        <v>274</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C863">
+        <v>2</v>
+      </c>
       <c r="D863" s="8">
         <v>42655</v>
       </c>
+      <c r="E863" s="2">
+        <v>12</v>
+      </c>
       <c r="F863" s="2">
         <v>2016</v>
       </c>
+      <c r="G863" s="2">
+        <v>100000</v>
+      </c>
       <c r="H863">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I863">
         <f t="shared" si="9"/>
@@ -81702,12 +81787,30 @@
       </c>
     </row>
     <row r="864" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A864" s="2">
+        <v>274</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C864">
+        <v>5</v>
+      </c>
+      <c r="D864" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E864" s="2">
+        <v>12</v>
+      </c>
       <c r="F864" s="2">
         <v>2016</v>
       </c>
+      <c r="G864" s="2">
+        <v>100000</v>
+      </c>
       <c r="H864">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I864">
         <f t="shared" si="9"/>
@@ -81727,28 +81830,46 @@
       </c>
       <c r="Q864" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="865" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="865" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A865" s="2">
+        <v>274</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C865">
+        <v>6</v>
+      </c>
+      <c r="D865" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E865" s="2">
+        <v>12</v>
+      </c>
       <c r="F865" s="2">
         <v>2016</v>
       </c>
+      <c r="G865" s="2">
+        <v>300000</v>
+      </c>
       <c r="H865">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I865">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J865">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K865">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P865" t="b">
         <f t="shared" si="4"/>
@@ -81756,28 +81877,46 @@
       </c>
       <c r="Q865" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="866" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="866" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A866" s="2">
+        <v>275</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C866">
+        <v>6</v>
+      </c>
+      <c r="D866" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E866" s="2">
+        <v>11</v>
+      </c>
       <c r="F866" s="2">
         <v>2016</v>
       </c>
+      <c r="G866" s="2">
+        <v>425000</v>
+      </c>
       <c r="H866">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I866">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J866">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K866">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P866" t="b">
         <f t="shared" si="4"/>
@@ -81785,28 +81924,49 @@
       </c>
       <c r="Q866" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="867" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="867" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A867" s="2">
+        <v>276</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C867">
+        <v>11</v>
+      </c>
+      <c r="D867" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E867" s="2">
+        <v>12</v>
+      </c>
       <c r="F867" s="2">
         <v>2016</v>
       </c>
+      <c r="G867" s="2">
+        <v>435000</v>
+      </c>
       <c r="H867">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I867">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J867">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K867">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="L867">
+        <v>10000</v>
       </c>
       <c r="P867" t="b">
         <f t="shared" si="4"/>
@@ -81814,28 +81974,49 @@
       </c>
       <c r="Q867" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="868" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="868" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A868" s="2">
+        <v>276</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C868">
+        <v>9</v>
+      </c>
+      <c r="D868" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E868" s="2">
+        <v>12</v>
+      </c>
       <c r="F868" s="2">
         <v>2016</v>
       </c>
+      <c r="G868" s="2">
+        <v>435000</v>
+      </c>
       <c r="H868">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I868">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J868">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K868">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="L868">
+        <v>10000</v>
       </c>
       <c r="P868" t="b">
         <f t="shared" si="4"/>
@@ -81843,28 +82024,49 @@
       </c>
       <c r="Q868" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="869" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="869" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A869" s="2">
+        <v>276</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C869">
+        <v>6</v>
+      </c>
+      <c r="D869" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E869" s="2">
+        <v>12</v>
+      </c>
       <c r="F869" s="2">
         <v>2016</v>
       </c>
+      <c r="G869" s="2">
+        <v>435000</v>
+      </c>
       <c r="H869">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I869">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J869">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K869">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="L869">
+        <v>10000</v>
       </c>
       <c r="P869" t="b">
         <f t="shared" si="4"/>
@@ -81872,16 +82074,34 @@
       </c>
       <c r="Q869" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="870" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="870" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A870" s="2">
+        <v>278</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C870">
+        <v>4</v>
+      </c>
+      <c r="D870" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E870" s="2">
+        <v>11</v>
+      </c>
       <c r="F870" s="2">
         <v>2016</v>
       </c>
+      <c r="G870" s="2">
+        <v>150000</v>
+      </c>
       <c r="H870">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I870">
         <f t="shared" si="9"/>
@@ -81901,16 +82121,34 @@
       </c>
       <c r="Q870" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="871" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="871" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A871" s="2">
+        <v>278</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C871">
+        <v>1</v>
+      </c>
+      <c r="D871" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E871" s="2">
+        <v>11</v>
+      </c>
       <c r="F871" s="2">
         <v>2016</v>
       </c>
+      <c r="G871" s="2">
+        <v>150000</v>
+      </c>
       <c r="H871">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I871">
         <f t="shared" si="9"/>
@@ -81930,16 +82168,34 @@
       </c>
       <c r="Q871" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="872" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="872" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A872" s="2">
+        <v>278</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C872">
+        <v>4</v>
+      </c>
+      <c r="D872" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E872" s="2">
+        <v>12</v>
+      </c>
       <c r="F872" s="2">
         <v>2016</v>
       </c>
+      <c r="G872" s="2">
+        <v>150000</v>
+      </c>
       <c r="H872">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I872">
         <f t="shared" si="9"/>
@@ -81959,16 +82215,34 @@
       </c>
       <c r="Q872" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="873" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="873" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A873" s="2">
+        <v>278</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C873">
+        <v>1</v>
+      </c>
+      <c r="D873" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E873" s="2">
+        <v>12</v>
+      </c>
       <c r="F873" s="2">
         <v>2016</v>
       </c>
+      <c r="G873" s="2">
+        <v>150000</v>
+      </c>
       <c r="H873">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I873">
         <f t="shared" si="9"/>
@@ -81988,16 +82262,34 @@
       </c>
       <c r="Q873" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="874" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="874" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A874" s="2">
+        <v>279</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C874">
+        <v>3</v>
+      </c>
+      <c r="D874" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E874" s="2">
+        <v>11</v>
+      </c>
       <c r="F874" s="2">
         <v>2016</v>
       </c>
+      <c r="G874" s="2">
+        <v>100000</v>
+      </c>
       <c r="H874">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I874">
         <f t="shared" si="9"/>
@@ -82017,16 +82309,34 @@
       </c>
       <c r="Q874" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="875" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="875" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A875" s="2">
+        <v>279</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C875">
+        <v>3</v>
+      </c>
+      <c r="D875" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E875" s="2">
+        <v>12</v>
+      </c>
       <c r="F875" s="2">
         <v>2016</v>
       </c>
+      <c r="G875" s="2">
+        <v>100000</v>
+      </c>
       <c r="H875">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I875">
         <f t="shared" si="9"/>
@@ -82046,16 +82356,34 @@
       </c>
       <c r="Q875" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="876" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="876" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A876" s="2">
+        <v>279</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C876">
+        <v>3</v>
+      </c>
+      <c r="D876" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E876" s="2">
+        <v>11</v>
+      </c>
       <c r="F876" s="2">
         <v>2016</v>
       </c>
+      <c r="G876" s="2">
+        <v>100000</v>
+      </c>
       <c r="H876">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I876">
         <f t="shared" si="9"/>
@@ -82075,16 +82403,34 @@
       </c>
       <c r="Q876" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="877" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="877" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A877" s="2">
+        <v>279</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C877">
+        <v>3</v>
+      </c>
+      <c r="D877" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E877" s="2">
+        <v>12</v>
+      </c>
       <c r="F877" s="2">
         <v>2016</v>
       </c>
+      <c r="G877" s="2">
+        <v>100000</v>
+      </c>
       <c r="H877">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I877">
         <f t="shared" si="9"/>
@@ -82104,16 +82450,34 @@
       </c>
       <c r="Q877" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="878" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="878" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A878" s="2">
+        <v>280</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C878">
+        <v>2</v>
+      </c>
+      <c r="D878" s="8">
+        <v>42686</v>
+      </c>
+      <c r="E878" s="2">
+        <v>11</v>
+      </c>
       <c r="F878" s="2">
         <v>2016</v>
       </c>
+      <c r="G878" s="2">
+        <v>150000</v>
+      </c>
       <c r="H878">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I878">
         <f t="shared" si="9"/>
@@ -82133,16 +82497,34 @@
       </c>
       <c r="Q878" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="879" spans="6:17" ht="15.75" customHeight="1">
+        <v>201611</v>
+      </c>
+    </row>
+    <row r="879" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A879" s="2">
+        <v>281</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C879">
+        <v>3</v>
+      </c>
+      <c r="D879" s="8">
+        <v>42716</v>
+      </c>
+      <c r="E879" s="2">
+        <v>12</v>
+      </c>
       <c r="F879" s="2">
         <v>2016</v>
       </c>
+      <c r="G879" s="2">
+        <v>150000</v>
+      </c>
       <c r="H879">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I879">
         <f t="shared" si="9"/>
@@ -82162,16 +82544,34 @@
       </c>
       <c r="Q879" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="880" spans="6:17" ht="15.75" customHeight="1">
+        <v>201612</v>
+      </c>
+    </row>
+    <row r="880" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A880" s="2">
+        <v>282</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C880">
+        <v>5</v>
+      </c>
+      <c r="D880" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E880" s="2">
+        <v>11</v>
+      </c>
       <c r="F880" s="2">
         <v>2016</v>
       </c>
+      <c r="G880" s="2">
+        <v>175000</v>
+      </c>
       <c r="H880">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I880">
         <f t="shared" si="9"/>
@@ -82185,22 +82585,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="N880">
+        <v>25000</v>
+      </c>
       <c r="P880" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q880" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="881" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="881" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A881" s="2">
+        <v>282</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C881">
+        <v>5</v>
+      </c>
+      <c r="D881" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E881" s="2">
+        <v>12</v>
+      </c>
       <c r="F881" s="2">
         <v>2016</v>
       </c>
+      <c r="G881" s="2">
+        <v>175000</v>
+      </c>
       <c r="H881">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I881">
         <f t="shared" si="9"/>
@@ -82214,22 +82635,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="N881">
+        <v>25000</v>
+      </c>
       <c r="P881" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q881" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="882" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="882" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A882" s="2">
+        <v>282</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C882">
+        <v>3</v>
+      </c>
+      <c r="D882" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E882" s="2">
+        <v>11</v>
+      </c>
       <c r="F882" s="2">
         <v>2016</v>
       </c>
+      <c r="G882" s="2">
+        <v>175000</v>
+      </c>
       <c r="H882">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I882">
         <f t="shared" si="9"/>
@@ -82243,22 +82685,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="N882">
+        <v>25000</v>
+      </c>
       <c r="P882" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q882" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="883" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="883" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A883" s="2">
+        <v>282</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C883">
+        <v>3</v>
+      </c>
+      <c r="D883" s="8">
+        <v>42655</v>
+      </c>
+      <c r="E883" s="2">
+        <v>12</v>
+      </c>
       <c r="F883" s="2">
         <v>2016</v>
       </c>
+      <c r="G883" s="2">
+        <v>175000</v>
+      </c>
       <c r="H883">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I883">
         <f t="shared" si="9"/>
@@ -82272,22 +82735,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="N883">
+        <v>25000</v>
+      </c>
       <c r="P883" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q883" t="str">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="884" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="884" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A884" s="2">
+        <v>285</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C884">
+        <v>2</v>
+      </c>
+      <c r="D884" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E884" s="2">
+        <v>12</v>
+      </c>
       <c r="F884" s="2">
         <v>2016</v>
       </c>
+      <c r="G884" s="2">
+        <v>150000</v>
+      </c>
       <c r="H884">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I884">
         <f t="shared" si="9"/>
@@ -82305,47 +82789,83 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q884" t="str">
+      <c r="Q884" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="885" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="885" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A885" s="2">
+        <v>285</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C885">
+        <v>9</v>
+      </c>
+      <c r="D885" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E885" s="2">
+        <v>12</v>
+      </c>
       <c r="F885" s="2">
         <v>2016</v>
       </c>
+      <c r="G885" s="2">
+        <v>425000</v>
+      </c>
       <c r="H885">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I885">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J885">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K885">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P885" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q885" t="str">
+      <c r="Q885" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="886" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="886" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A886" s="2">
+        <v>286</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C886">
+        <v>4</v>
+      </c>
+      <c r="D886" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E886" s="2">
+        <v>12</v>
+      </c>
       <c r="F886" s="2">
         <v>2016</v>
       </c>
+      <c r="G886" s="2">
+        <v>150000</v>
+      </c>
       <c r="H886">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I886">
         <f t="shared" si="9"/>
@@ -82363,18 +82883,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q886" t="str">
+      <c r="Q886" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="887" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="887" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A887" s="2">
+        <v>287</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C887">
+        <v>3</v>
+      </c>
+      <c r="D887" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E887" s="2">
+        <v>12</v>
+      </c>
       <c r="F887" s="2">
         <v>2016</v>
       </c>
+      <c r="G887" s="2">
+        <v>150000</v>
+      </c>
       <c r="H887">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I887">
         <f t="shared" si="9"/>
@@ -82392,47 +82930,83 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q887" t="str">
+      <c r="Q887" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="888" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="888" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A888" s="2">
+        <v>287</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C888">
+        <v>6</v>
+      </c>
+      <c r="D888" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E888" s="2">
+        <v>12</v>
+      </c>
       <c r="F888" s="2">
         <v>2016</v>
       </c>
+      <c r="G888" s="2">
+        <v>425000</v>
+      </c>
       <c r="H888">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I888">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J888">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K888">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P888" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q888" t="str">
+      <c r="Q888" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="889" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="889" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A889" s="2">
+        <v>288</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C889">
+        <v>2</v>
+      </c>
+      <c r="D889" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E889" s="2">
+        <v>11</v>
+      </c>
       <c r="F889" s="2">
         <v>2016</v>
       </c>
+      <c r="G889" s="2">
+        <v>150000</v>
+      </c>
       <c r="H889">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I889">
         <f t="shared" si="9"/>
@@ -82450,47 +83024,83 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q889" t="str">
+      <c r="Q889" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="890" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="890" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A890" s="2">
+        <v>289</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C890">
+        <v>7</v>
+      </c>
+      <c r="D890" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E890" s="2">
+        <v>12</v>
+      </c>
       <c r="F890" s="2">
         <v>2016</v>
       </c>
+      <c r="G890" s="2">
+        <v>350000</v>
+      </c>
       <c r="H890">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I890">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="J890">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K890">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P890" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q890" t="str">
+      <c r="Q890" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="891" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="891" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A891" s="2">
+        <v>290</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C891">
+        <v>1</v>
+      </c>
+      <c r="D891" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E891" s="2">
+        <v>12</v>
+      </c>
       <c r="F891" s="2">
         <v>2016</v>
       </c>
+      <c r="G891" s="2">
+        <v>150000</v>
+      </c>
       <c r="H891">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I891">
         <f t="shared" si="9"/>
@@ -82508,18 +83118,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q891" t="str">
+      <c r="Q891" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="892" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="892" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A892" s="2">
+        <v>291</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C892">
+        <v>2</v>
+      </c>
+      <c r="D892" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E892" s="2">
+        <v>11</v>
+      </c>
       <c r="F892" s="2">
         <v>2016</v>
       </c>
+      <c r="G892" s="2">
+        <v>150000</v>
+      </c>
       <c r="H892">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I892">
         <f t="shared" si="9"/>
@@ -82537,18 +83165,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q892" t="str">
+      <c r="Q892" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="893" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="893" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A893" s="2">
+        <v>291</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C893">
+        <v>2</v>
+      </c>
+      <c r="D893" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E893" s="2">
+        <v>12</v>
+      </c>
       <c r="F893" s="2">
         <v>2016</v>
       </c>
+      <c r="G893" s="2">
+        <v>150000</v>
+      </c>
       <c r="H893">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I893">
         <f t="shared" si="9"/>
@@ -82566,18 +83212,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q893" t="str">
+      <c r="Q893" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="894" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="894" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A894" s="2">
+        <v>291</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C894">
+        <v>2</v>
+      </c>
+      <c r="D894" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E894" s="2">
+        <v>1</v>
+      </c>
       <c r="F894" s="2">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="G894" s="2">
+        <v>150000</v>
       </c>
       <c r="H894">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I894">
         <f t="shared" si="9"/>
@@ -82595,18 +83259,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q894" t="str">
+      <c r="Q894" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="895" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="895" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A895" s="2">
+        <v>292</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C895">
+        <v>2</v>
+      </c>
+      <c r="D895" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E895" s="2">
+        <v>12</v>
+      </c>
       <c r="F895" s="2">
         <v>2016</v>
       </c>
+      <c r="G895" s="2">
+        <v>75000</v>
+      </c>
       <c r="H895">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I895">
         <f t="shared" si="9"/>
@@ -82624,18 +83306,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q895" t="str">
+      <c r="Q895" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="896" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="896" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A896" s="2">
+        <v>292</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C896">
+        <v>2</v>
+      </c>
+      <c r="D896" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E896" s="2">
+        <v>1</v>
+      </c>
       <c r="F896" s="2">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="G896" s="2">
+        <v>75000</v>
       </c>
       <c r="H896">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I896">
         <f t="shared" si="9"/>
@@ -82653,18 +83353,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q896" t="str">
+      <c r="Q896" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="897" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="897" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A897" s="2">
+        <v>292</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C897">
+        <v>2</v>
+      </c>
+      <c r="D897" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E897" s="2">
+        <v>12</v>
+      </c>
       <c r="F897" s="2">
         <v>2016</v>
       </c>
+      <c r="G897" s="2">
+        <v>75000</v>
+      </c>
       <c r="H897">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I897">
         <f t="shared" si="9"/>
@@ -82682,18 +83400,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q897" t="str">
+      <c r="Q897" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="898" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="898" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A898" s="2">
+        <v>292</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C898">
+        <v>2</v>
+      </c>
+      <c r="D898" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E898" s="2">
+        <v>1</v>
+      </c>
       <c r="F898" s="2">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="G898" s="2">
+        <v>75000</v>
       </c>
       <c r="H898">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I898">
         <f t="shared" si="9"/>
@@ -82711,47 +83447,83 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q898" t="str">
+      <c r="Q898" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="899" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="899" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A899" s="2">
+        <v>293</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C899" s="2">
+        <v>7</v>
+      </c>
+      <c r="D899" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E899" s="2">
+        <v>10</v>
+      </c>
       <c r="F899" s="2">
         <v>2016</v>
       </c>
+      <c r="G899" s="2">
+        <v>270000</v>
+      </c>
       <c r="H899">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I899">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="J899">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K899">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P899" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q899" t="str">
+      <c r="Q899" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="900" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="900" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A900" s="2">
+        <v>294</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C900">
+        <v>1</v>
+      </c>
+      <c r="D900" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E900" s="2">
+        <v>12</v>
+      </c>
       <c r="F900" s="2">
         <v>2016</v>
       </c>
+      <c r="G900" s="2">
+        <v>150000</v>
+      </c>
       <c r="H900">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I900">
         <f t="shared" si="9"/>
@@ -82769,47 +83541,83 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q900" t="str">
+      <c r="Q900" t="e">
         <f t="shared" si="35"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="901" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="901" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A901" s="2">
+        <v>295</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C901">
+        <v>6</v>
+      </c>
+      <c r="D901" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E901" s="2">
+        <v>12</v>
+      </c>
       <c r="F901" s="2">
         <v>2016</v>
       </c>
+      <c r="G901" s="2">
+        <v>350000</v>
+      </c>
       <c r="H901">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I901">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="J901">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K901">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P901" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q901" t="str">
+      <c r="Q901" t="e">
         <f t="shared" ref="Q901:Q964" si="36">CONCATENATE(YEAR(D901),MONTH(D901))</f>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="902" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="902" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A902" s="2">
+        <v>296</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C902">
+        <v>5</v>
+      </c>
+      <c r="D902" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E902" s="2">
+        <v>11</v>
+      </c>
       <c r="F902" s="2">
         <v>2016</v>
       </c>
+      <c r="G902" s="2">
+        <v>150000</v>
+      </c>
       <c r="H902">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I902">
         <f t="shared" si="9"/>
@@ -82827,18 +83635,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q902" t="str">
+      <c r="Q902" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="903" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="903" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A903" s="2">
+        <v>297</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C903">
+        <v>2</v>
+      </c>
+      <c r="D903" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E903" s="2">
+        <v>12</v>
+      </c>
       <c r="F903" s="2">
         <v>2016</v>
       </c>
+      <c r="G903" s="2">
+        <v>160000</v>
+      </c>
       <c r="H903">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I903">
         <f t="shared" si="9"/>
@@ -82852,22 +83678,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="O903">
+        <v>10000</v>
+      </c>
       <c r="P903" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q903" t="str">
+      <c r="Q903" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="904" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="904" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A904" s="2">
+        <v>297</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C904">
+        <v>2</v>
+      </c>
+      <c r="D904" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E904" s="2">
+        <v>12</v>
+      </c>
       <c r="F904" s="2">
         <v>2016</v>
       </c>
+      <c r="G904" s="2">
+        <v>160000</v>
+      </c>
       <c r="H904">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I904">
         <f t="shared" si="9"/>
@@ -82881,138 +83728,231 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="O904">
+        <v>10000</v>
+      </c>
       <c r="P904" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q904" t="str">
+      <c r="Q904" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="905" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="905" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A905" s="2">
+        <v>298</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C905">
+        <v>9</v>
+      </c>
+      <c r="D905" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E905" s="2">
+        <v>9</v>
+      </c>
       <c r="F905" s="2">
         <v>2016</v>
       </c>
+      <c r="G905" s="2">
+        <v>425000</v>
+      </c>
       <c r="H905">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I905">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J905">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K905">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P905" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q905" t="str">
+      <c r="Q905" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="906" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="906" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A906" s="2">
+        <v>298</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C906">
+        <v>9</v>
+      </c>
+      <c r="D906" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E906" s="2">
+        <v>10</v>
+      </c>
       <c r="F906" s="2">
         <v>2016</v>
       </c>
+      <c r="G906" s="2">
+        <v>425000</v>
+      </c>
       <c r="H906">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I906">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J906">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K906">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P906" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q906" t="str">
+      <c r="Q906" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="907" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="907" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A907" s="2">
+        <v>298</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C907">
+        <v>9</v>
+      </c>
+      <c r="D907" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E907" s="2">
+        <v>11</v>
+      </c>
       <c r="F907" s="2">
         <v>2016</v>
       </c>
+      <c r="G907" s="2">
+        <v>425000</v>
+      </c>
       <c r="H907">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I907">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J907">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K907">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P907" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q907" t="str">
+      <c r="Q907" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="908" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="908" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A908" s="2">
+        <v>298</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C908">
+        <v>9</v>
+      </c>
+      <c r="D908" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E908" s="2">
+        <v>12</v>
+      </c>
       <c r="F908" s="2">
         <v>2016</v>
       </c>
+      <c r="G908" s="2">
+        <v>425000</v>
+      </c>
       <c r="H908">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I908">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J908">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K908">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P908" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q908" t="str">
+      <c r="Q908" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="909" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="909" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A909" s="2">
+        <v>300</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C909">
+        <v>2</v>
+      </c>
+      <c r="D909" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E909" s="2">
+        <v>12</v>
+      </c>
       <c r="F909" s="2">
         <v>2016</v>
       </c>
+      <c r="G909" s="2">
+        <v>200000</v>
+      </c>
       <c r="H909">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I909">
         <f t="shared" si="9"/>
@@ -83026,16 +83966,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="O909">
+        <v>50000</v>
+      </c>
       <c r="P909" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q909" t="str">
+      <c r="Q909" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="910" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="910" spans="1:17" ht="15.75" customHeight="1">
       <c r="F910" s="2">
         <v>2016</v>
       </c>
@@ -83064,7 +84007,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="911" spans="6:17" ht="15.75" customHeight="1">
+    <row r="911" spans="1:17" ht="15.75" customHeight="1">
       <c r="F911" s="2">
         <v>2016</v>
       </c>
@@ -83093,7 +84036,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="912" spans="6:17" ht="15.75" customHeight="1">
+    <row r="912" spans="1:17" ht="15.75" customHeight="1">
       <c r="F912" s="2">
         <v>2016</v>
       </c>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="255">
   <si>
     <t>No</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>17/12/2016</t>
+  </si>
+  <si>
+    <t>Ubaidullah Bin Husein</t>
   </si>
 </sst>
 </file>
@@ -40879,8 +40882,8 @@
   <dimension ref="A1:AF1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A892" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O913" sqref="O913"/>
+      <pane ySplit="1" topLeftCell="A918" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G925" sqref="G925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -47224,7 +47227,7 @@
         <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="C134" s="2">
         <v>1</v>
@@ -83979,12 +83982,30 @@
       </c>
     </row>
     <row r="910" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A910" s="2">
+        <v>611</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C910">
+        <v>3</v>
+      </c>
+      <c r="D910" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E910" s="2">
+        <v>12</v>
+      </c>
       <c r="F910" s="2">
         <v>2016</v>
       </c>
+      <c r="G910" s="2">
+        <v>150000</v>
+      </c>
       <c r="H910">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I910">
         <f t="shared" si="9"/>
@@ -84004,16 +84025,34 @@
       </c>
       <c r="Q910" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
+        <v>20176</v>
       </c>
     </row>
     <row r="911" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A911" s="2">
+        <v>611</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C911">
+        <v>3</v>
+      </c>
+      <c r="D911" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E911" s="2">
+        <v>1</v>
+      </c>
       <c r="F911" s="2">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="G911" s="2">
+        <v>150000</v>
       </c>
       <c r="H911">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I911">
         <f t="shared" si="9"/>
@@ -84033,16 +84072,34 @@
       </c>
       <c r="Q911" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
+        <v>20176</v>
       </c>
     </row>
     <row r="912" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A912" s="2">
+        <v>612</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C912">
+        <v>1</v>
+      </c>
+      <c r="D912" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E912" s="2">
+        <v>10</v>
+      </c>
       <c r="F912" s="2">
         <v>2016</v>
       </c>
+      <c r="G912" s="2">
+        <v>120000</v>
+      </c>
       <c r="H912">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I912">
         <f t="shared" si="9"/>
@@ -84062,16 +84119,34 @@
       </c>
       <c r="Q912" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="913" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="913" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A913" s="2">
+        <v>612</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C913">
+        <v>1</v>
+      </c>
+      <c r="D913" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E913" s="2">
+        <v>11</v>
+      </c>
       <c r="F913" s="2">
         <v>2016</v>
       </c>
+      <c r="G913" s="2">
+        <v>120000</v>
+      </c>
       <c r="H913">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I913">
         <f t="shared" si="9"/>
@@ -84091,16 +84166,34 @@
       </c>
       <c r="Q913" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="914" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="914" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A914" s="2">
+        <v>612</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C914">
+        <v>1</v>
+      </c>
+      <c r="D914" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E914" s="2">
+        <v>12</v>
+      </c>
       <c r="F914" s="2">
         <v>2016</v>
       </c>
+      <c r="G914" s="2">
+        <v>120000</v>
+      </c>
       <c r="H914">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I914">
         <f t="shared" si="9"/>
@@ -84120,16 +84213,34 @@
       </c>
       <c r="Q914" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="915" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="915" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A915" s="2">
+        <v>612</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C915">
+        <v>1</v>
+      </c>
+      <c r="D915" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E915" s="2">
+        <v>1</v>
+      </c>
       <c r="F915" s="2">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="G915" s="2">
+        <v>120000</v>
       </c>
       <c r="H915">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I915">
         <f t="shared" si="9"/>
@@ -84149,16 +84260,34 @@
       </c>
       <c r="Q915" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="916" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="916" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A916" s="2">
+        <v>612</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C916">
+        <v>2</v>
+      </c>
+      <c r="D916" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E916" s="2">
+        <v>10</v>
+      </c>
       <c r="F916" s="2">
         <v>2016</v>
       </c>
+      <c r="G916" s="2">
+        <v>120000</v>
+      </c>
       <c r="H916">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="H916:H919" si="37">IF(C916&lt;6,IF(E916&lt;1,0,IF(G916&gt;150000,150000,G916)),150000)</f>
+        <v>120000</v>
       </c>
       <c r="I916">
         <f t="shared" si="9"/>
@@ -84178,16 +84307,34 @@
       </c>
       <c r="Q916" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="917" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="917" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A917" s="2">
+        <v>612</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C917">
+        <v>1</v>
+      </c>
+      <c r="D917" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E917" s="2">
+        <v>11</v>
+      </c>
       <c r="F917" s="2">
         <v>2016</v>
       </c>
+      <c r="G917" s="2">
+        <v>120000</v>
+      </c>
       <c r="H917">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>120000</v>
       </c>
       <c r="I917">
         <f t="shared" si="9"/>
@@ -84207,16 +84354,34 @@
       </c>
       <c r="Q917" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="918" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="918" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A918" s="2">
+        <v>612</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C918">
+        <v>1</v>
+      </c>
+      <c r="D918" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E918" s="2">
+        <v>12</v>
+      </c>
       <c r="F918" s="2">
         <v>2016</v>
       </c>
+      <c r="G918" s="2">
+        <v>120000</v>
+      </c>
       <c r="H918">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>120000</v>
       </c>
       <c r="I918">
         <f t="shared" si="9"/>
@@ -84236,16 +84401,34 @@
       </c>
       <c r="Q918" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="919" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="919" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A919" s="2">
+        <v>612</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C919">
+        <v>1</v>
+      </c>
+      <c r="D919" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E919" s="2">
+        <v>1</v>
+      </c>
       <c r="F919" s="2">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="G919" s="2">
+        <v>120000</v>
       </c>
       <c r="H919">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>120000</v>
       </c>
       <c r="I919">
         <f t="shared" si="9"/>
@@ -84265,28 +84448,46 @@
       </c>
       <c r="Q919" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="920" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="920" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A920" s="2">
+        <v>613</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C920">
+        <v>9</v>
+      </c>
+      <c r="D920" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E920" s="2">
+        <v>1</v>
+      </c>
       <c r="F920" s="2">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="G920" s="2">
+        <v>425000</v>
       </c>
       <c r="H920">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I920">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J920">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K920">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P920" t="b">
         <f t="shared" si="4"/>
@@ -84294,28 +84495,46 @@
       </c>
       <c r="Q920" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="921" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="921" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A921" s="2">
+        <v>614</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C921">
+        <v>8</v>
+      </c>
+      <c r="D921" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E921" s="2">
+        <v>12</v>
+      </c>
       <c r="F921" s="2">
         <v>2016</v>
       </c>
+      <c r="G921" s="2">
+        <v>425000</v>
+      </c>
       <c r="H921">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I921">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J921">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K921">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P921" t="b">
         <f t="shared" si="4"/>
@@ -84323,28 +84542,46 @@
       </c>
       <c r="Q921" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="922" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="922" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A922" s="2">
+        <v>614</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C922">
+        <v>8</v>
+      </c>
+      <c r="D922" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E922" s="2">
+        <v>1</v>
+      </c>
       <c r="F922" s="2">
-        <v>2016</v>
+        <v>2017</v>
+      </c>
+      <c r="G922" s="2">
+        <v>425000</v>
       </c>
       <c r="H922">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I922">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J922">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K922">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P922" t="b">
         <f t="shared" si="4"/>
@@ -84352,16 +84589,34 @@
       </c>
       <c r="Q922" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="923" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="923" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A923" s="2">
+        <v>615</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C923">
+        <v>2</v>
+      </c>
+      <c r="D923" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E923" s="2">
+        <v>12</v>
+      </c>
       <c r="F923" s="2">
         <v>2016</v>
       </c>
+      <c r="G923" s="2">
+        <v>150000</v>
+      </c>
       <c r="H923">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I923">
         <f t="shared" si="9"/>
@@ -84381,12 +84636,15 @@
       </c>
       <c r="Q923" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="924" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="924" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D924" s="8">
+        <v>42887</v>
+      </c>
       <c r="F924" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H924">
         <f t="shared" si="0"/>
@@ -84410,12 +84668,15 @@
       </c>
       <c r="Q924" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="925" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="925" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D925" s="8">
+        <v>42887</v>
+      </c>
       <c r="F925" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H925">
         <f t="shared" si="0"/>
@@ -84439,12 +84700,15 @@
       </c>
       <c r="Q925" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="926" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="926" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D926" s="8">
+        <v>42887</v>
+      </c>
       <c r="F926" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H926">
         <f t="shared" si="0"/>
@@ -84468,12 +84732,15 @@
       </c>
       <c r="Q926" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="927" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="927" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D927" s="8">
+        <v>42887</v>
+      </c>
       <c r="F927" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H927">
         <f t="shared" si="0"/>
@@ -84497,12 +84764,15 @@
       </c>
       <c r="Q927" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="928" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="928" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D928" s="8">
+        <v>42887</v>
+      </c>
       <c r="F928" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H928">
         <f t="shared" si="0"/>
@@ -84526,12 +84796,15 @@
       </c>
       <c r="Q928" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="929" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="929" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D929" s="8">
+        <v>42887</v>
+      </c>
       <c r="F929" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H929">
         <f t="shared" si="0"/>
@@ -84555,12 +84828,15 @@
       </c>
       <c r="Q929" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="930" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="930" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D930" s="8">
+        <v>42887</v>
+      </c>
       <c r="F930" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H930">
         <f t="shared" si="0"/>
@@ -84584,12 +84860,15 @@
       </c>
       <c r="Q930" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="931" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="931" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D931" s="8">
+        <v>42887</v>
+      </c>
       <c r="F931" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H931">
         <f t="shared" si="0"/>
@@ -84613,12 +84892,15 @@
       </c>
       <c r="Q931" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="932" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="932" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D932" s="8">
+        <v>42887</v>
+      </c>
       <c r="F932" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H932">
         <f t="shared" si="0"/>
@@ -84642,12 +84924,15 @@
       </c>
       <c r="Q932" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="933" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="933" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D933" s="8">
+        <v>42887</v>
+      </c>
       <c r="F933" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H933">
         <f t="shared" si="0"/>
@@ -84671,12 +84956,15 @@
       </c>
       <c r="Q933" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="934" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="934" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D934" s="8">
+        <v>42887</v>
+      </c>
       <c r="F934" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H934">
         <f t="shared" si="0"/>
@@ -84700,12 +84988,15 @@
       </c>
       <c r="Q934" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="935" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="935" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D935" s="8">
+        <v>42887</v>
+      </c>
       <c r="F935" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H935">
         <f t="shared" si="0"/>
@@ -84729,12 +85020,15 @@
       </c>
       <c r="Q935" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="936" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="936" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D936" s="8">
+        <v>42887</v>
+      </c>
       <c r="F936" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H936">
         <f t="shared" si="0"/>
@@ -84758,12 +85052,15 @@
       </c>
       <c r="Q936" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="937" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="937" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D937" s="8">
+        <v>42887</v>
+      </c>
       <c r="F937" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H937">
         <f t="shared" si="0"/>
@@ -84787,12 +85084,15 @@
       </c>
       <c r="Q937" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="938" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="938" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D938" s="8">
+        <v>42887</v>
+      </c>
       <c r="F938" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H938">
         <f t="shared" si="0"/>
@@ -84816,12 +85116,12 @@
       </c>
       <c r="Q938" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="939" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="939" spans="4:17" ht="15.75" customHeight="1">
       <c r="F939" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H939">
         <f t="shared" si="0"/>
@@ -84848,9 +85148,9 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="940" spans="6:17" ht="15.75" customHeight="1">
+    <row r="940" spans="4:17" ht="15.75" customHeight="1">
       <c r="F940" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H940">
         <f t="shared" si="0"/>
@@ -84877,9 +85177,9 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="941" spans="6:17" ht="15.75" customHeight="1">
+    <row r="941" spans="4:17" ht="15.75" customHeight="1">
       <c r="F941" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H941">
         <f t="shared" si="0"/>
@@ -84906,9 +85206,9 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="942" spans="6:17" ht="15.75" customHeight="1">
+    <row r="942" spans="4:17" ht="15.75" customHeight="1">
       <c r="F942" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H942">
         <f t="shared" si="0"/>
@@ -84935,9 +85235,9 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="943" spans="6:17" ht="15.75" customHeight="1">
+    <row r="943" spans="4:17" ht="15.75" customHeight="1">
       <c r="F943" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H943">
         <f t="shared" si="0"/>
@@ -84964,9 +85264,9 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="944" spans="6:17" ht="15.75" customHeight="1">
+    <row r="944" spans="4:17" ht="15.75" customHeight="1">
       <c r="F944" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H944">
         <f t="shared" si="0"/>
@@ -84995,7 +85295,7 @@
     </row>
     <row r="945" spans="6:17" ht="15.75" customHeight="1">
       <c r="F945" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H945">
         <f t="shared" si="0"/>
@@ -85024,7 +85324,7 @@
     </row>
     <row r="946" spans="6:17" ht="15.75" customHeight="1">
       <c r="F946" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H946">
         <f t="shared" si="0"/>
@@ -85053,7 +85353,7 @@
     </row>
     <row r="947" spans="6:17" ht="15.75" customHeight="1">
       <c r="F947" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H947">
         <f t="shared" si="0"/>
@@ -85082,7 +85382,7 @@
     </row>
     <row r="948" spans="6:17" ht="15.75" customHeight="1">
       <c r="F948" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H948">
         <f t="shared" si="0"/>
@@ -85111,7 +85411,7 @@
     </row>
     <row r="949" spans="6:17" ht="15.75" customHeight="1">
       <c r="F949" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H949">
         <f t="shared" si="0"/>
@@ -85140,7 +85440,7 @@
     </row>
     <row r="950" spans="6:17" ht="15.75" customHeight="1">
       <c r="F950" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H950">
         <f t="shared" si="0"/>
@@ -85169,7 +85469,7 @@
     </row>
     <row r="951" spans="6:17" ht="15.75" customHeight="1">
       <c r="F951" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H951">
         <f t="shared" si="0"/>
@@ -85198,7 +85498,7 @@
     </row>
     <row r="952" spans="6:17" ht="15.75" customHeight="1">
       <c r="F952" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H952">
         <f t="shared" si="0"/>
@@ -85227,7 +85527,7 @@
     </row>
     <row r="953" spans="6:17" ht="15.75" customHeight="1">
       <c r="F953" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H953">
         <f t="shared" si="0"/>
@@ -85256,7 +85556,7 @@
     </row>
     <row r="954" spans="6:17" ht="15.75" customHeight="1">
       <c r="F954" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H954">
         <f t="shared" si="0"/>
@@ -85285,7 +85585,7 @@
     </row>
     <row r="955" spans="6:17" ht="15.75" customHeight="1">
       <c r="F955" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H955">
         <f t="shared" si="0"/>
@@ -85314,7 +85614,7 @@
     </row>
     <row r="956" spans="6:17" ht="15.75" customHeight="1">
       <c r="F956" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H956">
         <f t="shared" si="0"/>
@@ -85343,7 +85643,7 @@
     </row>
     <row r="957" spans="6:17" ht="15.75" customHeight="1">
       <c r="F957" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H957">
         <f t="shared" si="0"/>
@@ -85372,7 +85672,7 @@
     </row>
     <row r="958" spans="6:17" ht="15.75" customHeight="1">
       <c r="F958" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H958">
         <f t="shared" si="0"/>
@@ -85401,7 +85701,7 @@
     </row>
     <row r="959" spans="6:17" ht="15.75" customHeight="1">
       <c r="F959" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H959">
         <f t="shared" si="0"/>
@@ -85430,7 +85730,7 @@
     </row>
     <row r="960" spans="6:17" ht="15.75" customHeight="1">
       <c r="F960" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H960">
         <f t="shared" si="0"/>
@@ -85459,7 +85759,7 @@
     </row>
     <row r="961" spans="6:17" ht="15.75" customHeight="1">
       <c r="F961" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H961">
         <f t="shared" si="0"/>
@@ -85488,7 +85788,7 @@
     </row>
     <row r="962" spans="6:17" ht="15.75" customHeight="1">
       <c r="F962" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H962">
         <f t="shared" si="0"/>
@@ -85517,7 +85817,7 @@
     </row>
     <row r="963" spans="6:17" ht="15.75" customHeight="1">
       <c r="F963" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H963">
         <f t="shared" si="0"/>
@@ -85546,7 +85846,7 @@
     </row>
     <row r="964" spans="6:17" ht="15.75" customHeight="1">
       <c r="F964" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H964">
         <f t="shared" si="0"/>
@@ -85575,7 +85875,7 @@
     </row>
     <row r="965" spans="6:17" ht="15.75" customHeight="1">
       <c r="F965" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H965">
         <f t="shared" si="0"/>
@@ -85598,13 +85898,13 @@
         <v>1</v>
       </c>
       <c r="Q965" t="str">
-        <f t="shared" ref="Q965:Q1002" si="37">CONCATENATE(YEAR(D965),MONTH(D965))</f>
+        <f t="shared" ref="Q965:Q1002" si="38">CONCATENATE(YEAR(D965),MONTH(D965))</f>
         <v>19001</v>
       </c>
     </row>
     <row r="966" spans="6:17" ht="15.75" customHeight="1">
       <c r="F966" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H966">
         <f t="shared" si="0"/>
@@ -85627,13 +85927,13 @@
         <v>1</v>
       </c>
       <c r="Q966" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="967" spans="6:17" ht="15.75" customHeight="1">
       <c r="F967" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H967">
         <f t="shared" si="0"/>
@@ -85656,13 +85956,13 @@
         <v>1</v>
       </c>
       <c r="Q967" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="968" spans="6:17" ht="15.75" customHeight="1">
       <c r="F968" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H968">
         <f t="shared" si="0"/>
@@ -85685,13 +85985,13 @@
         <v>1</v>
       </c>
       <c r="Q968" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="969" spans="6:17" ht="15.75" customHeight="1">
       <c r="F969" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H969">
         <f t="shared" si="0"/>
@@ -85714,13 +86014,13 @@
         <v>1</v>
       </c>
       <c r="Q969" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="970" spans="6:17" ht="15.75" customHeight="1">
       <c r="F970" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H970">
         <f t="shared" si="0"/>
@@ -85743,13 +86043,13 @@
         <v>1</v>
       </c>
       <c r="Q970" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="971" spans="6:17" ht="15.75" customHeight="1">
       <c r="F971" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H971">
         <f t="shared" si="0"/>
@@ -85772,13 +86072,13 @@
         <v>1</v>
       </c>
       <c r="Q971" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="972" spans="6:17" ht="15.75" customHeight="1">
       <c r="F972" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H972">
         <f t="shared" si="0"/>
@@ -85801,13 +86101,13 @@
         <v>1</v>
       </c>
       <c r="Q972" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="973" spans="6:17" ht="15.75" customHeight="1">
       <c r="F973" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H973">
         <f t="shared" si="0"/>
@@ -85830,13 +86130,13 @@
         <v>1</v>
       </c>
       <c r="Q973" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="974" spans="6:17" ht="15.75" customHeight="1">
       <c r="F974" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H974">
         <f t="shared" si="0"/>
@@ -85859,13 +86159,13 @@
         <v>1</v>
       </c>
       <c r="Q974" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="975" spans="6:17" ht="15.75" customHeight="1">
       <c r="F975" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H975">
         <f t="shared" si="0"/>
@@ -85888,13 +86188,13 @@
         <v>1</v>
       </c>
       <c r="Q975" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="976" spans="6:17" ht="15.75" customHeight="1">
       <c r="F976" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H976">
         <f t="shared" si="0"/>
@@ -85917,13 +86217,13 @@
         <v>1</v>
       </c>
       <c r="Q976" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="977" spans="6:17" ht="15.75" customHeight="1">
       <c r="F977" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H977">
         <f t="shared" si="0"/>
@@ -85946,13 +86246,13 @@
         <v>1</v>
       </c>
       <c r="Q977" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="978" spans="6:17" ht="15.75" customHeight="1">
       <c r="F978" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H978">
         <f t="shared" si="0"/>
@@ -85975,13 +86275,13 @@
         <v>1</v>
       </c>
       <c r="Q978" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="979" spans="6:17" ht="15.75" customHeight="1">
       <c r="F979" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H979">
         <f t="shared" si="0"/>
@@ -86004,13 +86304,13 @@
         <v>1</v>
       </c>
       <c r="Q979" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="980" spans="6:17" ht="15.75" customHeight="1">
       <c r="F980" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H980">
         <f t="shared" si="0"/>
@@ -86033,13 +86333,13 @@
         <v>1</v>
       </c>
       <c r="Q980" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="981" spans="6:17" ht="15.75" customHeight="1">
       <c r="F981" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H981">
         <f t="shared" si="0"/>
@@ -86062,13 +86362,13 @@
         <v>1</v>
       </c>
       <c r="Q981" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="982" spans="6:17" ht="15.75" customHeight="1">
       <c r="F982" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H982">
         <f t="shared" si="0"/>
@@ -86091,13 +86391,13 @@
         <v>1</v>
       </c>
       <c r="Q982" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="983" spans="6:17" ht="15.75" customHeight="1">
       <c r="F983" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H983">
         <f t="shared" si="0"/>
@@ -86120,13 +86420,13 @@
         <v>1</v>
       </c>
       <c r="Q983" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="984" spans="6:17" ht="15.75" customHeight="1">
       <c r="F984" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H984">
         <f t="shared" si="0"/>
@@ -86149,13 +86449,13 @@
         <v>1</v>
       </c>
       <c r="Q984" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="985" spans="6:17" ht="15.75" customHeight="1">
       <c r="F985" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H985">
         <f t="shared" si="0"/>
@@ -86178,13 +86478,13 @@
         <v>1</v>
       </c>
       <c r="Q985" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="986" spans="6:17" ht="15.75" customHeight="1">
       <c r="F986" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H986">
         <f t="shared" si="0"/>
@@ -86207,13 +86507,13 @@
         <v>1</v>
       </c>
       <c r="Q986" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="987" spans="6:17" ht="15.75" customHeight="1">
       <c r="F987" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H987">
         <f t="shared" si="0"/>
@@ -86236,13 +86536,13 @@
         <v>1</v>
       </c>
       <c r="Q987" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="988" spans="6:17" ht="15.75" customHeight="1">
       <c r="F988" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H988">
         <f t="shared" si="0"/>
@@ -86265,13 +86565,13 @@
         <v>1</v>
       </c>
       <c r="Q988" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="989" spans="6:17" ht="15.75" customHeight="1">
       <c r="F989" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H989">
         <f t="shared" si="0"/>
@@ -86294,13 +86594,13 @@
         <v>1</v>
       </c>
       <c r="Q989" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="990" spans="6:17" ht="15.75" customHeight="1">
       <c r="F990" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H990">
         <f t="shared" si="0"/>
@@ -86323,13 +86623,13 @@
         <v>1</v>
       </c>
       <c r="Q990" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="991" spans="6:17" ht="15.75" customHeight="1">
       <c r="F991" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H991">
         <f t="shared" si="0"/>
@@ -86352,13 +86652,13 @@
         <v>1</v>
       </c>
       <c r="Q991" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="992" spans="6:17" ht="15.75" customHeight="1">
       <c r="F992" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H992">
         <f t="shared" si="0"/>
@@ -86381,13 +86681,13 @@
         <v>1</v>
       </c>
       <c r="Q992" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="993" spans="1:17" ht="15.75" customHeight="1">
       <c r="F993" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H993">
         <f t="shared" si="0"/>
@@ -86410,13 +86710,13 @@
         <v>1</v>
       </c>
       <c r="Q993" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="994" spans="1:17" ht="15.75" customHeight="1">
       <c r="F994" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H994">
         <f t="shared" si="0"/>
@@ -86439,13 +86739,13 @@
         <v>1</v>
       </c>
       <c r="Q994" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="995" spans="1:17" ht="15.75" customHeight="1">
       <c r="F995" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H995">
         <f t="shared" si="0"/>
@@ -86468,13 +86768,13 @@
         <v>1</v>
       </c>
       <c r="Q995" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="996" spans="1:17" ht="15.75" customHeight="1">
       <c r="F996" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H996">
         <f t="shared" si="0"/>
@@ -86497,13 +86797,13 @@
         <v>1</v>
       </c>
       <c r="Q996" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="997" spans="1:17" ht="15.75" customHeight="1">
       <c r="F997" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H997">
         <f t="shared" si="0"/>
@@ -86526,13 +86826,13 @@
         <v>1</v>
       </c>
       <c r="Q997" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="998" spans="1:17" ht="15.75" customHeight="1">
       <c r="F998" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H998">
         <f t="shared" si="0"/>
@@ -86555,13 +86855,13 @@
         <v>1</v>
       </c>
       <c r="Q998" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="999" spans="1:17" ht="15.75" customHeight="1">
       <c r="F999" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H999">
         <f t="shared" si="0"/>
@@ -86584,13 +86884,13 @@
         <v>1</v>
       </c>
       <c r="Q999" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="1000" spans="1:17" ht="15.75" customHeight="1">
       <c r="F1000" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H1000">
         <f t="shared" si="0"/>
@@ -86613,13 +86913,13 @@
         <v>1</v>
       </c>
       <c r="Q1000" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="1001" spans="1:17" ht="15.75" customHeight="1">
       <c r="F1001" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H1001">
         <f t="shared" si="0"/>
@@ -86642,13 +86942,13 @@
         <v>1</v>
       </c>
       <c r="Q1001" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
     <row r="1002" spans="1:17" ht="15.75" customHeight="1">
       <c r="F1002" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H1002">
         <f t="shared" si="0"/>
@@ -86671,7 +86971,7 @@
         <v>1</v>
       </c>
       <c r="Q1002" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19001</v>
       </c>
     </row>
@@ -86679,7 +86979,7 @@
       <c r="B1003" s="2"/>
       <c r="D1003" s="8"/>
       <c r="F1003" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1004" spans="1:17" ht="15.75" customHeight="1">

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="259">
   <si>
     <t>No</t>
   </si>
@@ -790,6 +790,18 @@
   </si>
   <si>
     <t>Ubaidullah Bin Husein</t>
+  </si>
+  <si>
+    <t>Urwah Abdurrahman</t>
+  </si>
+  <si>
+    <t>Uthbah Abdurrahman</t>
+  </si>
+  <si>
+    <t>30/11/2017</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -40882,8 +40894,8 @@
   <dimension ref="A1:AF1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A918" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G925" sqref="G925"/>
+      <pane ySplit="1" topLeftCell="A938" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A954" sqref="A954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -48699,7 +48711,7 @@
         <v>42637</v>
       </c>
       <c r="E165" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F165" s="2">
         <v>2016</v>
@@ -55914,7 +55926,7 @@
         <v>397</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="C317" s="2">
         <v>2</v>
@@ -55961,7 +55973,7 @@
         <v>397</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="C318" s="2">
         <v>2</v>
@@ -55970,7 +55982,7 @@
         <v>42665</v>
       </c>
       <c r="E318" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F318" s="2">
         <v>2016</v>
@@ -84640,15 +84652,30 @@
       </c>
     </row>
     <row r="924" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A924" s="2">
+        <v>616</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C924">
+        <v>1</v>
+      </c>
       <c r="D924" s="8">
         <v>42887</v>
       </c>
+      <c r="E924" s="2">
+        <v>1</v>
+      </c>
       <c r="F924" s="2">
         <v>2017</v>
       </c>
+      <c r="G924" s="2">
+        <v>150000</v>
+      </c>
       <c r="H924">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I924">
         <f t="shared" si="9"/>
@@ -84672,15 +84699,30 @@
       </c>
     </row>
     <row r="925" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A925" s="2">
+        <v>617</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C925">
+        <v>1</v>
+      </c>
       <c r="D925" s="8">
         <v>42887</v>
       </c>
+      <c r="E925" s="2">
+        <v>1</v>
+      </c>
       <c r="F925" s="2">
         <v>2017</v>
       </c>
+      <c r="G925" s="2">
+        <v>250000</v>
+      </c>
       <c r="H925">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I925">
         <f t="shared" si="9"/>
@@ -84693,6 +84735,9 @@
       <c r="K925">
         <f t="shared" si="11"/>
         <v>0</v>
+      </c>
+      <c r="O925">
+        <v>100000</v>
       </c>
       <c r="P925" t="b">
         <f t="shared" si="4"/>
@@ -84704,15 +84749,30 @@
       </c>
     </row>
     <row r="926" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A926" s="2">
+        <v>618</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C926">
+        <v>2</v>
+      </c>
       <c r="D926" s="8">
         <v>42887</v>
       </c>
+      <c r="E926" s="2">
+        <v>1</v>
+      </c>
       <c r="F926" s="2">
         <v>2017</v>
       </c>
+      <c r="G926" s="2">
+        <v>100000</v>
+      </c>
       <c r="H926">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I926">
         <f t="shared" si="9"/>
@@ -84736,15 +84796,30 @@
       </c>
     </row>
     <row r="927" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A927" s="2">
+        <v>618</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C927">
+        <v>3</v>
+      </c>
       <c r="D927" s="8">
         <v>42887</v>
       </c>
+      <c r="E927" s="2">
+        <v>1</v>
+      </c>
       <c r="F927" s="2">
         <v>2017</v>
       </c>
+      <c r="G927" s="2">
+        <v>100000</v>
+      </c>
       <c r="H927">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I927">
         <f t="shared" si="9"/>
@@ -84768,15 +84843,30 @@
       </c>
     </row>
     <row r="928" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A928" s="2">
+        <v>619</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C928">
+        <v>2</v>
+      </c>
       <c r="D928" s="8">
         <v>42887</v>
       </c>
+      <c r="E928" s="2">
+        <v>1</v>
+      </c>
       <c r="F928" s="2">
         <v>2017</v>
       </c>
+      <c r="G928" s="2">
+        <v>175000</v>
+      </c>
       <c r="H928">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I928">
         <f t="shared" si="9"/>
@@ -84789,6 +84879,9 @@
       <c r="K928">
         <f t="shared" si="11"/>
         <v>0</v>
+      </c>
+      <c r="N928">
+        <v>25000</v>
       </c>
       <c r="P928" t="b">
         <f t="shared" si="4"/>
@@ -84799,16 +84892,31 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="929" spans="4:17" ht="15.75" customHeight="1">
+    <row r="929" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A929" s="2">
+        <v>620</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C929">
+        <v>3</v>
+      </c>
       <c r="D929" s="8">
         <v>42887</v>
       </c>
+      <c r="E929" s="2">
+        <v>1</v>
+      </c>
       <c r="F929" s="2">
         <v>2017</v>
       </c>
+      <c r="G929" s="2">
+        <v>150000</v>
+      </c>
       <c r="H929">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I929">
         <f t="shared" si="9"/>
@@ -84831,16 +84939,31 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="930" spans="4:17" ht="15.75" customHeight="1">
+    <row r="930" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A930" s="2">
+        <v>621</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C930">
+        <v>1</v>
+      </c>
       <c r="D930" s="8">
         <v>42887</v>
       </c>
+      <c r="E930" s="2">
+        <v>12</v>
+      </c>
       <c r="F930" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G930" s="2">
+        <v>150000</v>
       </c>
       <c r="H930">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I930">
         <f t="shared" si="9"/>
@@ -84863,16 +84986,31 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="931" spans="4:17" ht="15.75" customHeight="1">
+    <row r="931" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A931" s="2">
+        <v>621</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C931">
+        <v>1</v>
+      </c>
       <c r="D931" s="8">
         <v>42887</v>
       </c>
+      <c r="E931" s="2">
+        <v>1</v>
+      </c>
       <c r="F931" s="2">
         <v>2017</v>
       </c>
+      <c r="G931" s="2">
+        <v>150000</v>
+      </c>
       <c r="H931">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I931">
         <f t="shared" si="9"/>
@@ -84895,16 +85033,31 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="932" spans="4:17" ht="15.75" customHeight="1">
+    <row r="932" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A932" s="2">
+        <v>622</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C932">
+        <v>3</v>
+      </c>
       <c r="D932" s="8">
         <v>42887</v>
       </c>
+      <c r="E932" s="2">
+        <v>8</v>
+      </c>
       <c r="F932" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G932" s="2">
+        <v>150000</v>
       </c>
       <c r="H932">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I932">
         <f t="shared" si="9"/>
@@ -84927,16 +85080,31 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="933" spans="4:17" ht="15.75" customHeight="1">
+    <row r="933" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A933" s="2">
+        <v>622</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C933">
+        <v>3</v>
+      </c>
       <c r="D933" s="8">
         <v>42887</v>
       </c>
+      <c r="E933" s="2">
+        <v>12</v>
+      </c>
       <c r="F933" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G933" s="2">
+        <v>150000</v>
       </c>
       <c r="H933">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I933">
         <f t="shared" si="9"/>
@@ -84959,16 +85127,31 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="934" spans="4:17" ht="15.75" customHeight="1">
+    <row r="934" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A934" s="2">
+        <v>622</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C934">
+        <v>3</v>
+      </c>
       <c r="D934" s="8">
         <v>42887</v>
       </c>
+      <c r="E934" s="2">
+        <v>1</v>
+      </c>
       <c r="F934" s="2">
         <v>2017</v>
       </c>
+      <c r="G934" s="2">
+        <v>150000</v>
+      </c>
       <c r="H934">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I934">
         <f t="shared" si="9"/>
@@ -84991,16 +85174,31 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="935" spans="4:17" ht="15.75" customHeight="1">
+    <row r="935" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A935" s="2">
+        <v>623</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C935">
+        <v>1</v>
+      </c>
       <c r="D935" s="8">
         <v>42887</v>
       </c>
+      <c r="E935" s="2">
+        <v>12</v>
+      </c>
       <c r="F935" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G935" s="2">
+        <v>150000</v>
       </c>
       <c r="H935">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I935">
         <f t="shared" si="9"/>
@@ -85023,16 +85221,31 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="936" spans="4:17" ht="15.75" customHeight="1">
+    <row r="936" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A936" s="2">
+        <v>623</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C936">
+        <v>1</v>
+      </c>
       <c r="D936" s="8">
         <v>42887</v>
       </c>
+      <c r="E936" s="2">
+        <v>1</v>
+      </c>
       <c r="F936" s="2">
         <v>2017</v>
       </c>
+      <c r="G936" s="2">
+        <v>150000</v>
+      </c>
       <c r="H936">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I936">
         <f t="shared" si="9"/>
@@ -85055,16 +85268,31 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="937" spans="4:17" ht="15.75" customHeight="1">
+    <row r="937" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A937" s="2">
+        <v>623</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C937">
+        <v>4</v>
+      </c>
       <c r="D937" s="8">
         <v>42887</v>
       </c>
+      <c r="E937" s="2">
+        <v>12</v>
+      </c>
       <c r="F937" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G937" s="2">
+        <v>150000</v>
       </c>
       <c r="H937">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I937">
         <f t="shared" si="9"/>
@@ -85087,16 +85315,31 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="938" spans="4:17" ht="15.75" customHeight="1">
+    <row r="938" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A938" s="2">
+        <v>623</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C938">
+        <v>4</v>
+      </c>
       <c r="D938" s="8">
         <v>42887</v>
       </c>
+      <c r="E938" s="2">
+        <v>1</v>
+      </c>
       <c r="F938" s="2">
         <v>2017</v>
       </c>
+      <c r="G938" s="2">
+        <v>150000</v>
+      </c>
       <c r="H938">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I938">
         <f t="shared" si="9"/>
@@ -85119,25 +85362,43 @@
         <v>20176</v>
       </c>
     </row>
-    <row r="939" spans="4:17" ht="15.75" customHeight="1">
+    <row r="939" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A939" s="2">
+        <v>624</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C939">
+        <v>7</v>
+      </c>
+      <c r="D939" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E939" s="2">
+        <v>1</v>
+      </c>
       <c r="F939" s="2">
         <v>2017</v>
       </c>
+      <c r="G939" s="2">
+        <v>425000</v>
+      </c>
       <c r="H939">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I939">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J939">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K939">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P939" t="b">
         <f t="shared" si="4"/>
@@ -85145,28 +85406,46 @@
       </c>
       <c r="Q939" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="940" spans="4:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="940" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A940" s="2">
+        <v>624</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C940">
+        <v>7</v>
+      </c>
+      <c r="D940" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E940" s="2">
+        <v>1</v>
+      </c>
       <c r="F940" s="2">
         <v>2017</v>
       </c>
+      <c r="G940" s="2">
+        <v>425000</v>
+      </c>
       <c r="H940">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I940">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J940">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K940">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P940" t="b">
         <f t="shared" si="4"/>
@@ -85174,28 +85453,49 @@
       </c>
       <c r="Q940" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="941" spans="4:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="941" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A941" s="2">
+        <v>625</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C941">
+        <v>7</v>
+      </c>
+      <c r="D941" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E941" s="2">
+        <v>1</v>
+      </c>
       <c r="F941" s="2">
         <v>2017</v>
       </c>
+      <c r="G941" s="2">
+        <v>435000</v>
+      </c>
       <c r="H941">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I941">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J941">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K941">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="N941">
+        <v>10000</v>
       </c>
       <c r="P941" t="b">
         <f t="shared" si="4"/>
@@ -85203,16 +85503,34 @@
       </c>
       <c r="Q941" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="942" spans="4:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="942" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A942" s="2">
+        <v>626</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C942">
+        <v>2</v>
+      </c>
+      <c r="D942" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E942" s="2">
+        <v>11</v>
+      </c>
       <c r="F942" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G942" s="2">
+        <v>150000</v>
       </c>
       <c r="H942">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I942">
         <f t="shared" si="9"/>
@@ -85232,16 +85550,34 @@
       </c>
       <c r="Q942" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="943" spans="4:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="943" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A943" s="2">
+        <v>397</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C943" s="2">
+        <v>3</v>
+      </c>
+      <c r="D943" s="4">
+        <v>42665</v>
+      </c>
+      <c r="E943" s="2">
+        <v>7</v>
+      </c>
       <c r="F943" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G943" s="2">
+        <v>150000</v>
       </c>
       <c r="H943">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="H943:H944" si="38">IF(C943&lt;6,IF(E943&lt;1,0,IF(G943&gt;150000,150000,G943)),150000)</f>
+        <v>150000</v>
       </c>
       <c r="I943">
         <f t="shared" si="9"/>
@@ -85261,16 +85597,34 @@
       </c>
       <c r="Q943" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="944" spans="4:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="944" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A944" s="2">
+        <v>397</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C944" s="2">
+        <v>3</v>
+      </c>
+      <c r="D944" s="4">
+        <v>42665</v>
+      </c>
+      <c r="E944" s="2">
+        <v>8</v>
+      </c>
       <c r="F944" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G944" s="2">
+        <v>150000</v>
       </c>
       <c r="H944">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>150000</v>
       </c>
       <c r="I944">
         <f t="shared" si="9"/>
@@ -85290,16 +85644,34 @@
       </c>
       <c r="Q944" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="945" spans="6:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="945" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A945" s="2">
+        <v>626</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C945">
+        <v>2</v>
+      </c>
+      <c r="D945" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E945" s="2">
+        <v>12</v>
+      </c>
       <c r="F945" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G945" s="2">
+        <v>150000</v>
       </c>
       <c r="H945">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I945">
         <f t="shared" si="9"/>
@@ -85319,16 +85691,34 @@
       </c>
       <c r="Q945" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="946" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="946" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A946" s="2">
+        <v>626</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C946">
+        <v>2</v>
+      </c>
+      <c r="D946" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E946" s="2">
+        <v>1</v>
+      </c>
       <c r="F946" s="2">
         <v>2017</v>
       </c>
+      <c r="G946" s="2">
+        <v>150000</v>
+      </c>
       <c r="H946">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I946">
         <f t="shared" si="9"/>
@@ -85348,16 +85738,34 @@
       </c>
       <c r="Q946" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="947" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="947" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A947" s="2">
+        <v>626</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C947">
+        <v>3</v>
+      </c>
+      <c r="D947" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E947" s="2">
+        <v>11</v>
+      </c>
       <c r="F947" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G947" s="2">
+        <v>150000</v>
       </c>
       <c r="H947">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I947">
         <f t="shared" si="9"/>
@@ -85377,16 +85785,34 @@
       </c>
       <c r="Q947" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="948" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="948" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A948" s="2">
+        <v>626</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C948">
+        <v>3</v>
+      </c>
+      <c r="D948" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E948" s="2">
+        <v>12</v>
+      </c>
       <c r="F948" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G948" s="2">
+        <v>150000</v>
       </c>
       <c r="H948">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I948">
         <f t="shared" si="9"/>
@@ -85406,16 +85832,34 @@
       </c>
       <c r="Q948" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="949" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="949" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A949" s="2">
+        <v>626</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C949">
+        <v>3</v>
+      </c>
+      <c r="D949" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E949" s="2">
+        <v>1</v>
+      </c>
       <c r="F949" s="2">
         <v>2017</v>
       </c>
+      <c r="G949" s="2">
+        <v>150000</v>
+      </c>
       <c r="H949">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I949">
         <f t="shared" si="9"/>
@@ -85435,16 +85879,34 @@
       </c>
       <c r="Q949" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="950" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="950" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A950" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C950">
+        <v>2</v>
+      </c>
+      <c r="D950" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E950" s="2">
+        <v>9</v>
+      </c>
       <c r="F950" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G950" s="2">
+        <v>150000</v>
       </c>
       <c r="H950">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I950">
         <f t="shared" si="9"/>
@@ -85462,18 +85924,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q950" t="str">
+      <c r="Q950" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="951" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="951" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A951" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C951">
+        <v>2</v>
+      </c>
+      <c r="D951" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E951" s="2">
+        <v>10</v>
+      </c>
       <c r="F951" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G951" s="2">
+        <v>150000</v>
       </c>
       <c r="H951">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I951">
         <f t="shared" si="9"/>
@@ -85491,18 +85971,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q951" t="str">
+      <c r="Q951" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="952" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="952" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A952" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C952">
+        <v>3</v>
+      </c>
+      <c r="D952" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E952" s="2">
+        <v>9</v>
+      </c>
       <c r="F952" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G952" s="2">
+        <v>150000</v>
       </c>
       <c r="H952">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I952">
         <f t="shared" si="9"/>
@@ -85520,18 +86018,36 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q952" t="str">
+      <c r="Q952" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="953" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="953" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A953" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B953" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C953">
+        <v>3</v>
+      </c>
+      <c r="D953" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E953" s="2">
+        <v>10</v>
+      </c>
       <c r="F953" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G953" s="2">
+        <v>150000</v>
       </c>
       <c r="H953">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I953">
         <f t="shared" si="9"/>
@@ -85549,12 +86065,15 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q953" t="str">
+      <c r="Q953" t="e">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="954" spans="6:17" ht="15.75" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="954" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D954" s="8">
+        <v>42887</v>
+      </c>
       <c r="F954" s="2">
         <v>2017</v>
       </c>
@@ -85580,10 +86099,13 @@
       </c>
       <c r="Q954" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="955" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="955" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D955" s="8">
+        <v>42887</v>
+      </c>
       <c r="F955" s="2">
         <v>2017</v>
       </c>
@@ -85609,10 +86131,13 @@
       </c>
       <c r="Q955" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="956" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="956" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D956" s="8">
+        <v>42887</v>
+      </c>
       <c r="F956" s="2">
         <v>2017</v>
       </c>
@@ -85638,10 +86163,13 @@
       </c>
       <c r="Q956" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="957" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="957" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D957" s="8">
+        <v>42887</v>
+      </c>
       <c r="F957" s="2">
         <v>2017</v>
       </c>
@@ -85667,10 +86195,13 @@
       </c>
       <c r="Q957" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="958" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="958" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D958" s="8">
+        <v>42887</v>
+      </c>
       <c r="F958" s="2">
         <v>2017</v>
       </c>
@@ -85696,10 +86227,13 @@
       </c>
       <c r="Q958" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="959" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="959" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D959" s="8">
+        <v>42887</v>
+      </c>
       <c r="F959" s="2">
         <v>2017</v>
       </c>
@@ -85725,10 +86259,10 @@
       </c>
       <c r="Q959" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="960" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="960" spans="1:17" ht="15.75" customHeight="1">
       <c r="F960" s="2">
         <v>2017</v>
       </c>
@@ -85898,7 +86432,7 @@
         <v>1</v>
       </c>
       <c r="Q965" t="str">
-        <f t="shared" ref="Q965:Q1002" si="38">CONCATENATE(YEAR(D965),MONTH(D965))</f>
+        <f t="shared" ref="Q965:Q1002" si="39">CONCATENATE(YEAR(D965),MONTH(D965))</f>
         <v>19001</v>
       </c>
     </row>
@@ -85927,7 +86461,7 @@
         <v>1</v>
       </c>
       <c r="Q966" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -85956,7 +86490,7 @@
         <v>1</v>
       </c>
       <c r="Q967" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -85985,7 +86519,7 @@
         <v>1</v>
       </c>
       <c r="Q968" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86014,7 +86548,7 @@
         <v>1</v>
       </c>
       <c r="Q969" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86043,7 +86577,7 @@
         <v>1</v>
       </c>
       <c r="Q970" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86072,7 +86606,7 @@
         <v>1</v>
       </c>
       <c r="Q971" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86101,7 +86635,7 @@
         <v>1</v>
       </c>
       <c r="Q972" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86130,7 +86664,7 @@
         <v>1</v>
       </c>
       <c r="Q973" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86159,7 +86693,7 @@
         <v>1</v>
       </c>
       <c r="Q974" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86188,7 +86722,7 @@
         <v>1</v>
       </c>
       <c r="Q975" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86217,7 +86751,7 @@
         <v>1</v>
       </c>
       <c r="Q976" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86246,7 +86780,7 @@
         <v>1</v>
       </c>
       <c r="Q977" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86275,7 +86809,7 @@
         <v>1</v>
       </c>
       <c r="Q978" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86304,7 +86838,7 @@
         <v>1</v>
       </c>
       <c r="Q979" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86333,7 +86867,7 @@
         <v>1</v>
       </c>
       <c r="Q980" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86362,7 +86896,7 @@
         <v>1</v>
       </c>
       <c r="Q981" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86391,7 +86925,7 @@
         <v>1</v>
       </c>
       <c r="Q982" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86420,7 +86954,7 @@
         <v>1</v>
       </c>
       <c r="Q983" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86449,7 +86983,7 @@
         <v>1</v>
       </c>
       <c r="Q984" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86478,7 +87012,7 @@
         <v>1</v>
       </c>
       <c r="Q985" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86507,7 +87041,7 @@
         <v>1</v>
       </c>
       <c r="Q986" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86536,7 +87070,7 @@
         <v>1</v>
       </c>
       <c r="Q987" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86565,7 +87099,7 @@
         <v>1</v>
       </c>
       <c r="Q988" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86594,7 +87128,7 @@
         <v>1</v>
       </c>
       <c r="Q989" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86623,7 +87157,7 @@
         <v>1</v>
       </c>
       <c r="Q990" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86652,7 +87186,7 @@
         <v>1</v>
       </c>
       <c r="Q991" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86681,7 +87215,7 @@
         <v>1</v>
       </c>
       <c r="Q992" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86710,7 +87244,7 @@
         <v>1</v>
       </c>
       <c r="Q993" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86739,7 +87273,7 @@
         <v>1</v>
       </c>
       <c r="Q994" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86768,7 +87302,7 @@
         <v>1</v>
       </c>
       <c r="Q995" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86797,7 +87331,7 @@
         <v>1</v>
       </c>
       <c r="Q996" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86826,7 +87360,7 @@
         <v>1</v>
       </c>
       <c r="Q997" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86855,7 +87389,7 @@
         <v>1</v>
       </c>
       <c r="Q998" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86884,7 +87418,7 @@
         <v>1</v>
       </c>
       <c r="Q999" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86913,7 +87447,7 @@
         <v>1</v>
       </c>
       <c r="Q1000" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86942,7 +87476,7 @@
         <v>1</v>
       </c>
       <c r="Q1001" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>
@@ -86971,7 +87505,7 @@
         <v>1</v>
       </c>
       <c r="Q1002" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>19001</v>
       </c>
     </row>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="260">
   <si>
     <t>No</t>
   </si>
@@ -802,6 +802,9 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>Ismail bin panuju</t>
   </si>
 </sst>
 </file>
@@ -40894,8 +40897,8 @@
   <dimension ref="A1:AF1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A938" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A954" sqref="A954"/>
+      <pane ySplit="1" topLeftCell="A942" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G964" sqref="G964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -86071,15 +86074,30 @@
       </c>
     </row>
     <row r="954" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A954">
+        <v>627</v>
+      </c>
+      <c r="B954" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C954">
+        <v>2</v>
+      </c>
       <c r="D954" s="8">
         <v>42887</v>
       </c>
+      <c r="E954" s="2">
+        <v>12</v>
+      </c>
       <c r="F954" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G954" s="2">
+        <v>120000</v>
       </c>
       <c r="H954">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I954">
         <f t="shared" si="9"/>
@@ -86103,27 +86121,42 @@
       </c>
     </row>
     <row r="955" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A955">
+        <v>628</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C955">
+        <v>9</v>
+      </c>
       <c r="D955" s="8">
         <v>42887</v>
       </c>
+      <c r="E955" s="2">
+        <v>1</v>
+      </c>
       <c r="F955" s="2">
         <v>2017</v>
       </c>
+      <c r="G955" s="2">
+        <v>425000</v>
+      </c>
       <c r="H955">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I955">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J955">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K955">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P955" t="b">
         <f t="shared" si="4"/>
@@ -86135,15 +86168,30 @@
       </c>
     </row>
     <row r="956" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A956">
+        <v>628</v>
+      </c>
+      <c r="B956" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C956">
+        <v>2</v>
+      </c>
       <c r="D956" s="8">
         <v>42887</v>
       </c>
+      <c r="E956" s="2">
+        <v>1</v>
+      </c>
       <c r="F956" s="2">
         <v>2017</v>
       </c>
+      <c r="G956" s="2">
+        <v>150000</v>
+      </c>
       <c r="H956">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I956">
         <f t="shared" si="9"/>
@@ -86167,15 +86215,30 @@
       </c>
     </row>
     <row r="957" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A957">
+        <v>629</v>
+      </c>
+      <c r="B957" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C957">
+        <v>4</v>
+      </c>
       <c r="D957" s="8">
         <v>42887</v>
       </c>
+      <c r="E957" s="2">
+        <v>5</v>
+      </c>
       <c r="F957" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G957" s="2">
+        <v>120000</v>
       </c>
       <c r="H957">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I957">
         <f t="shared" si="9"/>
@@ -86199,15 +86262,30 @@
       </c>
     </row>
     <row r="958" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A958">
+        <v>629</v>
+      </c>
+      <c r="B958" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C958">
+        <v>4</v>
+      </c>
       <c r="D958" s="8">
         <v>42887</v>
       </c>
+      <c r="E958" s="2">
+        <v>6</v>
+      </c>
       <c r="F958" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G958" s="2">
+        <v>120000</v>
       </c>
       <c r="H958">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I958">
         <f t="shared" si="9"/>
@@ -86231,15 +86309,30 @@
       </c>
     </row>
     <row r="959" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A959">
+        <v>629</v>
+      </c>
+      <c r="B959" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C959">
+        <v>2</v>
+      </c>
       <c r="D959" s="8">
         <v>42887</v>
       </c>
+      <c r="E959" s="2">
+        <v>10</v>
+      </c>
       <c r="F959" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G959" s="2">
+        <v>120000</v>
       </c>
       <c r="H959">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I959">
         <f t="shared" si="9"/>
@@ -86263,12 +86356,30 @@
       </c>
     </row>
     <row r="960" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A960">
+        <v>629</v>
+      </c>
+      <c r="B960" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C960">
+        <v>2</v>
+      </c>
+      <c r="D960" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E960" s="2">
+        <v>11</v>
+      </c>
       <c r="F960" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G960" s="2">
+        <v>120000</v>
       </c>
       <c r="H960">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I960">
         <f t="shared" si="9"/>
@@ -86288,28 +86399,46 @@
       </c>
       <c r="Q960" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="961" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="961" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A961">
+        <v>630</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C961">
+        <v>6</v>
+      </c>
+      <c r="D961" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E961" s="2">
+        <v>1</v>
+      </c>
       <c r="F961" s="2">
         <v>2017</v>
       </c>
+      <c r="G961" s="2">
+        <v>350000</v>
+      </c>
       <c r="H961">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I961">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="J961">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K961">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P961" t="b">
         <f t="shared" si="4"/>
@@ -86317,10 +86446,10 @@
       </c>
       <c r="Q961" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="962" spans="6:17" ht="15.75" customHeight="1">
+        <v>20176</v>
+      </c>
+    </row>
+    <row r="962" spans="1:17" ht="15.75" customHeight="1">
       <c r="F962" s="2">
         <v>2017</v>
       </c>
@@ -86349,7 +86478,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="963" spans="6:17" ht="15.75" customHeight="1">
+    <row r="963" spans="1:17" ht="15.75" customHeight="1">
       <c r="F963" s="2">
         <v>2017</v>
       </c>
@@ -86378,7 +86507,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="964" spans="6:17" ht="15.75" customHeight="1">
+    <row r="964" spans="1:17" ht="15.75" customHeight="1">
       <c r="F964" s="2">
         <v>2017</v>
       </c>
@@ -86407,7 +86536,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="965" spans="6:17" ht="15.75" customHeight="1">
+    <row r="965" spans="1:17" ht="15.75" customHeight="1">
       <c r="F965" s="2">
         <v>2017</v>
       </c>
@@ -86436,7 +86565,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="966" spans="6:17" ht="15.75" customHeight="1">
+    <row r="966" spans="1:17" ht="15.75" customHeight="1">
       <c r="F966" s="2">
         <v>2017</v>
       </c>
@@ -86465,7 +86594,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="967" spans="6:17" ht="15.75" customHeight="1">
+    <row r="967" spans="1:17" ht="15.75" customHeight="1">
       <c r="F967" s="2">
         <v>2017</v>
       </c>
@@ -86494,7 +86623,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="968" spans="6:17" ht="15.75" customHeight="1">
+    <row r="968" spans="1:17" ht="15.75" customHeight="1">
       <c r="F968" s="2">
         <v>2017</v>
       </c>
@@ -86523,7 +86652,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="969" spans="6:17" ht="15.75" customHeight="1">
+    <row r="969" spans="1:17" ht="15.75" customHeight="1">
       <c r="F969" s="2">
         <v>2017</v>
       </c>
@@ -86552,7 +86681,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="970" spans="6:17" ht="15.75" customHeight="1">
+    <row r="970" spans="1:17" ht="15.75" customHeight="1">
       <c r="F970" s="2">
         <v>2017</v>
       </c>
@@ -86581,7 +86710,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="971" spans="6:17" ht="15.75" customHeight="1">
+    <row r="971" spans="1:17" ht="15.75" customHeight="1">
       <c r="F971" s="2">
         <v>2017</v>
       </c>
@@ -86610,7 +86739,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="972" spans="6:17" ht="15.75" customHeight="1">
+    <row r="972" spans="1:17" ht="15.75" customHeight="1">
       <c r="F972" s="2">
         <v>2017</v>
       </c>
@@ -86639,7 +86768,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="973" spans="6:17" ht="15.75" customHeight="1">
+    <row r="973" spans="1:17" ht="15.75" customHeight="1">
       <c r="F973" s="2">
         <v>2017</v>
       </c>
@@ -86668,7 +86797,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="974" spans="6:17" ht="15.75" customHeight="1">
+    <row r="974" spans="1:17" ht="15.75" customHeight="1">
       <c r="F974" s="2">
         <v>2017</v>
       </c>
@@ -86697,7 +86826,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="975" spans="6:17" ht="15.75" customHeight="1">
+    <row r="975" spans="1:17" ht="15.75" customHeight="1">
       <c r="F975" s="2">
         <v>2017</v>
       </c>
@@ -86726,7 +86855,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="976" spans="6:17" ht="15.75" customHeight="1">
+    <row r="976" spans="1:17" ht="15.75" customHeight="1">
       <c r="F976" s="2">
         <v>2017</v>
       </c>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="260">
   <si>
     <t>No</t>
   </si>
@@ -830,7 +830,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +841,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -856,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -873,6 +885,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -40897,14 +40911,14 @@
   <dimension ref="A1:AF1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A942" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G964" sqref="G964"/>
+      <pane ySplit="1" topLeftCell="A975" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B996" sqref="B996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="6.140625" customWidth="1"/>
     <col min="6" max="7" width="8.42578125" customWidth="1"/>
@@ -44104,7 +44118,7 @@
         <v>42622</v>
       </c>
       <c r="E68" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" s="2">
         <v>2016</v>
@@ -50706,7 +50720,7 @@
       <c r="D207" s="3">
         <v>42570</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="15">
         <v>6</v>
       </c>
       <c r="F207" s="2">
@@ -50748,7 +50762,7 @@
         <v>57</v>
       </c>
       <c r="C208" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D208" s="3">
         <v>42570</v>
@@ -59748,7 +59762,7 @@
       <c r="D397" s="8">
         <v>42602</v>
       </c>
-      <c r="E397" s="2">
+      <c r="E397" s="15">
         <v>7</v>
       </c>
       <c r="F397" s="2">
@@ -65809,8 +65823,8 @@
       <c r="D525" s="8">
         <v>42685</v>
       </c>
-      <c r="E525" s="2">
-        <v>11</v>
+      <c r="E525" s="15">
+        <v>9</v>
       </c>
       <c r="F525" s="2">
         <v>2016</v>
@@ -67464,7 +67478,7 @@
         <v>2016</v>
       </c>
       <c r="G560" s="2">
-        <v>425000</v>
+        <v>150000</v>
       </c>
       <c r="H560">
         <f t="shared" si="0"/>
@@ -67484,7 +67498,7 @@
       </c>
       <c r="P560" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q560" t="str">
         <f t="shared" si="23"/>
@@ -70543,9 +70557,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="O625">
+        <v>10000</v>
+      </c>
       <c r="P625" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q625" t="str">
         <f t="shared" si="24"/>
@@ -70895,7 +70912,7 @@
         <v>42574</v>
       </c>
       <c r="E633" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F633" s="2">
         <v>2015</v>
@@ -75023,7 +75040,7 @@
         <v>9</v>
       </c>
       <c r="F720" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G720" s="2">
         <v>425000</v>
@@ -86450,12 +86467,30 @@
       </c>
     </row>
     <row r="962" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A962">
+        <v>631</v>
+      </c>
+      <c r="B962" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C962">
+        <v>2</v>
+      </c>
+      <c r="D962" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E962" s="2">
+        <v>1</v>
+      </c>
       <c r="F962" s="2">
         <v>2017</v>
       </c>
+      <c r="G962" s="2">
+        <v>100000</v>
+      </c>
       <c r="H962">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I962">
         <f t="shared" si="9"/>
@@ -86475,16 +86510,34 @@
       </c>
       <c r="Q962" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
+        <v>20176</v>
       </c>
     </row>
     <row r="963" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A963">
+        <v>631</v>
+      </c>
+      <c r="B963" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C963">
+        <v>5</v>
+      </c>
+      <c r="D963" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E963" s="2">
+        <v>1</v>
+      </c>
       <c r="F963" s="2">
         <v>2017</v>
       </c>
+      <c r="G963" s="2">
+        <v>100000</v>
+      </c>
       <c r="H963">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I963">
         <f t="shared" si="9"/>
@@ -86504,28 +86557,46 @@
       </c>
       <c r="Q963" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
+        <v>20176</v>
       </c>
     </row>
     <row r="964" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A964">
+        <v>631</v>
+      </c>
+      <c r="B964" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C964">
+        <v>6</v>
+      </c>
+      <c r="D964" s="8">
+        <v>42887</v>
+      </c>
+      <c r="E964" s="2">
+        <v>12</v>
+      </c>
       <c r="F964" s="2">
         <v>2017</v>
       </c>
+      <c r="G964" s="14">
+        <v>300000</v>
+      </c>
       <c r="H964">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I964">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J964">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K964">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P964" t="b">
         <f t="shared" si="4"/>
@@ -86533,28 +86604,46 @@
       </c>
       <c r="Q964" t="str">
         <f t="shared" si="36"/>
-        <v>19001</v>
+        <v>20176</v>
       </c>
     </row>
     <row r="965" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A965">
+        <v>639</v>
+      </c>
+      <c r="B965" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C965">
+        <v>8</v>
+      </c>
+      <c r="D965" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E965" s="2">
+        <v>1</v>
+      </c>
       <c r="F965" s="2">
         <v>2017</v>
       </c>
+      <c r="G965" s="2">
+        <v>425000</v>
+      </c>
       <c r="H965">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I965">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J965">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K965">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P965" t="b">
         <f t="shared" si="4"/>
@@ -86562,28 +86651,46 @@
       </c>
       <c r="Q965" t="str">
         <f t="shared" ref="Q965:Q1002" si="39">CONCATENATE(YEAR(D965),MONTH(D965))</f>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="966" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A966">
+        <v>639</v>
+      </c>
+      <c r="B966" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C966">
+        <v>6</v>
+      </c>
+      <c r="D966" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E966" s="2">
+        <v>1</v>
+      </c>
       <c r="F966" s="2">
         <v>2017</v>
       </c>
+      <c r="G966" s="2">
+        <v>425000</v>
+      </c>
       <c r="H966">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I966">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J966">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K966">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P966" t="b">
         <f t="shared" si="4"/>
@@ -86591,28 +86698,46 @@
       </c>
       <c r="Q966" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="967" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A967">
+        <v>640</v>
+      </c>
+      <c r="B967" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C967">
+        <v>7</v>
+      </c>
+      <c r="D967" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E967" s="2">
+        <v>1</v>
+      </c>
       <c r="F967" s="2">
         <v>2017</v>
       </c>
+      <c r="G967" s="2">
+        <v>425000</v>
+      </c>
       <c r="H967">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I967">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J967">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K967">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P967" t="b">
         <f t="shared" si="4"/>
@@ -86620,28 +86745,46 @@
       </c>
       <c r="Q967" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="968" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A968">
+        <v>640</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C968" s="2">
+        <v>7</v>
+      </c>
+      <c r="D968" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E968" s="2">
+        <v>11</v>
+      </c>
       <c r="F968" s="2">
         <v>2017</v>
       </c>
+      <c r="G968" s="2">
+        <v>425000</v>
+      </c>
       <c r="H968">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I968">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J968">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K968">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P968" t="b">
         <f t="shared" si="4"/>
@@ -86649,28 +86792,46 @@
       </c>
       <c r="Q968" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="969" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A969">
+        <v>640</v>
+      </c>
+      <c r="B969" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C969" s="2">
+        <v>7</v>
+      </c>
+      <c r="D969" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E969" s="2">
+        <v>1</v>
+      </c>
       <c r="F969" s="2">
         <v>2017</v>
       </c>
+      <c r="G969" s="2">
+        <v>425000</v>
+      </c>
       <c r="H969">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I969">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J969">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K969">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P969" t="b">
         <f t="shared" si="4"/>
@@ -86678,28 +86839,46 @@
       </c>
       <c r="Q969" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="970" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A970">
+        <v>640</v>
+      </c>
+      <c r="B970" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C970" s="2">
+        <v>8</v>
+      </c>
+      <c r="D970" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E970" s="2">
+        <v>1</v>
+      </c>
       <c r="F970" s="2">
         <v>2017</v>
       </c>
+      <c r="G970" s="2">
+        <v>425000</v>
+      </c>
       <c r="H970">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I970">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J970">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K970">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P970" t="b">
         <f t="shared" si="4"/>
@@ -86707,28 +86886,46 @@
       </c>
       <c r="Q970" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="971" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A971">
+        <v>640</v>
+      </c>
+      <c r="B971" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C971" s="2">
+        <v>8</v>
+      </c>
+      <c r="D971" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E971" s="2">
+        <v>2</v>
+      </c>
       <c r="F971" s="2">
         <v>2017</v>
       </c>
+      <c r="G971" s="2">
+        <v>425000</v>
+      </c>
       <c r="H971">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I971">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J971">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K971">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P971" t="b">
         <f t="shared" si="4"/>
@@ -86736,28 +86933,46 @@
       </c>
       <c r="Q971" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="972" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A972">
+        <v>640</v>
+      </c>
+      <c r="B972" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C972" s="2">
+        <v>7</v>
+      </c>
+      <c r="D972" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E972" s="2">
+        <v>10</v>
+      </c>
       <c r="F972" s="2">
         <v>2017</v>
       </c>
+      <c r="G972" s="2">
+        <v>425000</v>
+      </c>
       <c r="H972">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I972">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J972">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K972">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P972" t="b">
         <f t="shared" si="4"/>
@@ -86765,28 +86980,46 @@
       </c>
       <c r="Q972" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="973" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A973">
+        <v>640</v>
+      </c>
+      <c r="B973" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C973" s="2">
+        <v>8</v>
+      </c>
+      <c r="D973" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E973" s="2">
+        <v>1</v>
+      </c>
       <c r="F973" s="2">
         <v>2017</v>
       </c>
+      <c r="G973" s="2">
+        <v>425000</v>
+      </c>
       <c r="H973">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I973">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J973">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K973">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P973" t="b">
         <f t="shared" si="4"/>
@@ -86794,28 +87027,46 @@
       </c>
       <c r="Q973" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="974" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A974">
+        <v>640</v>
+      </c>
+      <c r="B974" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C974" s="2">
+        <v>8</v>
+      </c>
+      <c r="D974" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E974" s="2">
+        <v>2</v>
+      </c>
       <c r="F974" s="2">
         <v>2017</v>
       </c>
+      <c r="G974" s="2">
+        <v>425000</v>
+      </c>
       <c r="H974">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I974">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J974">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K974">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P974" t="b">
         <f t="shared" si="4"/>
@@ -86823,28 +87074,46 @@
       </c>
       <c r="Q974" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="975" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A975">
+        <v>640</v>
+      </c>
+      <c r="B975" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C975">
+        <v>6</v>
+      </c>
+      <c r="D975" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E975">
+        <v>10</v>
+      </c>
       <c r="F975" s="2">
         <v>2017</v>
       </c>
+      <c r="G975" s="2">
+        <v>425000</v>
+      </c>
       <c r="H975">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I975">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J975">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K975">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P975" t="b">
         <f t="shared" si="4"/>
@@ -86852,28 +87121,46 @@
       </c>
       <c r="Q975" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="976" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A976">
+        <v>640</v>
+      </c>
+      <c r="B976" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C976" s="2">
+        <v>8</v>
+      </c>
+      <c r="D976" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E976" s="2">
+        <v>1</v>
+      </c>
       <c r="F976" s="2">
         <v>2017</v>
       </c>
+      <c r="G976" s="2">
+        <v>425000</v>
+      </c>
       <c r="H976">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I976">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J976">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K976">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P976" t="b">
         <f t="shared" si="4"/>
@@ -86881,28 +87168,46 @@
       </c>
       <c r="Q976" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="977" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="977" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A977">
+        <v>640</v>
+      </c>
+      <c r="B977" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C977" s="2">
+        <v>6</v>
+      </c>
+      <c r="D977" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E977" s="2">
+        <v>1</v>
+      </c>
       <c r="F977" s="2">
         <v>2017</v>
       </c>
+      <c r="G977" s="2">
+        <v>425000</v>
+      </c>
       <c r="H977">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I977">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J977">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K977">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P977" t="b">
         <f t="shared" si="4"/>
@@ -86910,28 +87215,46 @@
       </c>
       <c r="Q977" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="978" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="978" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A978">
+        <v>640</v>
+      </c>
+      <c r="B978" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C978" s="2">
+        <v>7</v>
+      </c>
+      <c r="D978" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E978" s="2">
+        <v>1</v>
+      </c>
       <c r="F978" s="2">
         <v>2017</v>
       </c>
+      <c r="G978" s="2">
+        <v>425000</v>
+      </c>
       <c r="H978">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I978">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J978">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K978">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P978" t="b">
         <f t="shared" si="4"/>
@@ -86939,28 +87262,46 @@
       </c>
       <c r="Q978" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="979" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="979" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A979">
+        <v>642</v>
+      </c>
+      <c r="B979" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C979" s="2">
+        <v>7</v>
+      </c>
+      <c r="D979" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E979" s="2">
+        <v>1</v>
+      </c>
       <c r="F979" s="2">
         <v>2017</v>
       </c>
+      <c r="G979" s="2">
+        <v>350000</v>
+      </c>
       <c r="H979">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I979">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="J979">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K979">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P979" t="b">
         <f t="shared" si="4"/>
@@ -86968,16 +87309,34 @@
       </c>
       <c r="Q979" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="980" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="980" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A980">
+        <v>642</v>
+      </c>
+      <c r="B980" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C980" s="2">
+        <v>2</v>
+      </c>
+      <c r="D980" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E980" s="2">
+        <v>1</v>
+      </c>
       <c r="F980" s="2">
         <v>2017</v>
       </c>
+      <c r="G980" s="2">
+        <v>120000</v>
+      </c>
       <c r="H980">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I980">
         <f t="shared" si="9"/>
@@ -86997,16 +87356,34 @@
       </c>
       <c r="Q980" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="981" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="981" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A981">
+        <v>643</v>
+      </c>
+      <c r="B981" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C981" s="2">
+        <v>1</v>
+      </c>
+      <c r="D981" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E981" s="2">
+        <v>12</v>
+      </c>
       <c r="F981" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G981" s="2">
+        <v>150000</v>
       </c>
       <c r="H981">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I981">
         <f t="shared" si="9"/>
@@ -87026,16 +87403,34 @@
       </c>
       <c r="Q981" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="982" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="982" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A982">
+        <v>643</v>
+      </c>
+      <c r="B982" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C982" s="2">
+        <v>1</v>
+      </c>
+      <c r="D982" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E982" s="2">
+        <v>1</v>
+      </c>
       <c r="F982" s="2">
         <v>2017</v>
       </c>
+      <c r="G982" s="2">
+        <v>150000</v>
+      </c>
       <c r="H982">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I982">
         <f t="shared" si="9"/>
@@ -87055,16 +87450,34 @@
       </c>
       <c r="Q982" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="983" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="983" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A983">
+        <v>644</v>
+      </c>
+      <c r="B983" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C983" s="2">
+        <v>4</v>
+      </c>
+      <c r="D983" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E983" s="2">
+        <v>1</v>
+      </c>
       <c r="F983" s="2">
         <v>2017</v>
       </c>
+      <c r="G983" s="2">
+        <v>150000</v>
+      </c>
       <c r="H983">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I983">
         <f t="shared" si="9"/>
@@ -87084,16 +87497,34 @@
       </c>
       <c r="Q983" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="984" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="984" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A984">
+        <v>646</v>
+      </c>
+      <c r="B984" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C984" s="2">
+        <v>1</v>
+      </c>
+      <c r="D984" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E984" s="2">
+        <v>12</v>
+      </c>
       <c r="F984" s="2">
         <v>2017</v>
       </c>
+      <c r="G984" s="2">
+        <v>150000</v>
+      </c>
       <c r="H984">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I984">
         <f t="shared" si="9"/>
@@ -87113,28 +87544,46 @@
       </c>
       <c r="Q984" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="985" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="985" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A985">
+        <v>648</v>
+      </c>
+      <c r="B985" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C985" s="2">
+        <v>7</v>
+      </c>
+      <c r="D985" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E985" s="2">
+        <v>1</v>
+      </c>
       <c r="F985" s="2">
         <v>2017</v>
       </c>
+      <c r="G985" s="2">
+        <v>425000</v>
+      </c>
       <c r="H985">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I985">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J985">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K985">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P985" t="b">
         <f t="shared" si="4"/>
@@ -87142,28 +87591,46 @@
       </c>
       <c r="Q985" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="986" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="986" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A986">
+        <v>649</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C986" s="2">
+        <v>6</v>
+      </c>
+      <c r="D986" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E986" s="2">
+        <v>10</v>
+      </c>
       <c r="F986" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G986" s="2">
+        <v>425000</v>
       </c>
       <c r="H986">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I986">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J986">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K986">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P986" t="b">
         <f t="shared" si="4"/>
@@ -87171,28 +87638,46 @@
       </c>
       <c r="Q986" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="987" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="987" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A987">
+        <v>649</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C987" s="2">
+        <v>6</v>
+      </c>
+      <c r="D987" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E987" s="2">
+        <v>11</v>
+      </c>
       <c r="F987" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G987" s="2">
+        <v>425000</v>
       </c>
       <c r="H987">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I987">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J987">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K987">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P987" t="b">
         <f t="shared" si="4"/>
@@ -87200,28 +87685,46 @@
       </c>
       <c r="Q987" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="988" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="988" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A988">
+        <v>649</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C988" s="2">
+        <v>6</v>
+      </c>
+      <c r="D988" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E988" s="2">
+        <v>12</v>
+      </c>
       <c r="F988" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G988" s="2">
+        <v>425000</v>
       </c>
       <c r="H988">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I988">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J988">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K988">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P988" t="b">
         <f t="shared" si="4"/>
@@ -87229,28 +87732,46 @@
       </c>
       <c r="Q988" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="989" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="989" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A989">
+        <v>649</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C989" s="2">
+        <v>6</v>
+      </c>
+      <c r="D989" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E989" s="2">
+        <v>1</v>
+      </c>
       <c r="F989" s="2">
         <v>2017</v>
       </c>
+      <c r="G989" s="2">
+        <v>425000</v>
+      </c>
       <c r="H989">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I989">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J989">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K989">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P989" t="b">
         <f t="shared" si="4"/>
@@ -87258,28 +87779,46 @@
       </c>
       <c r="Q989" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="990" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="990" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A990">
+        <v>650</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C990" s="2">
+        <v>7</v>
+      </c>
+      <c r="D990" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E990" s="2">
+        <v>12</v>
+      </c>
       <c r="F990" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G990" s="2">
+        <v>425000</v>
       </c>
       <c r="H990">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I990">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J990">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K990">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P990" t="b">
         <f t="shared" si="4"/>
@@ -87287,28 +87826,46 @@
       </c>
       <c r="Q990" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="991" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="991" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A991">
+        <v>650</v>
+      </c>
+      <c r="B991" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C991" s="2">
+        <v>7</v>
+      </c>
+      <c r="D991" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E991" s="2">
+        <v>1</v>
+      </c>
       <c r="F991" s="2">
         <v>2017</v>
       </c>
+      <c r="G991" s="2">
+        <v>425000</v>
+      </c>
       <c r="H991">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I991">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J991">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K991">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P991" t="b">
         <f t="shared" si="4"/>
@@ -87316,28 +87873,46 @@
       </c>
       <c r="Q991" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="992" spans="6:17" ht="15.75" customHeight="1">
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="992" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A992">
+        <v>651</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C992" s="2">
+        <v>11</v>
+      </c>
+      <c r="D992" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E992" s="2">
+        <v>1</v>
+      </c>
       <c r="F992" s="2">
         <v>2017</v>
       </c>
+      <c r="G992" s="2">
+        <v>425000</v>
+      </c>
       <c r="H992">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I992">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J992">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K992">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P992" t="b">
         <f t="shared" si="4"/>
@@ -87345,16 +87920,34 @@
       </c>
       <c r="Q992" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="993" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A993">
+        <v>652</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C993" s="2">
+        <v>2</v>
+      </c>
+      <c r="D993" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E993" s="2">
+        <v>1</v>
+      </c>
       <c r="F993" s="2">
         <v>2017</v>
       </c>
+      <c r="G993" s="2">
+        <v>165000</v>
+      </c>
       <c r="H993">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I993">
         <f t="shared" si="9"/>
@@ -87370,20 +87963,38 @@
       </c>
       <c r="P993" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q993" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="994" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A994">
+        <v>652</v>
+      </c>
+      <c r="B994" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C994" s="2">
+        <v>2</v>
+      </c>
+      <c r="D994" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E994" s="2">
+        <v>2</v>
+      </c>
       <c r="F994" s="2">
         <v>2017</v>
       </c>
+      <c r="G994" s="2">
+        <v>165000</v>
+      </c>
       <c r="H994">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I994">
         <f t="shared" si="9"/>
@@ -87399,20 +88010,38 @@
       </c>
       <c r="P994" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q994" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="995" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A995">
+        <v>652</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C995" s="2">
+        <v>2</v>
+      </c>
+      <c r="D995" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E995" s="2">
+        <v>3</v>
+      </c>
       <c r="F995" s="2">
         <v>2017</v>
       </c>
+      <c r="G995" s="2">
+        <v>165000</v>
+      </c>
       <c r="H995">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I995">
         <f t="shared" si="9"/>
@@ -87428,14 +88057,20 @@
       </c>
       <c r="P995" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q995" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="996" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A996">
+        <v>653</v>
+      </c>
+      <c r="D996" s="13">
+        <v>42756</v>
+      </c>
       <c r="F996" s="2">
         <v>2017</v>
       </c>
@@ -87461,10 +88096,13 @@
       </c>
       <c r="Q996" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="997" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D997" s="13">
+        <v>42756</v>
+      </c>
       <c r="F997" s="2">
         <v>2017</v>
       </c>
@@ -87490,10 +88128,13 @@
       </c>
       <c r="Q997" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="998" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D998" s="13">
+        <v>42756</v>
+      </c>
       <c r="F998" s="2">
         <v>2017</v>
       </c>
@@ -87519,7 +88160,7 @@
       </c>
       <c r="Q998" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="999" spans="1:17" ht="15.75" customHeight="1">

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="260">
   <si>
     <t>No</t>
   </si>
@@ -40908,11 +40908,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF1010"/>
+  <dimension ref="A1:AF1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A975" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B996" sqref="B996"/>
+      <pane ySplit="1" topLeftCell="A993" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1015" sqref="A1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -41003,7 +41003,7 @@
         <v>150000</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H1002" si="0">IF(C2&lt;6,IF(E2&lt;1,0,IF(G2&gt;150000,150000,G2)),150000)</f>
+        <f t="shared" ref="H2:H1005" si="0">IF(C2&lt;6,IF(E2&lt;1,0,IF(G2&gt;150000,150000,G2)),150000)</f>
         <v>150000</v>
       </c>
       <c r="I2">
@@ -41019,7 +41019,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="b">
-        <f t="shared" ref="P2:P1002" si="4">G2=SUM(H2:O2)</f>
+        <f t="shared" ref="P2:P1003" si="4">G2=SUM(H2:O2)</f>
         <v>1</v>
       </c>
       <c r="Q2" t="str">
@@ -52661,15 +52661,15 @@
         <v>150000</v>
       </c>
       <c r="I248">
-        <f t="shared" ref="I248:I1002" si="9">IF(C248&lt;6,0,G248-H248-SUM(J248:O248))</f>
+        <f t="shared" ref="I248:I1003" si="9">IF(C248&lt;6,0,G248-H248-SUM(J248:O248))</f>
         <v>0</v>
       </c>
       <c r="J248">
-        <f t="shared" ref="J248:J1002" si="10">IF(C248&lt;6,0,5000)</f>
+        <f t="shared" ref="J248:J1003" si="10">IF(C248&lt;6,0,5000)</f>
         <v>0</v>
       </c>
       <c r="K248">
-        <f t="shared" ref="K248:K1002" si="11">IF(C248&lt;6,0,10000)</f>
+        <f t="shared" ref="K248:K1003" si="11">IF(C248&lt;6,0,10000)</f>
         <v>0</v>
       </c>
       <c r="P248" t="b">
@@ -86650,7 +86650,7 @@
         <v>1</v>
       </c>
       <c r="Q965" t="str">
-        <f t="shared" ref="Q965:Q1002" si="39">CONCATENATE(YEAR(D965),MONTH(D965))</f>
+        <f t="shared" ref="Q965:Q1028" si="39">CONCATENATE(YEAR(D965),MONTH(D965))</f>
         <v>20171</v>
       </c>
     </row>
@@ -87961,9 +87961,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="N993">
+        <v>15000</v>
+      </c>
       <c r="P993" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q993" t="str">
         <f t="shared" si="39"/>
@@ -88008,9 +88011,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="N994">
+        <v>15000</v>
+      </c>
       <c r="P994" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q994" t="str">
         <f t="shared" si="39"/>
@@ -88055,9 +88061,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="N995">
+        <v>15000</v>
+      </c>
       <c r="P995" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q995" t="str">
         <f t="shared" si="39"/>
@@ -88068,15 +88077,27 @@
       <c r="A996">
         <v>653</v>
       </c>
+      <c r="B996" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C996" s="2">
+        <v>5</v>
+      </c>
       <c r="D996" s="13">
         <v>42756</v>
       </c>
+      <c r="E996" s="2">
+        <v>12</v>
+      </c>
       <c r="F996" s="2">
         <v>2017</v>
       </c>
+      <c r="G996" s="2">
+        <v>150000</v>
+      </c>
       <c r="H996">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I996">
         <f t="shared" si="9"/>
@@ -88100,15 +88121,30 @@
       </c>
     </row>
     <row r="997" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A997">
+        <v>654</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C997" s="2">
+        <v>5</v>
+      </c>
       <c r="D997" s="13">
         <v>42756</v>
       </c>
+      <c r="E997" s="2">
+        <v>1</v>
+      </c>
       <c r="F997" s="2">
         <v>2017</v>
       </c>
+      <c r="G997" s="2">
+        <v>150000</v>
+      </c>
       <c r="H997">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I997">
         <f t="shared" si="9"/>
@@ -88132,15 +88168,30 @@
       </c>
     </row>
     <row r="998" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A998">
+        <v>655</v>
+      </c>
+      <c r="B998" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C998" s="2">
+        <v>2</v>
+      </c>
       <c r="D998" s="13">
         <v>42756</v>
       </c>
+      <c r="E998" s="2">
+        <v>1</v>
+      </c>
       <c r="F998" s="2">
         <v>2017</v>
       </c>
+      <c r="G998" s="2">
+        <v>150000</v>
+      </c>
       <c r="H998">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I998">
         <f t="shared" si="9"/>
@@ -88164,12 +88215,30 @@
       </c>
     </row>
     <row r="999" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A999">
+        <v>656</v>
+      </c>
+      <c r="B999" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C999" s="2">
+        <v>3</v>
+      </c>
+      <c r="D999" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E999" s="2">
+        <v>12</v>
+      </c>
       <c r="F999" s="2">
         <v>2017</v>
       </c>
+      <c r="G999" s="2">
+        <v>150000</v>
+      </c>
       <c r="H999">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I999">
         <f t="shared" si="9"/>
@@ -88189,16 +88258,34 @@
       </c>
       <c r="Q999" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="1000" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1000">
+        <v>656</v>
+      </c>
+      <c r="B1000" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1000" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1000" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E1000" s="2">
+        <v>1</v>
+      </c>
       <c r="F1000" s="2">
         <v>2017</v>
       </c>
+      <c r="G1000" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1000">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1000">
         <f t="shared" si="9"/>
@@ -88218,16 +88305,34 @@
       </c>
       <c r="Q1000" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="1001" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1001">
+        <v>656</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1001" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1001" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E1001" s="2">
+        <v>12</v>
+      </c>
       <c r="F1001" s="2">
         <v>2017</v>
       </c>
+      <c r="G1001" s="2">
+        <v>160000</v>
+      </c>
       <c r="H1001">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1001">
         <f t="shared" si="9"/>
@@ -88241,22 +88346,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="O1001">
+        <v>10000</v>
+      </c>
       <c r="P1001" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q1001" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="1002" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1002">
+        <v>656</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1002" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1002" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E1002" s="2">
+        <v>1</v>
+      </c>
       <c r="F1002" s="2">
         <v>2017</v>
       </c>
+      <c r="G1002" s="2">
+        <v>160000</v>
+      </c>
       <c r="H1002">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1002">
         <f t="shared" si="9"/>
@@ -88270,62 +88396,3411 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="O1002">
+        <v>10000</v>
+      </c>
       <c r="P1002" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q1002" t="str">
         <f t="shared" si="39"/>
-        <v>19001</v>
+        <v>20171</v>
       </c>
     </row>
     <row r="1003" spans="1:17" ht="15.75" customHeight="1">
-      <c r="B1003" s="2"/>
-      <c r="D1003" s="8"/>
+      <c r="A1003">
+        <v>657</v>
+      </c>
+      <c r="B1003" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1003" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1003" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E1003" s="2">
+        <v>1</v>
+      </c>
       <c r="F1003" s="2">
         <v>2017</v>
       </c>
+      <c r="G1003" s="2">
+        <v>425000</v>
+      </c>
+      <c r="H1003">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="I1003">
+        <f t="shared" si="9"/>
+        <v>260000</v>
+      </c>
+      <c r="J1003">
+        <f t="shared" si="10"/>
+        <v>5000</v>
+      </c>
+      <c r="K1003">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="P1003" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q1003" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
     </row>
     <row r="1004" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1004" s="2"/>
-      <c r="B1004" s="2"/>
-      <c r="C1004" s="2"/>
-      <c r="D1004" s="8"/>
-      <c r="E1004" s="2"/>
-      <c r="F1004" s="2"/>
-      <c r="G1004" s="2"/>
+      <c r="A1004" s="2">
+        <v>658</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1004" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1004" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E1004" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1004" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1004" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H1004">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="I1004">
+        <f t="shared" ref="I1004:I1067" si="40">IF(C1004&lt;6,0,G1004-H1004-SUM(J1004:O1004))</f>
+        <v>0</v>
+      </c>
+      <c r="J1004">
+        <f t="shared" ref="J1004:J1067" si="41">IF(C1004&lt;6,0,5000)</f>
+        <v>0</v>
+      </c>
+      <c r="K1004">
+        <f t="shared" ref="K1004:K1067" si="42">IF(C1004&lt;6,0,10000)</f>
+        <v>0</v>
+      </c>
+      <c r="P1004" t="b">
+        <f t="shared" ref="P1004:P1067" si="43">G1004=SUM(H1004:O1004)</f>
+        <v>1</v>
+      </c>
+      <c r="Q1004" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
     </row>
     <row r="1005" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1005" s="2"/>
-      <c r="B1005" s="2"/>
-      <c r="C1005" s="2"/>
-      <c r="D1005" s="8"/>
-      <c r="E1005" s="2"/>
-      <c r="F1005" s="2"/>
-      <c r="G1005" s="2"/>
+      <c r="A1005" s="2">
+        <v>658</v>
+      </c>
+      <c r="B1005" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1005" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1005" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E1005" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1005" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1005" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H1005">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="I1005">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1005">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1005">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1005" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1005" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
     </row>
     <row r="1006" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1006" s="2"/>
-      <c r="B1006" s="2"/>
-      <c r="C1006" s="2"/>
-      <c r="D1006" s="8"/>
-      <c r="E1006" s="2"/>
-      <c r="F1006" s="2"/>
-      <c r="G1006" s="2"/>
+      <c r="A1006" s="2">
+        <v>658</v>
+      </c>
+      <c r="B1006" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1006" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1006" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E1006" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1006" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1006" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H1006">
+        <f t="shared" ref="H1006:H1069" si="44">IF(C1006&lt;6,IF(E1006&lt;1,0,IF(G1006&gt;150000,150000,G1006)),150000)</f>
+        <v>150000</v>
+      </c>
+      <c r="I1006">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1006">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1006">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1006" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1006" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
     </row>
     <row r="1007" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1007" s="2"/>
-      <c r="B1007" s="2"/>
-      <c r="D1007" s="8"/>
-    </row>
-    <row r="1009" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1009" s="2"/>
-      <c r="B1009" s="2"/>
-      <c r="C1009" s="2"/>
-    </row>
-    <row r="1010" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1007" s="2">
+        <v>660</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1007" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1007" s="13">
+        <v>42756</v>
+      </c>
+      <c r="E1007" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1007" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1007" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H1007">
+        <f t="shared" si="44"/>
+        <v>150000</v>
+      </c>
+      <c r="I1007">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1007">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1007">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1007" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1007" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1008" s="2">
+        <v>664</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1008" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1008" s="13">
+        <v>42763</v>
+      </c>
+      <c r="E1008" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1008" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1008" s="2">
+        <v>425000</v>
+      </c>
+      <c r="H1008">
+        <f t="shared" si="44"/>
+        <v>150000</v>
+      </c>
+      <c r="I1008">
+        <f t="shared" si="40"/>
+        <v>260000</v>
+      </c>
+      <c r="J1008">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
+      <c r="K1008">
+        <f t="shared" si="42"/>
+        <v>10000</v>
+      </c>
+      <c r="P1008" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1008" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1009" s="2">
+        <v>664</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1009" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1009" s="13">
+        <v>42763</v>
+      </c>
+      <c r="E1009" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1009" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1009" s="2">
+        <v>425000</v>
+      </c>
+      <c r="H1009">
+        <f t="shared" si="44"/>
+        <v>150000</v>
+      </c>
+      <c r="I1009">
+        <f t="shared" si="40"/>
+        <v>260000</v>
+      </c>
+      <c r="J1009">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
+      <c r="K1009">
+        <f t="shared" si="42"/>
+        <v>10000</v>
+      </c>
+      <c r="P1009" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1009" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:17" ht="15.75" customHeight="1">
       <c r="A1010" s="2">
-        <v>268</v>
+        <v>664</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1010" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1010" s="13">
+        <v>42763</v>
+      </c>
+      <c r="E1010" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1010" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1010" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H1010">
+        <f t="shared" si="44"/>
+        <v>150000</v>
+      </c>
+      <c r="I1010">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1010">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1010">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1010" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1010" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1011" s="2">
+        <v>664</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1011" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1011" s="13">
+        <v>42763</v>
+      </c>
+      <c r="E1011" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1011" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1011" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H1011">
+        <f t="shared" si="44"/>
+        <v>150000</v>
+      </c>
+      <c r="I1011">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1011">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1011">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1011" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1011" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1012" s="2">
+        <v>665</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1012" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1012" s="13">
+        <v>42763</v>
+      </c>
+      <c r="E1012" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1012" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1012" s="2">
+        <v>425000</v>
+      </c>
+      <c r="H1012">
+        <f t="shared" si="44"/>
+        <v>150000</v>
+      </c>
+      <c r="I1012">
+        <f t="shared" si="40"/>
+        <v>260000</v>
+      </c>
+      <c r="J1012">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
+      <c r="K1012">
+        <f t="shared" si="42"/>
+        <v>10000</v>
+      </c>
+      <c r="P1012" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1012" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1013" s="2">
+        <v>665</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1013" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1013" s="13">
+        <v>42763</v>
+      </c>
+      <c r="E1013" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1013" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1013" s="2">
+        <v>425000</v>
+      </c>
+      <c r="H1013">
+        <f t="shared" si="44"/>
+        <v>150000</v>
+      </c>
+      <c r="I1013">
+        <f t="shared" si="40"/>
+        <v>260000</v>
+      </c>
+      <c r="J1013">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
+      <c r="K1013">
+        <f t="shared" si="42"/>
+        <v>10000</v>
+      </c>
+      <c r="P1013" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1013" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1014" s="2">
+        <v>666</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1014" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1014" s="13">
+        <v>42763</v>
+      </c>
+      <c r="E1014" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1014" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1014" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H1014">
+        <f t="shared" si="44"/>
+        <v>150000</v>
+      </c>
+      <c r="I1014">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1014">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1014">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O1014">
+        <v>50000</v>
+      </c>
+      <c r="P1014" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1014" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1015" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1015">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1015">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1015">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1015">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1015" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1015" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1016" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1016">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1016">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1016">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1016">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1016" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1016" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1017" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1017">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1017">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1017">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1017">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1017" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1017" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1018" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1018">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1018">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1018">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1018">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1018" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1018" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1019" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1019">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1019">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1019">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1019">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1019" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1019" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1020" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1020">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1020">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1020">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1020">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1020" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1020" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1021" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1021">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1021">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1021">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1021">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1021" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1021" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1022" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1022">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1022">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1022">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1022">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1022" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1022" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1023" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1023">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1023">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1023">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1023">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1023" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1023" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1024" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1024">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1024">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1024">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1024">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1024" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1024" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1025" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1025" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1025">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1025">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1025">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1025">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1025" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1025" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1026" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1026" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1026">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1026">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1026">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1026">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1026" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1026" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1027" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1027" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1027">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1027">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1027">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1027">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1027" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1027" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1028" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1028" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1028">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1028">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1028">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1028">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1028" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1028" t="str">
+        <f t="shared" si="39"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1029" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1029" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1029">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1029">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1029">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1029">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1029" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1029" t="str">
+        <f t="shared" ref="Q1029:Q1092" si="45">CONCATENATE(YEAR(D1029),MONTH(D1029))</f>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1030" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1030" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1030">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1030">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1030">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1030">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1030" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1030" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1031" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1031" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1031">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1031">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1031">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1031">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1031" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1031" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1032" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1032" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1032">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1032">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1032">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1032">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1032" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1032" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1033" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1033" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1033">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1033">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1033">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1033">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1033" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1033" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1034" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1034" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1034">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1034">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1034">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1034">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1034" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1034" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1035" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1035" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1035">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1035">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1035">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1035">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1035" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1035" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1036" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1036" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1036">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1036">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1036">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1036">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1036" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1036" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1037" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1037" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1037">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1037">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1037">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1037">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1037" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1037" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1038" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1038" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1038">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1038">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1038">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1038">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1038" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1038" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1039" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1039" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1039">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1039">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1039">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1039">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1039" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1039" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1040" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1040" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1040">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1040">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1040">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1040">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1040" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1040" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1041" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1041" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1041">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1041">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1041">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1041">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1041" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1041" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1042" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1042" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1042">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1042">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1042">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1042">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1042" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1042" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1043" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1043" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1043">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1043">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1043">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1043">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1043" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1043" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1044" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1044" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1044">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1044">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1044">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1044">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1044" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1044" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1045" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1045" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1045">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1045">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1045">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1045">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1045" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1045" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1046" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1046" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1046">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1046">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1046">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1046">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1046" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1046" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1047" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1047" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1047">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1047">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1047">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1047">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1047" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1047" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1048" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1048" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1048">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1048">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1048">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1048">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1048" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1048" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1049" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1049" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1049">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1049">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1049">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1049">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1049" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1049" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1050" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1050" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1050">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1050">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1050">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1050">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1050" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1050" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1051" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1051" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1051">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1051">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1051">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1051">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1051" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1051" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1052" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1052" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1052">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1052">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1052">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1052">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1052" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1052" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1053" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1053" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1053">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1053">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1053">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1053">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1053" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1053" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1054" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1054" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1054">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1054">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1054">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1054">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1054" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1054" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1055" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1055" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1055">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1055">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1055">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1055">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1055" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1055" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1056" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1056" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1056">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1056">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1056">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1056">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1056" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1056" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1057" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1057" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1057">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1057">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1057">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1057">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1057" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1057" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1058" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1058" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1058">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1058">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1058">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1058">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1058" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1058" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1059" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1059" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1059">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1059">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1059">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1059">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1059" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1059" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1060" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1060" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1060">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1060">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1060">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1060">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1060" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1060" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1061" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1061" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1061">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1061">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1061">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1061">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1061" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1061" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1062" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1062" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1062">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1062">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1062">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1062">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1062" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1062" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1063" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1063" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1063">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1063">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1063">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1063">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1063" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1063" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1064" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1064" s="13">
+        <v>42763</v>
+      </c>
+      <c r="H1064">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1064">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1064">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1064">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1064" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1064" t="str">
+        <f t="shared" si="45"/>
+        <v>20171</v>
+      </c>
+    </row>
+    <row r="1065" spans="4:17" ht="15.75" customHeight="1">
+      <c r="H1065">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1065">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1065">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1065">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1065" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1065" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1066" spans="4:17" ht="15.75" customHeight="1">
+      <c r="H1066">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1066">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1066">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1066">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1066" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1066" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1067" spans="4:17" ht="15.75" customHeight="1">
+      <c r="H1067">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1067">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J1067">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K1067">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P1067" t="b">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="Q1067" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1068" spans="4:17" ht="15.75" customHeight="1">
+      <c r="H1068">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1068">
+        <f t="shared" ref="I1068:I1117" si="46">IF(C1068&lt;6,0,G1068-H1068-SUM(J1068:O1068))</f>
+        <v>0</v>
+      </c>
+      <c r="J1068">
+        <f t="shared" ref="J1068:J1117" si="47">IF(C1068&lt;6,0,5000)</f>
+        <v>0</v>
+      </c>
+      <c r="K1068">
+        <f t="shared" ref="K1068:K1117" si="48">IF(C1068&lt;6,0,10000)</f>
+        <v>0</v>
+      </c>
+      <c r="P1068" t="b">
+        <f t="shared" ref="P1068:P1117" si="49">G1068=SUM(H1068:O1068)</f>
+        <v>1</v>
+      </c>
+      <c r="Q1068" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1069" spans="4:17" ht="15.75" customHeight="1">
+      <c r="H1069">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I1069">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1069">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1069">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1069" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1069" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1070" spans="4:17" ht="15.75" customHeight="1">
+      <c r="H1070">
+        <f t="shared" ref="H1070:H1117" si="50">IF(C1070&lt;6,IF(E1070&lt;1,0,IF(G1070&gt;150000,150000,G1070)),150000)</f>
+        <v>0</v>
+      </c>
+      <c r="I1070">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1070">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1070">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1070" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1070" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1071" spans="4:17" ht="15.75" customHeight="1">
+      <c r="H1071">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1071">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1071">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1071">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1071" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1071" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1072" spans="4:17" ht="15.75" customHeight="1">
+      <c r="H1072">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1072">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1072">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1072">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1072" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1072" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1073" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1073">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1073">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1073">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1073">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1073" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1073" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1074" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1074">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1074">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1074">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1074">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1074" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1074" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1075" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1075">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1075">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1075">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1075">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1075" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1075" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1076" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1076">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1076">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1076">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1076">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1076" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1076" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1077" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1077">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1077">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1077">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1077">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1077" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1077" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1078" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1078">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1078">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1078">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1078">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1078" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1078" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1079" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1079">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1079">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1079">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1079">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1079" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1079" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1080" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1080">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1080">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1080">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1080">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1080" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1080" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1081" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1081">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1081">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1081">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1081">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1081" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1081" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1082" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1082">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1082">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1082">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1082">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1082" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1082" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1083" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1083">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1083">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1083">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1083">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1083" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1083" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1084" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1084">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1084">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1084">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1084">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1084" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1084" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1085" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1085">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1085">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1085">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1085">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1085" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1085" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1086" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1086">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1086">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1086">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1086">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1086" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1086" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1087" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1087">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1087">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1087">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1087">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1087" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1087" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1088" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1088">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1088">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1088">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1088">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1088" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1088" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1089" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1089">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1089">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1089">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1089">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1089" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1089" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1090" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1090">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1090">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1090">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1090">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1090" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1090" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1091" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1091">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1091">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1091">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1091">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1091" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1091" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1092" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1092">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1092">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1092">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1092">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1092" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1092" t="str">
+        <f t="shared" si="45"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1093" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1093">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1093">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1093">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1093">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1093" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1093" t="str">
+        <f t="shared" ref="Q1093:Q1117" si="51">CONCATENATE(YEAR(D1093),MONTH(D1093))</f>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1094" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1094">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1094">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1094">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1094">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1094" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1094" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1095" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1095">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1095">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1095">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1095">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1095" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1095" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1096" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1096">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1096">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1096">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1096">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1096" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1096" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1097" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1097">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1097">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1097">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1097">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1097" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1097" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1098" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1098">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1098">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1098">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1098">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1098" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1098" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1099" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1099">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1099">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1099">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1099">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1099" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1099" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1100" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1100">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1100">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1100">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1100">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1100" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1100" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1101" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1101">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1101">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1101">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1101">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1101" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1101" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1102" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1102">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1102">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1102">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1102">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1102" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1102" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1103" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1103">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1103">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1103">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1103">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1103" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1103" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1104" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1104">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1104">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1104">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1104">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1104" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1104" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1105" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1105">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1105">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1105">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1105">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1105" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1105" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1106" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1106">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1106">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1106">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1106">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1106" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1106" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1107" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1107">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1107">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1107">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1107">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1107" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1107" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1108" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1108">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1108">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1108">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1108">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1108" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1108" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1109" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1109">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1109">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1109">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1109">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1109" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1109" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1110" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1110">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1110">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1110">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1110">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1110" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1110" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1111" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1111">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1111">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1111">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1111">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1111" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1111" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1112" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1112">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1112">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1112">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1112">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1112" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1112" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1113" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1113">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1113">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1113">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1113">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1113" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1113" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1114" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1114">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1114">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1114">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1114">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1114" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1114" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1115" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1115">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1115">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1115">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1115">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1115" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1115" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1116" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1116">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1116">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1116">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1116">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1116" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1116" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="1117" spans="8:17" ht="15.75" customHeight="1">
+      <c r="H1117">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I1117">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J1117">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K1117">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P1117" t="b">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="Q1117" t="str">
+        <f t="shared" si="51"/>
+        <v>19001</v>
       </c>
     </row>
   </sheetData>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sep 2016" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sep 2016'!$A$1:$Q$1010</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sep 2016'!$A$1:$Q$1117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$E$2:$F$502</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="260">
   <si>
     <t>No</t>
   </si>
@@ -868,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -887,6 +887,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -40911,8 +40912,8 @@
   <dimension ref="A1:AF1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A993" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1015" sqref="A1015"/>
+      <pane ySplit="1" topLeftCell="A1000" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1118" sqref="A1118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -73756,7 +73757,7 @@
         <v>42693</v>
       </c>
       <c r="E693" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F693" s="2">
         <v>2016</v>
@@ -73806,7 +73807,7 @@
         <v>42693</v>
       </c>
       <c r="E694" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F694" s="2">
         <v>2016</v>
@@ -88976,12 +88977,30 @@
       </c>
     </row>
     <row r="1015" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1015" s="16">
+        <v>668</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1015" s="2">
+        <v>2</v>
+      </c>
       <c r="D1015" s="13">
         <v>42763</v>
       </c>
+      <c r="E1015" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1015" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1015" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1015">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1015">
         <f t="shared" si="40"/>
@@ -89005,24 +89024,42 @@
       </c>
     </row>
     <row r="1016" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1016" s="2">
+        <v>669</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1016" s="2">
+        <v>9</v>
+      </c>
       <c r="D1016" s="13">
         <v>42763</v>
       </c>
+      <c r="E1016" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1016" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1016" s="2">
+        <v>250000</v>
+      </c>
       <c r="H1016">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1016">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="J1016">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1016">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1016" t="b">
         <f t="shared" si="43"/>
@@ -89034,24 +89071,42 @@
       </c>
     </row>
     <row r="1017" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1017" s="2">
+        <v>669</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1017" s="2">
+        <v>9</v>
+      </c>
       <c r="D1017" s="13">
         <v>42763</v>
       </c>
+      <c r="E1017" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1017" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1017" s="2">
+        <v>250000</v>
+      </c>
       <c r="H1017">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1017">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="J1017">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1017">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1017" t="b">
         <f t="shared" si="43"/>
@@ -89063,24 +89118,42 @@
       </c>
     </row>
     <row r="1018" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1018" s="2">
+        <v>669</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1018" s="2">
+        <v>9</v>
+      </c>
       <c r="D1018" s="13">
         <v>42763</v>
       </c>
+      <c r="E1018" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1018" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1018" s="2">
+        <v>250000</v>
+      </c>
       <c r="H1018">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1018">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="J1018">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1018">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1018" t="b">
         <f t="shared" si="43"/>
@@ -89092,24 +89165,42 @@
       </c>
     </row>
     <row r="1019" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1019" s="2">
+        <v>670</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1019" s="2">
+        <v>6</v>
+      </c>
       <c r="D1019" s="13">
         <v>42763</v>
       </c>
+      <c r="E1019" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1019" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1019" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1019">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1019">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1019">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1019">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1019" t="b">
         <f t="shared" si="43"/>
@@ -89121,24 +89212,42 @@
       </c>
     </row>
     <row r="1020" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1020" s="2">
+        <v>670</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1020" s="2">
+        <v>6</v>
+      </c>
       <c r="D1020" s="13">
         <v>42763</v>
       </c>
+      <c r="E1020" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1020" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1020" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1020">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1020">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1020">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1020">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1020" t="b">
         <f t="shared" si="43"/>
@@ -89150,24 +89259,42 @@
       </c>
     </row>
     <row r="1021" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1021" s="2">
+        <v>671</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1021" s="2">
+        <v>8</v>
+      </c>
       <c r="D1021" s="13">
         <v>42763</v>
       </c>
+      <c r="E1021" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1021" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1021" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1021">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1021">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1021">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1021">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1021" t="b">
         <f t="shared" si="43"/>
@@ -89179,12 +89306,30 @@
       </c>
     </row>
     <row r="1022" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1022" s="2">
+        <v>672</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1022" s="2">
+        <v>4</v>
+      </c>
       <c r="D1022" s="13">
         <v>42763</v>
       </c>
+      <c r="E1022" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1022" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1022" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1022">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1022">
         <f t="shared" si="40"/>
@@ -89208,12 +89353,30 @@
       </c>
     </row>
     <row r="1023" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1023" s="2">
+        <v>672</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1023" s="2">
+        <v>1</v>
+      </c>
       <c r="D1023" s="13">
         <v>42763</v>
       </c>
+      <c r="E1023" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1023" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1023" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1023">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1023">
         <f t="shared" si="40"/>
@@ -89237,12 +89400,30 @@
       </c>
     </row>
     <row r="1024" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1024" s="2">
+        <v>673</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1024" s="2">
+        <v>2</v>
+      </c>
       <c r="D1024" s="13">
         <v>42763</v>
       </c>
+      <c r="E1024" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1024" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1024" s="2">
+        <v>200000</v>
+      </c>
       <c r="H1024">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1024">
         <f t="shared" si="40"/>
@@ -89258,20 +89439,38 @@
       </c>
       <c r="P1024" t="b">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1024" t="str">
         <f t="shared" si="39"/>
         <v>20171</v>
       </c>
     </row>
-    <row r="1025" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1025" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1025" s="2">
+        <v>673</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1025" s="2">
+        <v>2</v>
+      </c>
       <c r="D1025" s="13">
         <v>42763</v>
       </c>
+      <c r="E1025" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1025" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1025" s="2">
+        <v>200000</v>
+      </c>
       <c r="H1025">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1025">
         <f t="shared" si="40"/>
@@ -89287,16 +89486,19 @@
       </c>
       <c r="P1025" t="b">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1025" t="str">
         <f t="shared" si="39"/>
         <v>20171</v>
       </c>
     </row>
-    <row r="1026" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1026" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1026" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1026" s="2">
+        <v>2017</v>
       </c>
       <c r="H1026">
         <f t="shared" si="44"/>
@@ -89323,9 +89525,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1027" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1027" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1027" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1027" s="2">
+        <v>2017</v>
       </c>
       <c r="H1027">
         <f t="shared" si="44"/>
@@ -89352,9 +89557,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1028" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1028" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1028" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1028" s="2">
+        <v>2017</v>
       </c>
       <c r="H1028">
         <f t="shared" si="44"/>
@@ -89381,9 +89589,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1029" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1029" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1029" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1029" s="2">
+        <v>2017</v>
       </c>
       <c r="H1029">
         <f t="shared" si="44"/>
@@ -89410,9 +89621,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1030" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1030" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1030" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1030" s="2">
+        <v>2017</v>
       </c>
       <c r="H1030">
         <f t="shared" si="44"/>
@@ -89439,9 +89653,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1031" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1031" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1031" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1031" s="2">
+        <v>2017</v>
       </c>
       <c r="H1031">
         <f t="shared" si="44"/>
@@ -89468,9 +89685,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1032" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1032" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1032" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1032" s="2">
+        <v>2017</v>
       </c>
       <c r="H1032">
         <f t="shared" si="44"/>
@@ -89497,9 +89717,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1033" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1033" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1033" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1033" s="2">
+        <v>2017</v>
       </c>
       <c r="H1033">
         <f t="shared" si="44"/>
@@ -89526,9 +89749,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1034" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1034" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1034" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1034" s="2">
+        <v>2017</v>
       </c>
       <c r="H1034">
         <f t="shared" si="44"/>
@@ -89555,9 +89781,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1035" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1035" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1035" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1035" s="2">
+        <v>2017</v>
       </c>
       <c r="H1035">
         <f t="shared" si="44"/>
@@ -89584,9 +89813,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1036" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1036" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1036" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1036" s="2">
+        <v>2017</v>
       </c>
       <c r="H1036">
         <f t="shared" si="44"/>
@@ -89613,9 +89845,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1037" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1037" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1037" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1037" s="2">
+        <v>2017</v>
       </c>
       <c r="H1037">
         <f t="shared" si="44"/>
@@ -89642,9 +89877,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1038" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1038" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1038" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1038" s="2">
+        <v>2017</v>
       </c>
       <c r="H1038">
         <f t="shared" si="44"/>
@@ -89671,9 +89909,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1039" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1039" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1039" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1039" s="2">
+        <v>2017</v>
       </c>
       <c r="H1039">
         <f t="shared" si="44"/>
@@ -89700,9 +89941,12 @@
         <v>20171</v>
       </c>
     </row>
-    <row r="1040" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1040" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1040" s="13">
         <v>42763</v>
+      </c>
+      <c r="F1040" s="2">
+        <v>2017</v>
       </c>
       <c r="H1040">
         <f t="shared" si="44"/>
@@ -89733,6 +89977,9 @@
       <c r="D1041" s="13">
         <v>42763</v>
       </c>
+      <c r="F1041" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1041">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -89762,6 +90009,9 @@
       <c r="D1042" s="13">
         <v>42763</v>
       </c>
+      <c r="F1042" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1042">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -89791,6 +90041,9 @@
       <c r="D1043" s="13">
         <v>42763</v>
       </c>
+      <c r="F1043" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1043">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -89820,6 +90073,9 @@
       <c r="D1044" s="13">
         <v>42763</v>
       </c>
+      <c r="F1044" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1044">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -89849,6 +90105,9 @@
       <c r="D1045" s="13">
         <v>42763</v>
       </c>
+      <c r="F1045" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1045">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -89878,6 +90137,9 @@
       <c r="D1046" s="13">
         <v>42763</v>
       </c>
+      <c r="F1046" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1046">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -89907,6 +90169,9 @@
       <c r="D1047" s="13">
         <v>42763</v>
       </c>
+      <c r="F1047" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1047">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -89936,6 +90201,9 @@
       <c r="D1048" s="13">
         <v>42763</v>
       </c>
+      <c r="F1048" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1048">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -89965,6 +90233,9 @@
       <c r="D1049" s="13">
         <v>42763</v>
       </c>
+      <c r="F1049" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1049">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -89994,6 +90265,9 @@
       <c r="D1050" s="13">
         <v>42763</v>
       </c>
+      <c r="F1050" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1050">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90023,6 +90297,9 @@
       <c r="D1051" s="13">
         <v>42763</v>
       </c>
+      <c r="F1051" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1051">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90052,6 +90329,9 @@
       <c r="D1052" s="13">
         <v>42763</v>
       </c>
+      <c r="F1052" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1052">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90081,6 +90361,9 @@
       <c r="D1053" s="13">
         <v>42763</v>
       </c>
+      <c r="F1053" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1053">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90110,6 +90393,9 @@
       <c r="D1054" s="13">
         <v>42763</v>
       </c>
+      <c r="F1054" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1054">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90139,6 +90425,9 @@
       <c r="D1055" s="13">
         <v>42763</v>
       </c>
+      <c r="F1055" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1055">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90168,6 +90457,9 @@
       <c r="D1056" s="13">
         <v>42763</v>
       </c>
+      <c r="F1056" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1056">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90197,6 +90489,9 @@
       <c r="D1057" s="13">
         <v>42763</v>
       </c>
+      <c r="F1057" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1057">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90226,6 +90521,9 @@
       <c r="D1058" s="13">
         <v>42763</v>
       </c>
+      <c r="F1058" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1058">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90255,6 +90553,9 @@
       <c r="D1059" s="13">
         <v>42763</v>
       </c>
+      <c r="F1059" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1059">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90284,6 +90585,9 @@
       <c r="D1060" s="13">
         <v>42763</v>
       </c>
+      <c r="F1060" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1060">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90313,6 +90617,9 @@
       <c r="D1061" s="13">
         <v>42763</v>
       </c>
+      <c r="F1061" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1061">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90342,6 +90649,9 @@
       <c r="D1062" s="13">
         <v>42763</v>
       </c>
+      <c r="F1062" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1062">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90371,6 +90681,9 @@
       <c r="D1063" s="13">
         <v>42763</v>
       </c>
+      <c r="F1063" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1063">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90400,6 +90713,9 @@
       <c r="D1064" s="13">
         <v>42763</v>
       </c>
+      <c r="F1064" s="2">
+        <v>2017</v>
+      </c>
       <c r="H1064">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -91804,7 +92120,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1010">
+  <autoFilter ref="A1:Q1117">
     <filterColumn colId="1"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="260">
   <si>
     <t>No</t>
   </si>
@@ -40912,8 +40912,8 @@
   <dimension ref="A1:AF1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1000" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1118" sqref="A1118"/>
+      <pane ySplit="1" topLeftCell="A1012" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1031" sqref="G1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -89494,27 +89494,42 @@
       </c>
     </row>
     <row r="1026" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1026" s="2">
+        <v>674</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1026" s="2">
+        <v>9</v>
+      </c>
       <c r="D1026" s="13">
         <v>42763</v>
       </c>
+      <c r="E1026" s="2">
+        <v>1</v>
+      </c>
       <c r="F1026" s="2">
         <v>2017</v>
       </c>
+      <c r="G1026" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1026">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1026">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1026">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1026">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1026" t="b">
         <f t="shared" si="43"/>
@@ -89526,27 +89541,42 @@
       </c>
     </row>
     <row r="1027" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1027" s="2">
+        <v>674</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1027" s="2">
+        <v>9</v>
+      </c>
       <c r="D1027" s="13">
         <v>42763</v>
       </c>
+      <c r="E1027" s="2">
+        <v>1</v>
+      </c>
       <c r="F1027" s="2">
         <v>2017</v>
       </c>
+      <c r="G1027" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1027">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1027">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1027">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1027">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1027" t="b">
         <f t="shared" si="43"/>
@@ -89558,27 +89588,42 @@
       </c>
     </row>
     <row r="1028" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1028" s="2">
+        <v>674</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1028" s="2">
+        <v>7</v>
+      </c>
       <c r="D1028" s="13">
         <v>42763</v>
       </c>
+      <c r="E1028" s="2">
+        <v>12</v>
+      </c>
       <c r="F1028" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G1028" s="2">
+        <v>375000</v>
       </c>
       <c r="H1028">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1028">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="J1028">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1028">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1028" t="b">
         <f t="shared" si="43"/>
@@ -89590,27 +89635,42 @@
       </c>
     </row>
     <row r="1029" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1029" s="2">
+        <v>674</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1029" s="2">
+        <v>7</v>
+      </c>
       <c r="D1029" s="13">
         <v>42763</v>
       </c>
+      <c r="E1029" s="2">
+        <v>1</v>
+      </c>
       <c r="F1029" s="2">
         <v>2017</v>
       </c>
+      <c r="G1029" s="2">
+        <v>375000</v>
+      </c>
       <c r="H1029">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1029">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="J1029">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1029">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1029" t="b">
         <f t="shared" si="43"/>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="262">
   <si>
     <t>No</t>
   </si>
@@ -805,6 +805,12 @@
   </si>
   <si>
     <t>Ismail bin panuju</t>
+  </si>
+  <si>
+    <t>Rafif</t>
+  </si>
+  <si>
+    <t>Attar Ata Arroyan</t>
   </si>
 </sst>
 </file>
@@ -40912,8 +40918,8 @@
   <dimension ref="A1:AF1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1012" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1031" sqref="G1031"/>
+      <pane ySplit="1" topLeftCell="A1041" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1063" sqref="G1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -89249,6 +89255,7 @@
         <f t="shared" si="42"/>
         <v>10000</v>
       </c>
+      <c r="L1020" s="16"/>
       <c r="P1020" t="b">
         <f t="shared" si="43"/>
         <v>1</v>
@@ -89437,9 +89444,12 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
+      <c r="O1024">
+        <v>50000</v>
+      </c>
       <c r="P1024" t="b">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1024" t="str">
         <f t="shared" si="39"/>
@@ -89484,9 +89494,12 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
+      <c r="O1025">
+        <v>50000</v>
+      </c>
       <c r="P1025" t="b">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1025" t="str">
         <f t="shared" si="39"/>
@@ -89682,27 +89695,42 @@
       </c>
     </row>
     <row r="1030" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1030" s="2">
+        <v>676</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1030" s="2">
+        <v>6</v>
+      </c>
       <c r="D1030" s="13">
-        <v>42763</v>
+        <v>42765</v>
+      </c>
+      <c r="E1030" s="2">
+        <v>8</v>
       </c>
       <c r="F1030" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G1030" s="2">
+        <v>425000</v>
       </c>
       <c r="H1030">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1030">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1030">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1030">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1030" t="b">
         <f t="shared" si="43"/>
@@ -89714,27 +89742,42 @@
       </c>
     </row>
     <row r="1031" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1031" s="2">
+        <v>676</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1031" s="2">
+        <v>6</v>
+      </c>
       <c r="D1031" s="13">
-        <v>42763</v>
+        <v>42765</v>
+      </c>
+      <c r="E1031" s="2">
+        <v>9</v>
       </c>
       <c r="F1031" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G1031" s="2">
+        <v>425000</v>
       </c>
       <c r="H1031">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1031">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1031">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1031">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1031" t="b">
         <f t="shared" si="43"/>
@@ -89746,27 +89789,42 @@
       </c>
     </row>
     <row r="1032" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1032" s="2">
+        <v>677</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1032" s="2">
+        <v>10</v>
+      </c>
       <c r="D1032" s="13">
-        <v>42763</v>
+        <v>42765</v>
+      </c>
+      <c r="E1032" s="2">
+        <v>1</v>
       </c>
       <c r="F1032" s="2">
         <v>2017</v>
       </c>
+      <c r="G1032" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1032">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1032">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1032">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1032">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1032" t="b">
         <f t="shared" si="43"/>
@@ -89778,27 +89836,42 @@
       </c>
     </row>
     <row r="1033" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1033" s="2">
+        <v>677</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1033" s="2">
+        <v>10</v>
+      </c>
       <c r="D1033" s="13">
-        <v>42763</v>
+        <v>42765</v>
+      </c>
+      <c r="E1033" s="2">
+        <v>2</v>
       </c>
       <c r="F1033" s="2">
         <v>2017</v>
       </c>
+      <c r="G1033" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1033">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1033">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1033">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1033">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1033" t="b">
         <f t="shared" si="43"/>
@@ -89810,27 +89883,42 @@
       </c>
     </row>
     <row r="1034" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1034" s="2">
+        <v>678</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1034">
+        <v>10</v>
+      </c>
       <c r="D1034" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1034">
+        <v>12</v>
       </c>
       <c r="F1034" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G1034" s="2">
+        <v>425000</v>
       </c>
       <c r="H1034">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1034">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1034">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1034">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1034" t="b">
         <f t="shared" si="43"/>
@@ -89838,31 +89926,46 @@
       </c>
       <c r="Q1034" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
+        <v>20172</v>
       </c>
     </row>
     <row r="1035" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1035" s="2">
+        <v>678</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1035">
+        <v>10</v>
+      </c>
       <c r="D1035" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1035">
+        <v>1</v>
       </c>
       <c r="F1035" s="2">
         <v>2017</v>
       </c>
+      <c r="G1035" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1035">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1035">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1035">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1035">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1035" t="b">
         <f t="shared" si="43"/>
@@ -89870,31 +89973,46 @@
       </c>
       <c r="Q1035" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
+        <v>20172</v>
       </c>
     </row>
     <row r="1036" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1036" s="2">
+        <v>678</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1036">
+        <v>8</v>
+      </c>
       <c r="D1036" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1036">
+        <v>1</v>
       </c>
       <c r="F1036" s="2">
         <v>2017</v>
       </c>
+      <c r="G1036" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1036">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1036">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1036">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1036">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1036" t="b">
         <f t="shared" si="43"/>
@@ -89902,31 +90020,46 @@
       </c>
       <c r="Q1036" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
+        <v>20172</v>
       </c>
     </row>
     <row r="1037" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1037" s="2">
+        <v>678</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1037">
+        <v>8</v>
+      </c>
       <c r="D1037" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1037">
+        <v>2</v>
       </c>
       <c r="F1037" s="2">
         <v>2017</v>
       </c>
+      <c r="G1037" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1037">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1037">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1037">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1037">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1037" t="b">
         <f t="shared" si="43"/>
@@ -89934,31 +90067,46 @@
       </c>
       <c r="Q1037" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
+        <v>20172</v>
       </c>
     </row>
     <row r="1038" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1038" s="2">
+        <v>678</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1038" s="2">
+        <v>7</v>
+      </c>
       <c r="D1038" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1038" s="2">
+        <v>1</v>
       </c>
       <c r="F1038" s="2">
         <v>2017</v>
       </c>
+      <c r="G1038" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1038">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1038">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1038">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1038">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1038" t="b">
         <f t="shared" si="43"/>
@@ -89966,31 +90114,46 @@
       </c>
       <c r="Q1038" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
+        <v>20172</v>
       </c>
     </row>
     <row r="1039" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1039" s="2">
+        <v>678</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1039" s="2">
+        <v>6</v>
+      </c>
       <c r="D1039" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1039" s="2">
+        <v>2</v>
       </c>
       <c r="F1039" s="2">
         <v>2017</v>
       </c>
+      <c r="G1039" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1039">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1039">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1039">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1039">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1039" t="b">
         <f t="shared" si="43"/>
@@ -89998,31 +90161,46 @@
       </c>
       <c r="Q1039" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
+        <v>20172</v>
       </c>
     </row>
     <row r="1040" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1040" s="2">
+        <v>678</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1040" s="2">
+        <v>7</v>
+      </c>
       <c r="D1040" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1040" s="2">
+        <v>2</v>
       </c>
       <c r="F1040" s="2">
         <v>2017</v>
       </c>
+      <c r="G1040" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1040">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1040">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1040">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1040">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1040" t="b">
         <f t="shared" si="43"/>
@@ -90030,19 +90208,34 @@
       </c>
       <c r="Q1040" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1041" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1041" s="2">
+        <v>682</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1041" s="2">
+        <v>3</v>
+      </c>
       <c r="D1041" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1041" s="2">
+        <v>2</v>
       </c>
       <c r="F1041" s="2">
         <v>2017</v>
       </c>
+      <c r="G1041" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1041">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1041">
         <f t="shared" si="40"/>
@@ -90062,31 +90255,46 @@
       </c>
       <c r="Q1041" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1042" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1042" s="2">
+        <v>684</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1042" s="2">
+        <v>6</v>
+      </c>
       <c r="D1042" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1042" s="2">
+        <v>1</v>
       </c>
       <c r="F1042" s="2">
         <v>2017</v>
       </c>
+      <c r="G1042" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1042">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1042">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1042">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1042">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1042" t="b">
         <f t="shared" si="43"/>
@@ -90094,31 +90302,46 @@
       </c>
       <c r="Q1042" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1043" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1043" s="2">
+        <v>684</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1043" s="2">
+        <v>6</v>
+      </c>
       <c r="D1043" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1043" s="2">
+        <v>2</v>
       </c>
       <c r="F1043" s="2">
         <v>2017</v>
       </c>
+      <c r="G1043" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1043">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1043">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1043">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1043">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1043" t="b">
         <f t="shared" si="43"/>
@@ -90126,31 +90349,46 @@
       </c>
       <c r="Q1043" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1044" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1044" s="2">
+        <v>685</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1044" s="2">
+        <v>9</v>
+      </c>
       <c r="D1044" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1044" s="2">
+        <v>2</v>
       </c>
       <c r="F1044" s="2">
         <v>2017</v>
       </c>
+      <c r="G1044" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1044">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1044">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1044">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1044">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1044" t="b">
         <f t="shared" si="43"/>
@@ -90158,31 +90396,46 @@
       </c>
       <c r="Q1044" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1045" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1045" s="2">
+        <v>687</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1045" s="2">
+        <v>10</v>
+      </c>
       <c r="D1045" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1045" s="2">
+        <v>1</v>
       </c>
       <c r="F1045" s="2">
         <v>2017</v>
       </c>
+      <c r="G1045" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1045">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1045">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1045">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1045">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1045" t="b">
         <f t="shared" si="43"/>
@@ -90190,31 +90443,46 @@
       </c>
       <c r="Q1045" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1046" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1046" s="2">
+        <v>691</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1046" s="2">
+        <v>9</v>
+      </c>
       <c r="D1046" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1046" s="2">
+        <v>2</v>
       </c>
       <c r="F1046" s="2">
         <v>2017</v>
       </c>
+      <c r="G1046" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1046">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1046">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1046">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1046">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1046" t="b">
         <f t="shared" si="43"/>
@@ -90222,19 +90490,34 @@
       </c>
       <c r="Q1046" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1047" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1047" s="2">
+        <v>691</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1047" s="2">
+        <v>2</v>
+      </c>
       <c r="D1047" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1047" s="2">
+        <v>2</v>
       </c>
       <c r="F1047" s="2">
         <v>2017</v>
       </c>
+      <c r="G1047" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1047">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1047">
         <f t="shared" si="40"/>
@@ -90254,19 +90537,34 @@
       </c>
       <c r="Q1047" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1048" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1048" s="2">
+        <v>692</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1048" s="2">
+        <v>2</v>
+      </c>
       <c r="D1048" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1048" s="2">
+        <v>2</v>
       </c>
       <c r="F1048" s="2">
         <v>2017</v>
       </c>
+      <c r="G1048" s="2">
+        <v>160000</v>
+      </c>
       <c r="H1048">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1048">
         <f t="shared" si="40"/>
@@ -90280,37 +90578,55 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
+      <c r="N1048">
+        <v>10000</v>
+      </c>
       <c r="P1048" t="b">
         <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="Q1048" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1049" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1049" s="2">
+        <v>693</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1049" s="2">
+        <v>7</v>
+      </c>
       <c r="D1049" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1049" s="2">
+        <v>1</v>
       </c>
       <c r="F1049" s="2">
         <v>2017</v>
       </c>
+      <c r="G1049" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1049">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1049">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1049">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1049">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1049" t="b">
         <f t="shared" si="43"/>
@@ -90318,19 +90634,34 @@
       </c>
       <c r="Q1049" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1050" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1050" s="2">
+        <v>693</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1050" s="2">
+        <v>4</v>
+      </c>
       <c r="D1050" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1050" s="2">
+        <v>1</v>
       </c>
       <c r="F1050" s="2">
         <v>2017</v>
       </c>
+      <c r="G1050" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1050">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1050">
         <f t="shared" si="40"/>
@@ -90350,31 +90681,46 @@
       </c>
       <c r="Q1050" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1051" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1051" s="2">
+        <v>693</v>
+      </c>
+      <c r="B1051" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1051" s="2">
+        <v>7</v>
+      </c>
       <c r="D1051" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1051" s="2">
+        <v>2</v>
       </c>
       <c r="F1051" s="2">
         <v>2017</v>
       </c>
+      <c r="G1051" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1051">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1051">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1051">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1051">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1051" t="b">
         <f t="shared" si="43"/>
@@ -90382,19 +90728,34 @@
       </c>
       <c r="Q1051" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1052" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1052" s="2">
+        <v>693</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1052" s="2">
+        <v>4</v>
+      </c>
       <c r="D1052" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1052" s="2">
+        <v>2</v>
       </c>
       <c r="F1052" s="2">
         <v>2017</v>
       </c>
+      <c r="G1052" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1052">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1052">
         <f t="shared" si="40"/>
@@ -90414,19 +90775,34 @@
       </c>
       <c r="Q1052" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1053" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1053" s="2">
+        <v>694</v>
+      </c>
+      <c r="B1053" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1053" s="2">
+        <v>3</v>
+      </c>
       <c r="D1053" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1053" s="2">
+        <v>2</v>
       </c>
       <c r="F1053" s="2">
         <v>2017</v>
       </c>
+      <c r="G1053" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1053">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1053">
         <f t="shared" si="40"/>
@@ -90446,19 +90822,34 @@
       </c>
       <c r="Q1053" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1054" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1054" s="2">
+        <v>696</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1054" s="2">
+        <v>2</v>
+      </c>
       <c r="D1054" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1054" s="2">
+        <v>1</v>
       </c>
       <c r="F1054" s="2">
         <v>2017</v>
       </c>
+      <c r="G1054" s="2">
+        <v>200000</v>
+      </c>
       <c r="H1054">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1054">
         <f t="shared" si="40"/>
@@ -90472,25 +90863,43 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
+      <c r="O1054">
+        <v>50000</v>
+      </c>
       <c r="P1054" t="b">
         <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="Q1054" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1055" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1055" s="2">
+        <v>697</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1055" s="2">
+        <v>1</v>
+      </c>
       <c r="D1055" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1055" s="2">
+        <v>2</v>
       </c>
       <c r="F1055" s="2">
         <v>2017</v>
       </c>
+      <c r="G1055" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1055">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1055">
         <f t="shared" si="40"/>
@@ -90510,31 +90919,49 @@
       </c>
       <c r="Q1055" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1056" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1056" s="2">
+        <v>697</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1056" s="2">
+        <v>6</v>
+      </c>
       <c r="D1056" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1056" s="2">
+        <v>2</v>
       </c>
       <c r="F1056" s="2">
         <v>2017</v>
       </c>
+      <c r="G1056" s="2">
+        <v>435000</v>
+      </c>
       <c r="H1056">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1056">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1056">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1056">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="N1056">
+        <v>10000</v>
       </c>
       <c r="P1056" t="b">
         <f t="shared" si="43"/>
@@ -90542,19 +90969,34 @@
       </c>
       <c r="Q1056" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1057" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1057" s="2">
+        <v>698</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1057" s="2">
+        <v>2</v>
+      </c>
       <c r="D1057" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1057" s="2">
+        <v>12</v>
       </c>
       <c r="F1057" s="2">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G1057" s="2">
+        <v>150000</v>
       </c>
       <c r="H1057">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1057">
         <f t="shared" si="40"/>
@@ -90574,31 +91016,46 @@
       </c>
       <c r="Q1057" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1058" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1058" s="2">
+        <v>699</v>
+      </c>
+      <c r="B1058" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1058" s="2">
+        <v>9</v>
+      </c>
       <c r="D1058" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1058" s="2">
+        <v>1</v>
       </c>
       <c r="F1058" s="2">
         <v>2017</v>
       </c>
+      <c r="G1058" s="2">
+        <v>400000</v>
+      </c>
       <c r="H1058">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1058">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>235000</v>
       </c>
       <c r="J1058">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1058">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1058" t="b">
         <f t="shared" si="43"/>
@@ -90606,31 +91063,46 @@
       </c>
       <c r="Q1058" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1059" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1059" s="2">
+        <v>699</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1059" s="2">
+        <v>9</v>
+      </c>
       <c r="D1059" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1059" s="2">
+        <v>2</v>
       </c>
       <c r="F1059" s="2">
         <v>2017</v>
       </c>
+      <c r="G1059" s="2">
+        <v>400000</v>
+      </c>
       <c r="H1059">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1059">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>235000</v>
       </c>
       <c r="J1059">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1059">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1059" t="b">
         <f t="shared" si="43"/>
@@ -90638,19 +91110,34 @@
       </c>
       <c r="Q1059" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1060" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1060" s="2">
+        <v>700</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1060" s="2">
+        <v>1</v>
+      </c>
       <c r="D1060" s="13">
-        <v>42763</v>
+        <v>42767</v>
+      </c>
+      <c r="E1060" s="2">
+        <v>2</v>
       </c>
       <c r="F1060" s="2">
         <v>2017</v>
       </c>
+      <c r="G1060" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1060">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1060">
         <f t="shared" si="40"/>
@@ -90670,12 +91157,12 @@
       </c>
       <c r="Q1060" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1061" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1061" s="13">
-        <v>42763</v>
+        <v>42767</v>
       </c>
       <c r="F1061" s="2">
         <v>2017</v>
@@ -90702,12 +91189,12 @@
       </c>
       <c r="Q1061" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1062" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1062" s="13">
-        <v>42763</v>
+        <v>42767</v>
       </c>
       <c r="F1062" s="2">
         <v>2017</v>
@@ -90734,12 +91221,12 @@
       </c>
       <c r="Q1062" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1063" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1063" s="13">
-        <v>42763</v>
+        <v>42767</v>
       </c>
       <c r="F1063" s="2">
         <v>2017</v>
@@ -90766,12 +91253,12 @@
       </c>
       <c r="Q1063" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1064" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1064" s="13">
-        <v>42763</v>
+        <v>42767</v>
       </c>
       <c r="F1064" s="2">
         <v>2017</v>
@@ -90798,10 +91285,10 @@
       </c>
       <c r="Q1064" t="str">
         <f t="shared" si="45"/>
-        <v>20171</v>
-      </c>
-    </row>
-    <row r="1065" spans="4:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1065">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90827,7 +91314,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1066" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1066" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1066">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90853,7 +91340,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1067" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1067" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1067">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90879,7 +91366,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1068" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1068" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1068">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90905,7 +91392,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1069" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1069" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1069">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -90931,7 +91418,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1070" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1070" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1070">
         <f t="shared" ref="H1070:H1117" si="50">IF(C1070&lt;6,IF(E1070&lt;1,0,IF(G1070&gt;150000,150000,G1070)),150000)</f>
         <v>0</v>
@@ -90957,7 +91444,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1071" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1071" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1071">
         <f t="shared" si="50"/>
         <v>0</v>
@@ -90983,7 +91470,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1072" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1072" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1072">
         <f t="shared" si="50"/>
         <v>0</v>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="264">
   <si>
     <t>Count of SPP</t>
   </si>
@@ -824,7 +824,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -887,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -40927,8 +40927,8 @@
   <dimension ref="A1:AF1208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1121" sqref="A1121"/>
+      <pane ySplit="1" topLeftCell="A1117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1139" sqref="G1139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -54852,7 +54852,7 @@
       </c>
       <c r="I294">
         <f t="shared" si="9"/>
-        <v>335000</v>
+        <v>260000</v>
       </c>
       <c r="J294">
         <f t="shared" si="10"/>
@@ -54861,6 +54861,9 @@
       <c r="K294">
         <f t="shared" si="11"/>
         <v>10000</v>
+      </c>
+      <c r="O294" s="2">
+        <v>75000</v>
       </c>
       <c r="P294" t="b">
         <f t="shared" si="4"/>
@@ -59691,7 +59694,7 @@
         <v>2016</v>
       </c>
       <c r="G395" s="2">
-        <v>425000</v>
+        <v>500000</v>
       </c>
       <c r="H395">
         <f t="shared" si="0"/>
@@ -59709,6 +59712,9 @@
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
+      <c r="O395" s="2">
+        <v>75000</v>
+      </c>
       <c r="P395" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -73645,7 +73651,7 @@
       </c>
       <c r="I690">
         <f t="shared" si="9"/>
-        <v>335000</v>
+        <v>260000</v>
       </c>
       <c r="J690">
         <f t="shared" si="10"/>
@@ -73655,6 +73661,9 @@
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
+      <c r="O690" s="2">
+        <v>75000</v>
+      </c>
       <c r="P690" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -75349,7 +75358,7 @@
       </c>
       <c r="I726">
         <f t="shared" si="9"/>
-        <v>335000</v>
+        <v>260000</v>
       </c>
       <c r="J726">
         <f t="shared" si="10"/>
@@ -75359,6 +75368,9 @@
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
+      <c r="O726" s="2">
+        <v>75000</v>
+      </c>
       <c r="P726" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -79736,7 +79748,7 @@
         <v>2017</v>
       </c>
       <c r="G819" s="2">
-        <v>425000</v>
+        <v>500000</v>
       </c>
       <c r="H819">
         <f t="shared" si="0"/>
@@ -79754,6 +79766,9 @@
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
+      <c r="O819" s="2">
+        <v>75000</v>
+      </c>
       <c r="P819" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -93765,7 +93780,7 @@
       </c>
       <c r="I1115">
         <f t="shared" si="51"/>
-        <v>335000</v>
+        <v>260000</v>
       </c>
       <c r="J1115">
         <f t="shared" si="52"/>
@@ -93775,6 +93790,9 @@
         <f t="shared" si="53"/>
         <v>10000</v>
       </c>
+      <c r="O1115" s="2">
+        <v>75000</v>
+      </c>
       <c r="P1115" t="b">
         <f t="shared" si="54"/>
         <v>1</v>
@@ -94019,11 +94037,31 @@
         <v>20172</v>
       </c>
     </row>
-    <row r="1121" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B1121" s="13"/>
+    <row r="1121" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1121">
+        <v>721</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1121" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1121" s="10">
+        <v>42773</v>
+      </c>
+      <c r="E1121">
+        <v>12</v>
+      </c>
+      <c r="F1121">
+        <v>2017</v>
+      </c>
+      <c r="G1121">
+        <v>150000</v>
+      </c>
       <c r="H1121">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1121">
         <f t="shared" si="51"/>
@@ -94043,26 +94081,49 @@
       </c>
       <c r="Q1121" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1122" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B1122" s="13"/>
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1122">
+        <v>741</v>
+      </c>
+      <c r="B1122" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1122" s="2">
+        <v>11</v>
+      </c>
+      <c r="D1122" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1122" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1122">
+        <v>2017</v>
+      </c>
+      <c r="G1122" s="2">
+        <v>435000</v>
+      </c>
       <c r="H1122">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1122">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1122">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1122">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="L1122">
+        <v>10000</v>
       </c>
       <c r="P1122" t="b">
         <f t="shared" si="54"/>
@@ -94070,26 +94131,49 @@
       </c>
       <c r="Q1122" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1123" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B1123" s="13"/>
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1123">
+        <v>741</v>
+      </c>
+      <c r="B1123" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1123" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1123" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1123" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1123">
+        <v>2017</v>
+      </c>
+      <c r="G1123" s="2">
+        <v>435000</v>
+      </c>
       <c r="H1123">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1123">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1123">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1123">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="L1123">
+        <v>10000</v>
       </c>
       <c r="P1123" t="b">
         <f t="shared" si="54"/>
@@ -94097,25 +94181,49 @@
       </c>
       <c r="Q1123" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1124" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1124">
+        <v>741</v>
+      </c>
+      <c r="B1124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1124" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1124" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1124" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1124">
+        <v>2017</v>
+      </c>
+      <c r="G1124" s="2">
+        <v>435000</v>
+      </c>
       <c r="H1124">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1124">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1124">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1124">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="L1124">
+        <v>10000</v>
       </c>
       <c r="P1124" t="b">
         <f t="shared" si="54"/>
@@ -94123,13 +94231,34 @@
       </c>
       <c r="Q1124" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1125" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1125">
+        <v>742</v>
+      </c>
+      <c r="B1125" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1125" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1125" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1125" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1125">
+        <v>2016</v>
+      </c>
+      <c r="G1125" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1125">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1125">
         <f t="shared" si="51"/>
@@ -94149,13 +94278,34 @@
       </c>
       <c r="Q1125" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1126" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1126">
+        <v>742</v>
+      </c>
+      <c r="B1126" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1126" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1126" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1126" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1126">
+        <v>2016</v>
+      </c>
+      <c r="G1126" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1126">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1126">
         <f t="shared" si="51"/>
@@ -94175,13 +94325,34 @@
       </c>
       <c r="Q1126" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1127" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1127">
+        <v>742</v>
+      </c>
+      <c r="B1127" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1127" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1127" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1127" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1127">
+        <v>2016</v>
+      </c>
+      <c r="G1127" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1127">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1127">
         <f t="shared" si="51"/>
@@ -94201,13 +94372,34 @@
       </c>
       <c r="Q1127" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1128" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1128">
+        <v>742</v>
+      </c>
+      <c r="B1128" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1128" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1128" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1128" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1128">
+        <v>2016</v>
+      </c>
+      <c r="G1128" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1128">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1128">
         <f t="shared" si="51"/>
@@ -94227,13 +94419,34 @@
       </c>
       <c r="Q1128" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1129" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1129">
+        <v>742</v>
+      </c>
+      <c r="B1129" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1129" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1129" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1129" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1129">
+        <v>2016</v>
+      </c>
+      <c r="G1129" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1129">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1129">
         <f t="shared" si="51"/>
@@ -94253,13 +94466,34 @@
       </c>
       <c r="Q1129" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1130" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1130">
+        <v>742</v>
+      </c>
+      <c r="B1130" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1130" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1130" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1130" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1130">
+        <v>2016</v>
+      </c>
+      <c r="G1130" s="2">
+        <v>170000</v>
+      </c>
       <c r="H1130">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1130">
         <f t="shared" si="51"/>
@@ -94273,19 +94507,43 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
+      <c r="N1130">
+        <v>20000</v>
+      </c>
       <c r="P1130" t="b">
         <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="Q1130" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1131" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1131">
+        <v>743</v>
+      </c>
+      <c r="B1131" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1131" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1131" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1131" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1131">
+        <v>2017</v>
+      </c>
+      <c r="G1131" s="2">
+        <v>100000</v>
+      </c>
       <c r="H1131">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I1131">
         <f t="shared" si="51"/>
@@ -94305,13 +94563,34 @@
       </c>
       <c r="Q1131" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1132" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1132">
+        <v>743</v>
+      </c>
+      <c r="B1132" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1132" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1132" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1132" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1132">
+        <v>2017</v>
+      </c>
+      <c r="G1132" s="2">
+        <v>100000</v>
+      </c>
       <c r="H1132">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I1132">
         <f t="shared" ref="I1132:I1195" si="57">IF(C1132&lt;6,0,G1132-H1132-SUM(J1132:O1132))</f>
@@ -94331,25 +94610,46 @@
       </c>
       <c r="Q1132" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1133" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1133">
+        <v>743</v>
+      </c>
+      <c r="B1133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1133" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1133" s="3">
+        <v>42777</v>
+      </c>
+      <c r="E1133" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1133">
+        <v>2017</v>
+      </c>
+      <c r="G1133" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1133">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1133">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1133">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1133">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1133" t="b">
         <f t="shared" si="60"/>
@@ -94357,10 +94657,16 @@
       </c>
       <c r="Q1133" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1134" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1134" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1134">
+        <v>2017</v>
+      </c>
       <c r="H1134">
         <f t="shared" ref="H1134:H1197" si="61">IF(C1134&lt;6,IF(E1134&lt;1,0,IF(G1134&gt;150000,150000,G1134)),150000)</f>
         <v>0</v>
@@ -94383,10 +94689,16 @@
       </c>
       <c r="Q1134" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1135" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1135" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1135">
+        <v>2017</v>
+      </c>
       <c r="H1135">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94409,10 +94721,16 @@
       </c>
       <c r="Q1135" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1136" spans="2:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1136" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1136">
+        <v>2017</v>
+      </c>
       <c r="H1136">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94435,10 +94753,16 @@
       </c>
       <c r="Q1136" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1137" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1137" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1137" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1137">
+        <v>2017</v>
+      </c>
       <c r="H1137">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94461,10 +94785,16 @@
       </c>
       <c r="Q1137" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1138" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1138" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1138" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1138">
+        <v>2017</v>
+      </c>
       <c r="H1138">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94487,10 +94817,16 @@
       </c>
       <c r="Q1138" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1139" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1139" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1139" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1139">
+        <v>2017</v>
+      </c>
       <c r="H1139">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94513,10 +94849,16 @@
       </c>
       <c r="Q1139" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1140" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1140" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1140" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1140">
+        <v>2017</v>
+      </c>
       <c r="H1140">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94539,10 +94881,16 @@
       </c>
       <c r="Q1140" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1141" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1141" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1141" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1141">
+        <v>2017</v>
+      </c>
       <c r="H1141">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94565,10 +94913,16 @@
       </c>
       <c r="Q1141" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1142" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1142" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1142" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1142">
+        <v>2017</v>
+      </c>
       <c r="H1142">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94591,10 +94945,16 @@
       </c>
       <c r="Q1142" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1143" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1143" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1143" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1143">
+        <v>2017</v>
+      </c>
       <c r="H1143">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94617,10 +94977,16 @@
       </c>
       <c r="Q1143" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1144" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1144" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1144" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1144">
+        <v>2017</v>
+      </c>
       <c r="H1144">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94643,10 +95009,16 @@
       </c>
       <c r="Q1144" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1145" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1145" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1145" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1145">
+        <v>2017</v>
+      </c>
       <c r="H1145">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94669,10 +95041,16 @@
       </c>
       <c r="Q1145" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1146" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1146" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1146" s="3">
+        <v>42777</v>
+      </c>
+      <c r="F1146">
+        <v>2017</v>
+      </c>
       <c r="H1146">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94695,10 +95073,10 @@
       </c>
       <c r="Q1146" t="str">
         <f t="shared" si="56"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1147" spans="8:17" ht="15.75" customHeight="1">
+        <v>20172</v>
+      </c>
+    </row>
+    <row r="1147" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1147">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94724,7 +95102,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1148" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1148" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1148">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94750,7 +95128,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1149" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1149" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1149">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94776,7 +95154,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1150" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1150" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1150">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94802,7 +95180,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1151" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1151" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1151">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -94828,7 +95206,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1152" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1152" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1152">
         <f t="shared" si="61"/>
         <v>0</v>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="267">
   <si>
     <t>Count of SPP</t>
   </si>
@@ -817,6 +817,15 @@
   </si>
   <si>
     <t>afrizal M Zain</t>
+  </si>
+  <si>
+    <t>Ikhwanuddin Hanif</t>
+  </si>
+  <si>
+    <t>Ismail bin ibrahim</t>
+  </si>
+  <si>
+    <t>Bapak Novi</t>
   </si>
 </sst>
 </file>
@@ -40927,8 +40936,8 @@
   <dimension ref="A1:AF1333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1154" sqref="E1154"/>
+      <pane ySplit="1" topLeftCell="A1172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1194" sqref="F1194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -45491,7 +45500,7 @@
         <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="C97" s="2">
         <v>1</v>
@@ -48356,7 +48365,7 @@
         <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="C157" s="2">
         <v>1</v>
@@ -48456,7 +48465,7 @@
         <v>38</v>
       </c>
       <c r="C159" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159" s="3">
         <v>42637</v>
@@ -48503,7 +48512,7 @@
         <v>38</v>
       </c>
       <c r="C160" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160" s="3">
         <v>42637</v>
@@ -48550,7 +48559,7 @@
         <v>38</v>
       </c>
       <c r="C161" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D161" s="3">
         <v>42637</v>
@@ -53084,7 +53093,7 @@
         <v>355</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="C257" s="2">
         <v>1</v>
@@ -69556,7 +69565,7 @@
         <v>462</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="C604" s="2">
         <v>1</v>
@@ -69603,7 +69612,7 @@
         <v>462</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="C605" s="2">
         <v>1</v>
@@ -72532,7 +72541,7 @@
         <v>484</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="C667" s="2">
         <v>1</v>
@@ -78223,7 +78232,7 @@
         <v>583</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="C787">
         <v>1</v>
@@ -80870,7 +80879,7 @@
         <v>38</v>
       </c>
       <c r="C843">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D843" s="9">
         <v>42655</v>
@@ -81196,7 +81205,7 @@
         <v>264</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="C850">
         <v>1</v>
@@ -81525,7 +81534,7 @@
         <v>270</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="C857">
         <v>1</v>
@@ -84004,8 +84013,8 @@
       <c r="C909">
         <v>2</v>
       </c>
-      <c r="D909" s="10" t="s">
-        <v>255</v>
+      <c r="D909" s="10">
+        <v>42721</v>
       </c>
       <c r="E909" s="2">
         <v>12</v>
@@ -84039,9 +84048,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q909" t="e">
+      <c r="Q909" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v>201612</v>
       </c>
     </row>
     <row r="910" spans="1:17" ht="15.75" customHeight="1">
@@ -84707,7 +84716,7 @@
         <v>616</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="C924">
         <v>1</v>
@@ -95559,16 +95568,31 @@
         <v>20172</v>
       </c>
     </row>
-    <row r="1153" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1153" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1153">
+        <v>811</v>
+      </c>
+      <c r="B1153" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1153" s="2">
+        <v>1</v>
+      </c>
       <c r="D1153" s="3">
         <v>42784</v>
       </c>
+      <c r="E1153" s="2">
+        <v>2</v>
+      </c>
       <c r="F1153">
         <v>2017</v>
       </c>
+      <c r="G1153" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1153">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1153">
         <f t="shared" si="57"/>
@@ -95591,16 +95615,31 @@
         <v>20172</v>
       </c>
     </row>
-    <row r="1154" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1154" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1154">
+        <v>812</v>
+      </c>
+      <c r="B1154" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1154" s="2">
+        <v>1</v>
+      </c>
       <c r="D1154" s="3">
         <v>42784</v>
       </c>
+      <c r="E1154" s="2">
+        <v>1</v>
+      </c>
       <c r="F1154">
         <v>2017</v>
       </c>
+      <c r="G1154" s="2">
+        <v>350000</v>
+      </c>
       <c r="H1154">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1154">
         <f t="shared" si="57"/>
@@ -95613,6 +95652,9 @@
       <c r="K1154">
         <f t="shared" si="59"/>
         <v>0</v>
+      </c>
+      <c r="O1154">
+        <v>200000</v>
       </c>
       <c r="P1154" t="b">
         <f t="shared" si="60"/>
@@ -95623,28 +95665,43 @@
         <v>20172</v>
       </c>
     </row>
-    <row r="1155" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1155" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1155">
+        <v>813</v>
+      </c>
+      <c r="B1155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1155" s="2">
+        <v>7</v>
+      </c>
       <c r="D1155" s="3">
         <v>42784</v>
       </c>
+      <c r="E1155" s="2">
+        <v>2</v>
+      </c>
       <c r="F1155">
         <v>2017</v>
       </c>
+      <c r="G1155" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1155">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1155">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1155">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1155">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1155" t="b">
         <f t="shared" si="60"/>
@@ -95655,28 +95712,43 @@
         <v>20172</v>
       </c>
     </row>
-    <row r="1156" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1156" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1156">
+        <v>814</v>
+      </c>
+      <c r="B1156" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1156" s="2">
+        <v>6</v>
+      </c>
       <c r="D1156" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1156" s="2">
+        <v>2</v>
       </c>
       <c r="F1156">
         <v>2017</v>
       </c>
+      <c r="G1156" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1156">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1156">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1156">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1156">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1156" t="b">
         <f t="shared" si="60"/>
@@ -95684,31 +95756,46 @@
       </c>
       <c r="Q1156" t="str">
         <f t="shared" si="56"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1157" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1157">
+        <v>815</v>
+      </c>
+      <c r="B1157" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1157" s="2">
+        <v>8</v>
+      </c>
       <c r="D1157" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1157" s="2">
+        <v>12</v>
       </c>
       <c r="F1157">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G1157" s="2">
+        <v>350000</v>
       </c>
       <c r="H1157">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1157">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="J1157">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1157">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1157" t="b">
         <f t="shared" si="60"/>
@@ -95716,31 +95803,46 @@
       </c>
       <c r="Q1157" t="str">
         <f t="shared" ref="Q1157:Q1220" si="62">CONCATENATE(YEAR(D1157),MONTH(D1157))</f>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1158" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1158">
+        <v>815</v>
+      </c>
+      <c r="B1158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1158" s="2">
+        <v>8</v>
+      </c>
       <c r="D1158" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1158" s="2">
+        <v>1</v>
       </c>
       <c r="F1158">
         <v>2017</v>
       </c>
+      <c r="G1158" s="2">
+        <v>350000</v>
+      </c>
       <c r="H1158">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1158">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="J1158">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1158">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1158" t="b">
         <f t="shared" si="60"/>
@@ -95748,31 +95850,46 @@
       </c>
       <c r="Q1158" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1159" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1159">
+        <v>815</v>
+      </c>
+      <c r="B1159" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1159" s="2">
+        <v>8</v>
+      </c>
       <c r="D1159" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1159" s="2">
+        <v>2</v>
       </c>
       <c r="F1159">
         <v>2017</v>
       </c>
+      <c r="G1159" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1159">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1159">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1159">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1159">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1159" t="b">
         <f t="shared" si="60"/>
@@ -95780,31 +95897,46 @@
       </c>
       <c r="Q1159" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1160" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1160">
+        <v>816</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1160" s="2">
+        <v>7</v>
+      </c>
       <c r="D1160" s="3">
-        <v>42784</v>
-      </c>
-      <c r="F1160">
-        <v>2017</v>
+        <v>42798</v>
+      </c>
+      <c r="E1160" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1160" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1160" s="2">
+        <v>375000</v>
       </c>
       <c r="H1160">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1160">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="J1160">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1160">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1160" t="b">
         <f t="shared" si="60"/>
@@ -95812,31 +95944,46 @@
       </c>
       <c r="Q1160" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1161" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1161">
+        <v>816</v>
+      </c>
+      <c r="B1161" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1161" s="2">
+        <v>9</v>
+      </c>
       <c r="D1161" s="3">
-        <v>42784</v>
-      </c>
-      <c r="F1161">
-        <v>2017</v>
+        <v>42798</v>
+      </c>
+      <c r="E1161" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1161" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1161" s="2">
+        <v>425000</v>
       </c>
       <c r="H1161">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1161">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1161">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1161">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1161" t="b">
         <f t="shared" si="60"/>
@@ -95844,31 +95991,46 @@
       </c>
       <c r="Q1161" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1162" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1162">
+        <v>816</v>
+      </c>
+      <c r="B1162" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1162" s="2">
+        <v>9</v>
+      </c>
       <c r="D1162" s="3">
-        <v>42784</v>
-      </c>
-      <c r="F1162">
-        <v>2017</v>
+        <v>42798</v>
+      </c>
+      <c r="E1162" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1162" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1162" s="2">
+        <v>425000</v>
       </c>
       <c r="H1162">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1162">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1162">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1162">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1162" t="b">
         <f t="shared" si="60"/>
@@ -95876,19 +96038,34 @@
       </c>
       <c r="Q1162" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1163" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1163">
+        <v>817</v>
+      </c>
+      <c r="B1163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1163" s="2">
+        <v>1</v>
+      </c>
       <c r="D1163" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1163" s="2">
+        <v>1</v>
       </c>
       <c r="F1163">
         <v>2017</v>
       </c>
+      <c r="G1163" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1163">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1163">
         <f t="shared" si="57"/>
@@ -95908,19 +96085,34 @@
       </c>
       <c r="Q1163" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1164" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1164">
+        <v>817</v>
+      </c>
+      <c r="B1164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1164" s="2">
+        <v>1</v>
+      </c>
       <c r="D1164" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1164" s="2">
+        <v>1</v>
       </c>
       <c r="F1164">
         <v>2017</v>
       </c>
+      <c r="G1164" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1164">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1164">
         <f t="shared" si="57"/>
@@ -95940,31 +96132,46 @@
       </c>
       <c r="Q1164" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1165" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1165">
+        <v>818</v>
+      </c>
+      <c r="B1165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1165" s="2">
+        <v>7</v>
+      </c>
       <c r="D1165" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1165" s="2">
+        <v>1</v>
       </c>
       <c r="F1165">
         <v>2017</v>
       </c>
+      <c r="G1165" s="2">
+        <v>350000</v>
+      </c>
       <c r="H1165">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1165">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="J1165">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1165">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1165" t="b">
         <f t="shared" si="60"/>
@@ -95972,31 +96179,46 @@
       </c>
       <c r="Q1165" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1166" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1166">
+        <v>818</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1166" s="2">
+        <v>7</v>
+      </c>
       <c r="D1166" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1166" s="2">
+        <v>2</v>
       </c>
       <c r="F1166">
         <v>2017</v>
       </c>
+      <c r="G1166" s="2">
+        <v>350000</v>
+      </c>
       <c r="H1166">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1166">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="J1166">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1166">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1166" t="b">
         <f t="shared" si="60"/>
@@ -96004,19 +96226,34 @@
       </c>
       <c r="Q1166" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1167" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1167">
+        <v>819</v>
+      </c>
+      <c r="B1167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1167" s="2">
+        <v>1</v>
+      </c>
       <c r="D1167" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1167" s="2">
+        <v>3</v>
       </c>
       <c r="F1167">
         <v>2017</v>
       </c>
+      <c r="G1167" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1167">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1167">
         <f t="shared" si="57"/>
@@ -96036,19 +96273,34 @@
       </c>
       <c r="Q1167" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1168" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1168">
+        <v>820</v>
+      </c>
+      <c r="B1168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1168" s="2">
+        <v>1</v>
+      </c>
       <c r="D1168" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1168" s="2">
+        <v>3</v>
       </c>
       <c r="F1168">
         <v>2017</v>
       </c>
+      <c r="G1168" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1168">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1168">
         <f t="shared" si="57"/>
@@ -96068,19 +96320,34 @@
       </c>
       <c r="Q1168" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1169" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1169">
+        <v>820</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1169" s="2">
+        <v>4</v>
+      </c>
       <c r="D1169" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1169" s="2">
+        <v>3</v>
       </c>
       <c r="F1169">
         <v>2017</v>
       </c>
+      <c r="G1169" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1169">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1169">
         <f t="shared" si="57"/>
@@ -96100,19 +96367,34 @@
       </c>
       <c r="Q1169" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1170" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1170">
+        <v>821</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1170" s="2">
+        <v>1</v>
+      </c>
       <c r="D1170" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1170" s="2">
+        <v>3</v>
       </c>
       <c r="F1170">
         <v>2017</v>
       </c>
+      <c r="G1170" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1170">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1170">
         <f t="shared" si="57"/>
@@ -96132,31 +96414,46 @@
       </c>
       <c r="Q1170" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1171" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1171">
+        <v>821</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1171" s="2">
+        <v>6</v>
+      </c>
       <c r="D1171" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1171" s="2">
+        <v>3</v>
       </c>
       <c r="F1171">
         <v>2017</v>
       </c>
+      <c r="G1171" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1171">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1171">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1171">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1171">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1171" t="b">
         <f t="shared" si="60"/>
@@ -96164,19 +96461,34 @@
       </c>
       <c r="Q1171" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1172" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1172">
+        <v>822</v>
+      </c>
+      <c r="B1172" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1172" s="2">
+        <v>4</v>
+      </c>
       <c r="D1172" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1172" s="2">
+        <v>4</v>
       </c>
       <c r="F1172">
         <v>2017</v>
       </c>
+      <c r="G1172" s="2">
+        <v>155000</v>
+      </c>
       <c r="H1172">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1172">
         <f t="shared" si="57"/>
@@ -96190,25 +96502,43 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
+      <c r="N1172">
+        <v>5000</v>
+      </c>
       <c r="P1172" t="b">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="Q1172" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1173" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1173">
+        <v>822</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1173" s="2">
+        <v>1</v>
+      </c>
       <c r="D1173" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1173" s="2">
+        <v>1</v>
       </c>
       <c r="F1173">
         <v>2017</v>
       </c>
+      <c r="G1173" s="2">
+        <v>155000</v>
+      </c>
       <c r="H1173">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1173">
         <f t="shared" si="57"/>
@@ -96222,25 +96552,43 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
+      <c r="N1173">
+        <v>5000</v>
+      </c>
       <c r="P1173" t="b">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="Q1173" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1174" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1174">
+        <v>823</v>
+      </c>
+      <c r="B1174" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1174" s="2">
+        <v>2</v>
+      </c>
       <c r="D1174" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1174" s="2">
+        <v>2</v>
       </c>
       <c r="F1174">
         <v>2017</v>
       </c>
+      <c r="G1174" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1174">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1174">
         <f t="shared" si="57"/>
@@ -96260,19 +96608,34 @@
       </c>
       <c r="Q1174" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1175" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1175">
+        <v>824</v>
+      </c>
+      <c r="B1175" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1175" s="2">
+        <v>2</v>
+      </c>
       <c r="D1175" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1175" s="2">
+        <v>2</v>
       </c>
       <c r="F1175">
         <v>2017</v>
       </c>
+      <c r="G1175" s="2">
+        <v>170000</v>
+      </c>
       <c r="H1175">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1175">
         <f t="shared" si="57"/>
@@ -96286,25 +96649,43 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
+      <c r="N1175">
+        <v>20000</v>
+      </c>
       <c r="P1175" t="b">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="Q1175" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1176" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1176">
+        <v>825</v>
+      </c>
+      <c r="B1176" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1176" s="2">
+        <v>1</v>
+      </c>
       <c r="D1176" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1176" s="2">
+        <v>2</v>
       </c>
       <c r="F1176">
         <v>2017</v>
       </c>
+      <c r="G1176" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1176">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1176">
         <f t="shared" si="57"/>
@@ -96324,31 +96705,46 @@
       </c>
       <c r="Q1176" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1177" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1177">
+        <v>826</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1177" s="2">
+        <v>7</v>
+      </c>
       <c r="D1177" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1177" s="2">
+        <v>2</v>
       </c>
       <c r="F1177">
         <v>2017</v>
       </c>
+      <c r="G1177" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1177">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1177">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1177">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1177">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1177" t="b">
         <f t="shared" si="60"/>
@@ -96356,31 +96752,46 @@
       </c>
       <c r="Q1177" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1178" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1178">
+        <v>827</v>
+      </c>
+      <c r="B1178" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1178" s="2">
+        <v>6</v>
+      </c>
       <c r="D1178" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1178" s="2">
+        <v>3</v>
       </c>
       <c r="F1178">
         <v>2017</v>
       </c>
+      <c r="G1178" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1178">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1178">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>-15000</v>
       </c>
       <c r="J1178">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1178">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1178" t="b">
         <f t="shared" si="60"/>
@@ -96388,19 +96799,34 @@
       </c>
       <c r="Q1178" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1179" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1179">
+        <v>828</v>
+      </c>
+      <c r="B1179" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1179">
+        <v>3</v>
+      </c>
       <c r="D1179" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1179" s="2">
+        <v>1</v>
       </c>
       <c r="F1179">
         <v>2017</v>
       </c>
+      <c r="G1179" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1179">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1179">
         <f t="shared" si="57"/>
@@ -96420,19 +96846,34 @@
       </c>
       <c r="Q1179" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1180" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1180">
+        <v>828</v>
+      </c>
+      <c r="B1180" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1180">
+        <v>3</v>
+      </c>
       <c r="D1180" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1180" s="2">
+        <v>2</v>
       </c>
       <c r="F1180">
         <v>2017</v>
       </c>
+      <c r="G1180" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1180">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1180">
         <f t="shared" si="57"/>
@@ -96452,19 +96893,34 @@
       </c>
       <c r="Q1180" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1181" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1181">
+        <v>828</v>
+      </c>
+      <c r="B1181" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1181">
+        <v>3</v>
+      </c>
       <c r="D1181" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1181" s="2">
+        <v>3</v>
       </c>
       <c r="F1181">
         <v>2017</v>
       </c>
+      <c r="G1181" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1181">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1181">
         <f t="shared" si="57"/>
@@ -96484,31 +96940,46 @@
       </c>
       <c r="Q1181" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1182" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1182">
+        <v>829</v>
+      </c>
+      <c r="B1182" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1182" s="2">
+        <v>7</v>
+      </c>
       <c r="D1182" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1182" s="2">
+        <v>3</v>
       </c>
       <c r="F1182">
         <v>2017</v>
       </c>
+      <c r="G1182" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1182">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1182">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1182">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1182">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1182" t="b">
         <f t="shared" si="60"/>
@@ -96516,31 +96987,46 @@
       </c>
       <c r="Q1182" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1183" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1183">
+        <v>830</v>
+      </c>
+      <c r="B1183" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1183" s="2">
+        <v>11</v>
+      </c>
       <c r="D1183" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1183" s="2">
+        <v>2</v>
       </c>
       <c r="F1183">
         <v>2017</v>
       </c>
+      <c r="G1183" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1183">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1183">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1183">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1183">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1183" t="b">
         <f t="shared" si="60"/>
@@ -96548,31 +97034,46 @@
       </c>
       <c r="Q1183" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1184" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1184">
+        <v>830</v>
+      </c>
+      <c r="B1184" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1184" s="2">
+        <v>11</v>
+      </c>
       <c r="D1184" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1184" s="2">
+        <v>3</v>
       </c>
       <c r="F1184">
         <v>2017</v>
       </c>
+      <c r="G1184" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1184">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1184">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1184">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1184">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1184" t="b">
         <f t="shared" si="60"/>
@@ -96580,19 +97081,34 @@
       </c>
       <c r="Q1184" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1185" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1185">
+        <v>831</v>
+      </c>
+      <c r="B1185" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1185">
+        <v>2</v>
+      </c>
       <c r="D1185" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1185" s="2">
+        <v>1</v>
       </c>
       <c r="F1185">
         <v>2017</v>
       </c>
+      <c r="G1185" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1185">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1185">
         <f t="shared" si="57"/>
@@ -96612,19 +97128,34 @@
       </c>
       <c r="Q1185" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1186" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1186">
+        <v>832</v>
+      </c>
+      <c r="B1186" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1186" s="2">
+        <v>3</v>
+      </c>
       <c r="D1186" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1186" s="2">
+        <v>3</v>
       </c>
       <c r="F1186">
         <v>2017</v>
       </c>
+      <c r="G1186" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1186">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1186">
         <f t="shared" si="57"/>
@@ -96644,31 +97175,46 @@
       </c>
       <c r="Q1186" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1187" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1187">
+        <v>833</v>
+      </c>
+      <c r="B1187" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1187" s="2">
+        <v>20</v>
+      </c>
       <c r="D1187" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1187" s="2">
+        <v>3</v>
       </c>
       <c r="F1187">
         <v>2017</v>
       </c>
+      <c r="G1187" s="2">
+        <v>3020000</v>
+      </c>
       <c r="H1187">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1187">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>2855000</v>
       </c>
       <c r="J1187">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1187">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1187" t="b">
         <f t="shared" si="60"/>
@@ -96676,19 +97222,34 @@
       </c>
       <c r="Q1187" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1188" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1188">
+        <v>834</v>
+      </c>
+      <c r="B1188" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1188" s="2">
+        <v>5</v>
+      </c>
       <c r="D1188" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1188" s="2">
+        <v>2</v>
       </c>
       <c r="F1188">
         <v>2017</v>
       </c>
+      <c r="G1188" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1188">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1188">
         <f t="shared" si="57"/>
@@ -96708,19 +97269,34 @@
       </c>
       <c r="Q1188" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1189" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1189">
+        <v>836</v>
+      </c>
+      <c r="B1189" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1189" s="2">
+        <v>3</v>
+      </c>
       <c r="D1189" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1189" s="2">
+        <v>3</v>
       </c>
       <c r="F1189">
         <v>2017</v>
       </c>
+      <c r="G1189" s="2">
+        <v>200000</v>
+      </c>
       <c r="H1189">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1189">
         <f t="shared" si="57"/>
@@ -96734,25 +97310,46 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
+      <c r="N1189">
+        <v>10000</v>
+      </c>
+      <c r="O1189">
+        <v>40000</v>
+      </c>
       <c r="P1189" t="b">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="Q1189" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1190" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1190">
+        <v>837</v>
+      </c>
+      <c r="B1190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1190" s="2">
+        <v>3</v>
+      </c>
       <c r="D1190" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1190" s="2">
+        <v>12</v>
       </c>
       <c r="F1190">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="G1190" s="2">
+        <v>150000</v>
       </c>
       <c r="H1190">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1190">
         <f t="shared" si="57"/>
@@ -96772,19 +97369,34 @@
       </c>
       <c r="Q1190" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1191" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1191">
+        <v>837</v>
+      </c>
+      <c r="B1191" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1191" s="2">
+        <v>3</v>
+      </c>
       <c r="D1191" s="3">
-        <v>42784</v>
+        <v>42798</v>
+      </c>
+      <c r="E1191" s="2">
+        <v>1</v>
       </c>
       <c r="F1191">
         <v>2017</v>
       </c>
+      <c r="G1191" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1191">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1191">
         <f t="shared" si="57"/>
@@ -96804,12 +97416,12 @@
       </c>
       <c r="Q1191" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1192" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1192" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1192">
         <v>2017</v>
@@ -96836,12 +97448,12 @@
       </c>
       <c r="Q1192" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1193" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1193" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1193">
         <v>2017</v>
@@ -96868,12 +97480,12 @@
       </c>
       <c r="Q1193" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1194" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1194" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1194">
         <v>2017</v>
@@ -96900,12 +97512,12 @@
       </c>
       <c r="Q1194" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1195" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1195" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1195">
         <v>2017</v>
@@ -96932,12 +97544,12 @@
       </c>
       <c r="Q1195" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1196" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1196" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1196">
         <v>2017</v>
@@ -96964,12 +97576,12 @@
       </c>
       <c r="Q1196" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1197" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1197" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1197">
         <v>2017</v>
@@ -96996,12 +97608,12 @@
       </c>
       <c r="Q1197" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1198" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1198" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1198">
         <v>2017</v>
@@ -97028,12 +97640,12 @@
       </c>
       <c r="Q1198" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1199" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1199" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1199">
         <v>2017</v>
@@ -97060,12 +97672,12 @@
       </c>
       <c r="Q1199" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
-      </c>
-    </row>
-    <row r="1200" spans="4:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1200" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1200">
         <v>2017</v>
@@ -97092,12 +97704,12 @@
       </c>
       <c r="Q1200" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1201" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1201" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1201">
         <v>2017</v>
@@ -97124,12 +97736,12 @@
       </c>
       <c r="Q1201" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1202" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1202" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1202">
         <v>2017</v>
@@ -97156,12 +97768,12 @@
       </c>
       <c r="Q1202" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1203" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1203" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1203">
         <v>2017</v>
@@ -97188,12 +97800,12 @@
       </c>
       <c r="Q1203" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1204" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1204" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1204">
         <v>2017</v>
@@ -97220,12 +97832,12 @@
       </c>
       <c r="Q1204" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1205" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1205" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1205">
         <v>2017</v>
@@ -97252,12 +97864,12 @@
       </c>
       <c r="Q1205" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1206" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1206" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1206">
         <v>2017</v>
@@ -97284,12 +97896,12 @@
       </c>
       <c r="Q1206" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1207" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1207" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1207">
         <v>2017</v>
@@ -97316,12 +97928,12 @@
       </c>
       <c r="Q1207" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1208" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1208" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1208">
         <v>2017</v>
@@ -97348,14 +97960,14 @@
       </c>
       <c r="Q1208" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1209" spans="2:17" ht="15.75" customHeight="1">
       <c r="B1209" s="2"/>
       <c r="C1209" s="2"/>
       <c r="D1209" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1209">
         <v>2017</v>
@@ -97383,12 +97995,12 @@
       </c>
       <c r="Q1209" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1210" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1210" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1210">
         <v>2017</v>
@@ -97415,12 +98027,12 @@
       </c>
       <c r="Q1210" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1211" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1211" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1211">
         <v>2017</v>
@@ -97447,12 +98059,12 @@
       </c>
       <c r="Q1211" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1212" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1212" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1212">
         <v>2017</v>
@@ -97479,12 +98091,12 @@
       </c>
       <c r="Q1212" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1213" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1213" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1213">
         <v>2017</v>
@@ -97511,12 +98123,12 @@
       </c>
       <c r="Q1213" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1214" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1214" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1214">
         <v>2017</v>
@@ -97543,12 +98155,12 @@
       </c>
       <c r="Q1214" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1215" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1215" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1215">
         <v>2017</v>
@@ -97575,12 +98187,12 @@
       </c>
       <c r="Q1215" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1216" spans="2:17" ht="15.75" customHeight="1">
       <c r="D1216" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1216">
         <v>2017</v>
@@ -97607,12 +98219,12 @@
       </c>
       <c r="Q1216" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1217" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1217" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1217">
         <v>2017</v>
@@ -97639,12 +98251,12 @@
       </c>
       <c r="Q1217" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1218" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1218" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1218">
         <v>2017</v>
@@ -97671,12 +98283,12 @@
       </c>
       <c r="Q1218" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1219" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1219" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1219">
         <v>2017</v>
@@ -97703,12 +98315,12 @@
       </c>
       <c r="Q1219" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1220" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1220" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1220">
         <v>2017</v>
@@ -97735,12 +98347,12 @@
       </c>
       <c r="Q1220" t="str">
         <f t="shared" si="62"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1221" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1221" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1221">
         <v>2017</v>
@@ -97767,12 +98379,12 @@
       </c>
       <c r="Q1221" t="str">
         <f t="shared" ref="Q1221:Q1284" si="68">CONCATENATE(YEAR(D1221),MONTH(D1221))</f>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1222" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1222" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1222">
         <v>2017</v>
@@ -97799,12 +98411,12 @@
       </c>
       <c r="Q1222" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1223" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1223" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1223">
         <v>2017</v>
@@ -97831,12 +98443,12 @@
       </c>
       <c r="Q1223" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1224" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1224" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1224">
         <v>2017</v>
@@ -97863,12 +98475,12 @@
       </c>
       <c r="Q1224" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1225" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1225" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1225">
         <v>2017</v>
@@ -97895,12 +98507,12 @@
       </c>
       <c r="Q1225" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1226" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1226" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1226">
         <v>2017</v>
@@ -97927,12 +98539,12 @@
       </c>
       <c r="Q1226" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1227" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1227" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1227">
         <v>2017</v>
@@ -97959,12 +98571,12 @@
       </c>
       <c r="Q1227" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1228" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1228" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1228">
         <v>2017</v>
@@ -97991,12 +98603,12 @@
       </c>
       <c r="Q1228" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1229" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1229" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1229">
         <v>2017</v>
@@ -98023,12 +98635,12 @@
       </c>
       <c r="Q1229" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1230" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1230" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1230">
         <v>2017</v>
@@ -98055,12 +98667,12 @@
       </c>
       <c r="Q1230" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1231" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1231" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1231">
         <v>2017</v>
@@ -98087,12 +98699,12 @@
       </c>
       <c r="Q1231" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1232" spans="4:17" ht="15.75" customHeight="1">
       <c r="D1232" s="3">
-        <v>42784</v>
+        <v>42798</v>
       </c>
       <c r="F1232">
         <v>2017</v>
@@ -98119,7 +98731,7 @@
       </c>
       <c r="Q1232" t="str">
         <f t="shared" si="68"/>
-        <v>20172</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1233" spans="8:17" ht="15.75" customHeight="1">

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="268">
   <si>
     <t>Count of SPP</t>
   </si>
@@ -826,6 +826,9 @@
   </si>
   <si>
     <t>Bapak Novi</t>
+  </si>
+  <si>
+    <t>Ahmad Bin Sutris</t>
   </si>
 </sst>
 </file>
@@ -40936,8 +40939,8 @@
   <dimension ref="A1:AF1333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1194" sqref="F1194"/>
+      <pane ySplit="1" topLeftCell="A1206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1228" sqref="G1228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -51968,7 +51971,7 @@
         <v>318</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C233" s="2">
         <v>9</v>
@@ -52015,7 +52018,7 @@
         <v>318</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C234" s="2">
         <v>9</v>
@@ -54744,7 +54747,7 @@
         <v>376</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="C292" s="2">
         <v>2</v>
@@ -54791,7 +54794,7 @@
         <v>376</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="C293" s="2">
         <v>2</v>
@@ -55665,7 +55668,7 @@
         <v>9</v>
       </c>
       <c r="C311" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D311" s="4">
         <v>42658</v>
@@ -63387,7 +63390,7 @@
         <v>23</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="C473" s="2">
         <v>2</v>
@@ -63434,7 +63437,7 @@
         <v>23</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="C474" s="2">
         <v>2</v>
@@ -76287,7 +76290,7 @@
         <v>545</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="C746" s="2">
         <v>2</v>
@@ -76334,7 +76337,7 @@
         <v>545</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="C747" s="2">
         <v>2</v>
@@ -97420,27 +97423,42 @@
       </c>
     </row>
     <row r="1192" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1192">
+        <v>838</v>
+      </c>
+      <c r="B1192" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1192" s="2">
+        <v>10</v>
+      </c>
       <c r="D1192" s="3">
         <v>42798</v>
       </c>
+      <c r="E1192" s="2">
+        <v>2</v>
+      </c>
       <c r="F1192">
         <v>2017</v>
       </c>
+      <c r="G1192" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1192">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1192">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1192">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1192">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1192" t="b">
         <f t="shared" si="60"/>
@@ -97452,27 +97470,42 @@
       </c>
     </row>
     <row r="1193" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1193">
+        <v>839</v>
+      </c>
+      <c r="B1193" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1193" s="2">
+        <v>7</v>
+      </c>
       <c r="D1193" s="3">
-        <v>42798</v>
+        <v>42800</v>
+      </c>
+      <c r="E1193" s="2">
+        <v>3</v>
       </c>
       <c r="F1193">
         <v>2017</v>
       </c>
+      <c r="G1193" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1193">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1193">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1193">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1193">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1193" t="b">
         <f t="shared" si="60"/>
@@ -97484,27 +97517,42 @@
       </c>
     </row>
     <row r="1194" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1194">
+        <v>840</v>
+      </c>
+      <c r="B1194" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1194" s="2">
+        <v>6</v>
+      </c>
       <c r="D1194" s="3">
-        <v>42798</v>
+        <v>42800</v>
+      </c>
+      <c r="E1194" s="2">
+        <v>3</v>
       </c>
       <c r="F1194">
         <v>2017</v>
       </c>
+      <c r="G1194" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1194">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1194">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1194">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1194">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1194" t="b">
         <f t="shared" si="60"/>
@@ -97516,27 +97564,42 @@
       </c>
     </row>
     <row r="1195" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1195">
+        <v>841</v>
+      </c>
+      <c r="B1195" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1195" s="2">
+        <v>9</v>
+      </c>
       <c r="D1195" s="3">
-        <v>42798</v>
+        <v>42800</v>
+      </c>
+      <c r="E1195" s="2">
+        <v>3</v>
       </c>
       <c r="F1195">
         <v>2017</v>
       </c>
+      <c r="G1195" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1195">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1195">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1195">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1195">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1195" t="b">
         <f t="shared" si="60"/>
@@ -97548,27 +97611,42 @@
       </c>
     </row>
     <row r="1196" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1196">
+        <v>842</v>
+      </c>
+      <c r="B1196" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1196" s="2">
+        <v>8</v>
+      </c>
       <c r="D1196" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1196" s="2">
+        <v>12</v>
       </c>
       <c r="F1196">
         <v>2017</v>
       </c>
+      <c r="G1196" s="2">
+        <v>400000</v>
+      </c>
       <c r="H1196">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1196">
         <f t="shared" ref="I1196:I1259" si="63">IF(C1196&lt;6,0,G1196-H1196-SUM(J1196:O1196))</f>
-        <v>0</v>
+        <v>235000</v>
       </c>
       <c r="J1196">
         <f t="shared" ref="J1196:J1259" si="64">IF(C1196&lt;6,0,5000)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1196">
         <f t="shared" ref="K1196:K1259" si="65">IF(C1196&lt;6,0,10000)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1196" t="b">
         <f t="shared" ref="P1196:P1259" si="66">G1196=SUM(H1196:O1196)</f>
@@ -97580,27 +97658,42 @@
       </c>
     </row>
     <row r="1197" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1197">
+        <v>842</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1197" s="2">
+        <v>8</v>
+      </c>
       <c r="D1197" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1197" s="2">
+        <v>3</v>
       </c>
       <c r="F1197">
         <v>2017</v>
       </c>
+      <c r="G1197" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1197">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1197">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1197">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1197">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1197" t="b">
         <f t="shared" si="66"/>
@@ -97612,27 +97705,42 @@
       </c>
     </row>
     <row r="1198" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1198">
+        <v>842</v>
+      </c>
+      <c r="B1198" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1198" s="2">
+        <v>7</v>
+      </c>
       <c r="D1198" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1198" s="2">
+        <v>3</v>
       </c>
       <c r="F1198">
         <v>2017</v>
       </c>
+      <c r="G1198" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1198">
         <f t="shared" ref="H1198:H1261" si="67">IF(C1198&lt;6,IF(E1198&lt;1,0,IF(G1198&gt;150000,150000,G1198)),150000)</f>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1198">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1198">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1198">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1198" t="b">
         <f t="shared" si="66"/>
@@ -97644,27 +97752,42 @@
       </c>
     </row>
     <row r="1199" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1199">
+        <v>842</v>
+      </c>
+      <c r="B1199" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1199" s="2">
+        <v>7</v>
+      </c>
       <c r="D1199" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1199" s="2">
+        <v>3</v>
       </c>
       <c r="F1199">
         <v>2017</v>
       </c>
+      <c r="G1199" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1199">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1199">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1199">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1199">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1199" t="b">
         <f t="shared" si="66"/>
@@ -97676,27 +97799,42 @@
       </c>
     </row>
     <row r="1200" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1200">
+        <v>842</v>
+      </c>
+      <c r="B1200" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1200" s="2">
+        <v>10</v>
+      </c>
       <c r="D1200" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1200">
+        <v>2</v>
       </c>
       <c r="F1200">
         <v>2017</v>
       </c>
+      <c r="G1200" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1200">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1200">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1200">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1200">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1200" t="b">
         <f t="shared" si="66"/>
@@ -97707,28 +97845,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1201" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1201" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1201">
+        <v>842</v>
+      </c>
+      <c r="B1201" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1201" s="2">
+        <v>10</v>
+      </c>
       <c r="D1201" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1201">
+        <v>3</v>
       </c>
       <c r="F1201">
         <v>2017</v>
       </c>
+      <c r="G1201" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1201">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1201">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1201">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1201">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1201" t="b">
         <f t="shared" si="66"/>
@@ -97739,28 +97892,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1202" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1202" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1202">
+        <v>842</v>
+      </c>
+      <c r="B1202" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1202" s="2">
+        <v>8</v>
+      </c>
       <c r="D1202" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1202" s="2">
+        <v>2</v>
       </c>
       <c r="F1202">
         <v>2017</v>
       </c>
+      <c r="G1202" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1202">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1202">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1202">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1202">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1202" t="b">
         <f t="shared" si="66"/>
@@ -97771,28 +97939,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1203" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1203" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1203">
+        <v>842</v>
+      </c>
+      <c r="B1203" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1203" s="2">
+        <v>8</v>
+      </c>
       <c r="D1203" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1203" s="2">
+        <v>3</v>
       </c>
       <c r="F1203">
         <v>2017</v>
       </c>
+      <c r="G1203" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1203">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1203">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1203">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1203">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1203" t="b">
         <f t="shared" si="66"/>
@@ -97803,28 +97986,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1204" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1204" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1204">
+        <v>842</v>
+      </c>
+      <c r="B1204" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1204" s="2">
+        <v>7</v>
+      </c>
       <c r="D1204" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1204" s="2">
+        <v>2</v>
       </c>
       <c r="F1204">
         <v>2017</v>
       </c>
+      <c r="G1204" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1204">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1204">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1204">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1204">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1204" t="b">
         <f t="shared" si="66"/>
@@ -97835,28 +98033,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1205" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1205" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1205">
+        <v>842</v>
+      </c>
+      <c r="B1205" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1205" s="2">
+        <v>7</v>
+      </c>
       <c r="D1205" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1205" s="2">
+        <v>2</v>
       </c>
       <c r="F1205">
         <v>2017</v>
       </c>
+      <c r="G1205" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1205">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1205">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1205">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1205">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1205" t="b">
         <f t="shared" si="66"/>
@@ -97867,28 +98080,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1206" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1206" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1206">
+        <v>842</v>
+      </c>
+      <c r="B1206" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1206" s="2">
+        <v>7</v>
+      </c>
       <c r="D1206" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1206" s="2">
+        <v>3</v>
       </c>
       <c r="F1206">
         <v>2017</v>
       </c>
+      <c r="G1206" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1206">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1206">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1206">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1206">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1206" t="b">
         <f t="shared" si="66"/>
@@ -97899,28 +98127,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1207" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1207" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1207">
+        <v>842</v>
+      </c>
+      <c r="B1207" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1207" s="2">
+        <v>6</v>
+      </c>
       <c r="D1207" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1207" s="2">
+        <v>3</v>
       </c>
       <c r="F1207">
         <v>2017</v>
       </c>
+      <c r="G1207" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1207">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1207">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1207">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1207">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1207" t="b">
         <f t="shared" si="66"/>
@@ -97931,28 +98174,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1208" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1208" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1208">
+        <v>842</v>
+      </c>
+      <c r="B1208" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1208" s="2">
+        <v>8</v>
+      </c>
       <c r="D1208" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1208" s="2">
+        <v>3</v>
       </c>
       <c r="F1208">
         <v>2017</v>
       </c>
+      <c r="G1208" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1208">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1208">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1208">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1208">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1208" t="b">
         <f t="shared" si="66"/>
@@ -97963,31 +98221,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1209" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B1209" s="2"/>
-      <c r="C1209" s="2"/>
+    <row r="1209" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1209">
+        <v>842</v>
+      </c>
+      <c r="B1209" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1209" s="2">
+        <v>8</v>
+      </c>
       <c r="D1209" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1209" s="2">
+        <v>3</v>
       </c>
       <c r="F1209">
         <v>2017</v>
       </c>
-      <c r="G1209" s="2"/>
+      <c r="G1209" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1209">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1209">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1209">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1209">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1209" t="b">
         <f t="shared" si="66"/>
@@ -97998,28 +98268,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1210" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1210" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1210">
+        <v>842</v>
+      </c>
+      <c r="B1210" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1210" s="2">
+        <v>7</v>
+      </c>
       <c r="D1210" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1210" s="2">
+        <v>3</v>
       </c>
       <c r="F1210">
         <v>2017</v>
       </c>
+      <c r="G1210" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1210">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1210">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1210">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1210">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1210" t="b">
         <f t="shared" si="66"/>
@@ -98030,28 +98315,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1211" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1211" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1211">
+        <v>842</v>
+      </c>
+      <c r="B1211" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1211" s="2">
+        <v>7</v>
+      </c>
       <c r="D1211" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1211" s="2">
+        <v>3</v>
       </c>
       <c r="F1211">
         <v>2017</v>
       </c>
+      <c r="G1211" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1211">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1211">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1211">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1211">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1211" t="b">
         <f t="shared" si="66"/>
@@ -98062,28 +98362,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1212" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1212" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1212">
+        <v>842</v>
+      </c>
+      <c r="B1212" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1212" s="2">
+        <v>7</v>
+      </c>
       <c r="D1212" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1212" s="2">
+        <v>3</v>
       </c>
       <c r="F1212">
         <v>2017</v>
       </c>
+      <c r="G1212" s="2">
+        <v>500000</v>
+      </c>
       <c r="H1212">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1212">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>335000</v>
       </c>
       <c r="J1212">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1212">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1212" t="b">
         <f t="shared" si="66"/>
@@ -98094,28 +98409,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1213" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1213" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1213">
+        <v>842</v>
+      </c>
+      <c r="B1213" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1213" s="2">
+        <v>7</v>
+      </c>
       <c r="D1213" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1213" s="2">
+        <v>2</v>
       </c>
       <c r="F1213">
         <v>2017</v>
       </c>
+      <c r="G1213" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1213">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1213">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1213">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1213">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1213" t="b">
         <f t="shared" si="66"/>
@@ -98126,28 +98456,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1214" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1214" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1214">
+        <v>842</v>
+      </c>
+      <c r="B1214" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1214" s="2">
+        <v>7</v>
+      </c>
       <c r="D1214" s="3">
-        <v>42798</v>
+        <v>42803</v>
+      </c>
+      <c r="E1214" s="2">
+        <v>3</v>
       </c>
       <c r="F1214">
         <v>2017</v>
       </c>
+      <c r="G1214" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1214">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1214">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1214">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1214">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1214" t="b">
         <f t="shared" si="66"/>
@@ -98158,16 +98503,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1215" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1215" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1215">
+        <v>844</v>
+      </c>
+      <c r="B1215" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1215" s="2">
+        <v>2</v>
+      </c>
       <c r="D1215" s="3">
-        <v>42798</v>
+        <v>42804</v>
+      </c>
+      <c r="E1215" s="2">
+        <v>1</v>
       </c>
       <c r="F1215">
         <v>2017</v>
       </c>
+      <c r="G1215" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1215">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1215">
         <f t="shared" si="63"/>
@@ -98190,16 +98550,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1216" spans="2:17" ht="15.75" customHeight="1">
+    <row r="1216" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1216">
+        <v>844</v>
+      </c>
+      <c r="B1216" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1216" s="2">
+        <v>2</v>
+      </c>
       <c r="D1216" s="3">
-        <v>42798</v>
+        <v>42804</v>
+      </c>
+      <c r="E1216" s="2">
+        <v>2</v>
       </c>
       <c r="F1216">
         <v>2017</v>
       </c>
+      <c r="G1216" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1216">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1216">
         <f t="shared" si="63"/>
@@ -98222,16 +98597,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1217" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1217" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1217">
+        <v>844</v>
+      </c>
+      <c r="B1217" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1217" s="2">
+        <v>2</v>
+      </c>
       <c r="D1217" s="3">
-        <v>42798</v>
+        <v>42804</v>
+      </c>
+      <c r="E1217" s="2">
+        <v>3</v>
       </c>
       <c r="F1217">
         <v>2017</v>
       </c>
+      <c r="G1217" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1217">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1217">
         <f t="shared" si="63"/>
@@ -98254,16 +98644,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1218" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1218" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1218">
+        <v>845</v>
+      </c>
+      <c r="B1218" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1218" s="2">
+        <v>1</v>
+      </c>
       <c r="D1218" s="3">
-        <v>42798</v>
+        <v>42804</v>
+      </c>
+      <c r="E1218" s="2">
+        <v>3</v>
       </c>
       <c r="F1218">
         <v>2017</v>
       </c>
+      <c r="G1218" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1218">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1218">
         <f t="shared" si="63"/>
@@ -98286,16 +98691,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1219" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1219" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1219">
+        <v>845</v>
+      </c>
+      <c r="B1219" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1219" s="2">
+        <v>4</v>
+      </c>
       <c r="D1219" s="3">
-        <v>42798</v>
+        <v>42804</v>
+      </c>
+      <c r="E1219" s="2">
+        <v>3</v>
       </c>
       <c r="F1219">
         <v>2017</v>
       </c>
+      <c r="G1219" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1219">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1219">
         <f t="shared" si="63"/>
@@ -98318,16 +98738,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1220" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1220" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1220">
+        <v>846</v>
+      </c>
+      <c r="B1220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1220" s="2">
+        <v>2</v>
+      </c>
       <c r="D1220" s="3">
-        <v>42798</v>
+        <v>42804</v>
+      </c>
+      <c r="E1220" s="2">
+        <v>3</v>
       </c>
       <c r="F1220">
         <v>2017</v>
       </c>
+      <c r="G1220" s="2">
+        <v>120000</v>
+      </c>
       <c r="H1220">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I1220">
         <f t="shared" si="63"/>
@@ -98350,28 +98785,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1221" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1221" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1221">
+        <v>847</v>
+      </c>
+      <c r="B1221" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1221">
+        <v>9</v>
+      </c>
       <c r="D1221" s="3">
-        <v>42798</v>
+        <v>42804</v>
+      </c>
+      <c r="E1221" s="2">
+        <v>3</v>
       </c>
       <c r="F1221">
         <v>2017</v>
       </c>
+      <c r="G1221" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1221">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1221">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1221">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1221">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1221" t="b">
         <f t="shared" si="66"/>
@@ -98382,28 +98832,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1222" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1222" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1222">
+        <v>847</v>
+      </c>
+      <c r="B1222" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1222">
+        <v>6</v>
+      </c>
       <c r="D1222" s="3">
-        <v>42798</v>
+        <v>42804</v>
+      </c>
+      <c r="E1222" s="2">
+        <v>3</v>
       </c>
       <c r="F1222">
         <v>2017</v>
       </c>
+      <c r="G1222" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1222">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1222">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1222">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1222">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1222" t="b">
         <f t="shared" si="66"/>
@@ -98414,16 +98879,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1223" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1223" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1223">
+        <v>849</v>
+      </c>
+      <c r="B1223" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1223" s="2">
+        <v>3</v>
+      </c>
       <c r="D1223" s="3">
-        <v>42798</v>
+        <v>42804</v>
+      </c>
+      <c r="E1223" s="2">
+        <v>3</v>
       </c>
       <c r="F1223">
         <v>2017</v>
       </c>
+      <c r="G1223" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1223">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1223">
         <f t="shared" si="63"/>
@@ -98446,16 +98926,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1224" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1224" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1224">
+        <v>850</v>
+      </c>
+      <c r="B1224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1224" s="2">
+        <v>1</v>
+      </c>
       <c r="D1224" s="3">
-        <v>42798</v>
+        <v>42804</v>
+      </c>
+      <c r="E1224" s="2">
+        <v>3</v>
       </c>
       <c r="F1224">
         <v>2017</v>
       </c>
+      <c r="G1224" s="2">
+        <v>200000</v>
+      </c>
       <c r="H1224">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1224">
         <f t="shared" si="63"/>
@@ -98471,16 +98966,16 @@
       </c>
       <c r="P1224" t="b">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1224" t="str">
         <f t="shared" si="68"/>
         <v>20173</v>
       </c>
     </row>
-    <row r="1225" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1225" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1225" s="3">
-        <v>42798</v>
+        <v>42804</v>
       </c>
       <c r="F1225">
         <v>2017</v>
@@ -98510,9 +99005,9 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1226" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1226" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1226" s="3">
-        <v>42798</v>
+        <v>42804</v>
       </c>
       <c r="F1226">
         <v>2017</v>
@@ -98542,9 +99037,9 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1227" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1227" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1227" s="3">
-        <v>42798</v>
+        <v>42804</v>
       </c>
       <c r="F1227">
         <v>2017</v>
@@ -98574,9 +99069,9 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1228" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1228" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1228" s="3">
-        <v>42798</v>
+        <v>42804</v>
       </c>
       <c r="F1228">
         <v>2017</v>
@@ -98606,9 +99101,9 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1229" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1229" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1229" s="3">
-        <v>42798</v>
+        <v>42804</v>
       </c>
       <c r="F1229">
         <v>2017</v>
@@ -98638,9 +99133,9 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1230" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1230" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1230" s="3">
-        <v>42798</v>
+        <v>42804</v>
       </c>
       <c r="F1230">
         <v>2017</v>
@@ -98670,9 +99165,9 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1231" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1231" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1231" s="3">
-        <v>42798</v>
+        <v>42804</v>
       </c>
       <c r="F1231">
         <v>2017</v>
@@ -98702,9 +99197,9 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1232" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1232" spans="1:17" ht="15.75" customHeight="1">
       <c r="D1232" s="3">
-        <v>42798</v>
+        <v>42804</v>
       </c>
       <c r="F1232">
         <v>2017</v>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -15,13 +15,13 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="225">
   <si>
     <t>Count of SPP</t>
   </si>
@@ -24483,7 +24483,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:P224" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -33378,8 +33378,8 @@
   <dimension ref="A1:AF1334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1239" sqref="G1239"/>
+      <pane ySplit="1" topLeftCell="A1228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1250" sqref="F1250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -92039,9 +92039,30 @@
       </c>
     </row>
     <row r="1238" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1238">
+        <v>861</v>
+      </c>
+      <c r="B1238" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1238" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1238" s="3">
+        <v>42804</v>
+      </c>
+      <c r="E1238" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1238" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1238" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1238">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1238">
         <f t="shared" si="63"/>
@@ -92061,13 +92082,34 @@
       </c>
       <c r="Q1238" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1239" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1239">
+        <v>861</v>
+      </c>
+      <c r="B1239" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1239" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1239" s="3">
+        <v>42804</v>
+      </c>
+      <c r="E1239" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1239" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1239" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1239">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1239">
         <f t="shared" si="63"/>
@@ -92087,25 +92129,46 @@
       </c>
       <c r="Q1239" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1240" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1240">
+        <v>862</v>
+      </c>
+      <c r="B1240" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1240" s="2">
+        <v>11</v>
+      </c>
+      <c r="D1240" s="3">
+        <v>42804</v>
+      </c>
+      <c r="E1240" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1240" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1240" s="2">
+        <v>435000</v>
+      </c>
       <c r="H1240">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1240">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="J1240">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1240">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1240" t="b">
         <f t="shared" si="66"/>
@@ -92113,25 +92176,46 @@
       </c>
       <c r="Q1240" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1241" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1241">
+        <v>862</v>
+      </c>
+      <c r="B1241" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1241" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1241" s="3">
+        <v>42804</v>
+      </c>
+      <c r="E1241" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1241" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1241" s="2">
+        <v>435000</v>
+      </c>
       <c r="H1241">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1241">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="J1241">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1241">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1241" t="b">
         <f t="shared" si="66"/>
@@ -92139,25 +92223,46 @@
       </c>
       <c r="Q1241" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1242" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1242">
+        <v>862</v>
+      </c>
+      <c r="B1242" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1242" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1242" s="3">
+        <v>42804</v>
+      </c>
+      <c r="E1242" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1242" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1242" s="2">
+        <v>435000</v>
+      </c>
       <c r="H1242">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1242">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="J1242">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1242">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1242" t="b">
         <f t="shared" si="66"/>
@@ -92165,25 +92270,46 @@
       </c>
       <c r="Q1242" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1243" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1243">
+        <v>863</v>
+      </c>
+      <c r="B1243" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1243" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1243" s="3">
+        <v>42805</v>
+      </c>
+      <c r="E1243" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1243" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1243" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1243">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1243">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1243">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1243">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1243" t="b">
         <f t="shared" si="66"/>
@@ -92191,25 +92317,46 @@
       </c>
       <c r="Q1243" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1244" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1244">
+        <v>863</v>
+      </c>
+      <c r="B1244" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1244" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1244" s="3">
+        <v>42805</v>
+      </c>
+      <c r="E1244" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1244" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1244" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1244">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1244">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1244">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1244">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1244" t="b">
         <f t="shared" si="66"/>
@@ -92217,25 +92364,46 @@
       </c>
       <c r="Q1244" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1245" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1245">
+        <v>864</v>
+      </c>
+      <c r="B1245" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1245" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1245" s="3">
+        <v>42805</v>
+      </c>
+      <c r="E1245" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1245" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1245" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1245">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1245">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1245">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1245">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1245" t="b">
         <f t="shared" si="66"/>
@@ -92243,13 +92411,34 @@
       </c>
       <c r="Q1245" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1246" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1246">
+        <v>864</v>
+      </c>
+      <c r="B1246" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1246" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1246" s="3">
+        <v>42805</v>
+      </c>
+      <c r="E1246" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1246" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1246" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1246">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1246">
         <f t="shared" si="63"/>
@@ -92269,25 +92458,46 @@
       </c>
       <c r="Q1246" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1247" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1247">
+        <v>865</v>
+      </c>
+      <c r="B1247" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1247" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1247" s="3">
+        <v>42805</v>
+      </c>
+      <c r="E1247" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1247" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1247" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1247">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1247">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1247">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1247">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1247" t="b">
         <f t="shared" si="66"/>
@@ -92295,10 +92505,13 @@
       </c>
       <c r="Q1247" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="1248" spans="1:17" ht="15.75" customHeight="1">
+      <c r="D1248" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1248">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92321,10 +92534,13 @@
       </c>
       <c r="Q1248" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1249" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1249" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1249" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1249">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92347,10 +92563,13 @@
       </c>
       <c r="Q1249" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1250" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1250" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1250" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1250">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92373,10 +92592,13 @@
       </c>
       <c r="Q1250" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1251" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1251" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1251" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1251">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92399,10 +92621,13 @@
       </c>
       <c r="Q1251" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1252" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1252" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1252" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1252">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92425,10 +92650,13 @@
       </c>
       <c r="Q1252" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1253" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1253" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1253" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1253">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92451,10 +92679,13 @@
       </c>
       <c r="Q1253" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1254" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1254" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1254" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1254">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92477,10 +92708,13 @@
       </c>
       <c r="Q1254" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1255" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1255" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1255" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1255">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92503,10 +92737,13 @@
       </c>
       <c r="Q1255" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1256" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1256" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1256" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1256">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92529,10 +92766,13 @@
       </c>
       <c r="Q1256" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1257" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1257" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1257" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1257">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92555,10 +92795,13 @@
       </c>
       <c r="Q1257" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1258" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1258" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1258" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1258">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92581,10 +92824,13 @@
       </c>
       <c r="Q1258" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1259" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1259" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1259" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1259">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92607,10 +92853,13 @@
       </c>
       <c r="Q1259" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1260" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1260" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1260" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1260">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92633,10 +92882,13 @@
       </c>
       <c r="Q1260" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1261" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1261" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1261" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1261">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92659,10 +92911,13 @@
       </c>
       <c r="Q1261" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1262" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1262" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1262" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1262">
         <f t="shared" si="67"/>
         <v>0</v>
@@ -92685,10 +92940,13 @@
       </c>
       <c r="Q1262" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1263" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1263" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1263" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1263">
         <f t="shared" ref="H1263:H1326" si="79">IF(C1263&lt;6,IF(E1263&lt;1,0,IF(G1263&gt;150000,150000,G1263)),150000)</f>
         <v>0</v>
@@ -92711,10 +92969,13 @@
       </c>
       <c r="Q1263" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1264" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1264" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1264" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1264">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -92737,10 +92998,13 @@
       </c>
       <c r="Q1264" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1265" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1265" spans="4:17" ht="15.75" customHeight="1">
+      <c r="D1265" s="3">
+        <v>42805</v>
+      </c>
       <c r="H1265">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -92763,10 +93027,10 @@
       </c>
       <c r="Q1265" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1266" spans="8:17" ht="15.75" customHeight="1">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="1266" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1266">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -92792,7 +93056,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1267" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1267" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1267">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -92818,7 +93082,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1268" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1268" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1268">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -92844,7 +93108,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1269" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1269" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1269">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -92870,7 +93134,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1270" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1270" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1270">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -92896,7 +93160,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1271" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1271" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1271">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -92922,7 +93186,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1272" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1272" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1272">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -92948,7 +93212,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1273" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1273" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1273">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -92974,7 +93238,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1274" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1274" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1274">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93000,7 +93264,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1275" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1275" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1275">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93026,7 +93290,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1276" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1276" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1276">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93052,7 +93316,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1277" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1277" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1277">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93078,7 +93342,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1278" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1278" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1278">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93104,7 +93368,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1279" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1279" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1279">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93130,7 +93394,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1280" spans="8:17" ht="15.75" customHeight="1">
+    <row r="1280" spans="4:17" ht="15.75" customHeight="1">
       <c r="H1280">
         <f t="shared" si="79"/>
         <v>0</v>

--- a/PenerimaanSPP.xlsx
+++ b/PenerimaanSPP.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sep 2016" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sep 2016'!$A$1:$Q$1334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sep 2016'!$A$1:$Q$1332</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="228">
   <si>
     <t>Count of SPP</t>
   </si>
@@ -697,6 +697,15 @@
   <si>
     <t>Column Labels</t>
   </si>
+  <si>
+    <t>Malvino</t>
+  </si>
+  <si>
+    <t>MUH</t>
+  </si>
+  <si>
+    <t>Arfan</t>
+  </si>
 </sst>
 </file>
 
@@ -716,12 +725,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -33375,16 +33384,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF1334"/>
+  <dimension ref="A1:AF1332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1250" sqref="F1250"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="6.140625" customWidth="1"/>
@@ -38671,7 +38680,7 @@
         <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C112" s="2">
         <v>5</v>
@@ -90169,7 +90178,7 @@
         <v>425000</v>
       </c>
       <c r="H1198">
-        <f t="shared" ref="H1198:H1262" si="67">IF(C1198&lt;6,IF(E1198&lt;1,0,IF(G1198&gt;150000,150000,G1198)),150000)</f>
+        <f t="shared" ref="H1198:H1261" si="67">IF(C1198&lt;6,IF(E1198&lt;1,0,IF(G1198&gt;150000,150000,G1198)),150000)</f>
         <v>150000</v>
       </c>
       <c r="I1198">
@@ -91270,7 +91279,7 @@
         <v>1</v>
       </c>
       <c r="Q1221" t="str">
-        <f t="shared" ref="Q1221:Q1285" si="68">CONCATENATE(YEAR(D1221),MONTH(D1221))</f>
+        <f t="shared" ref="Q1221:Q1283" si="68">CONCATENATE(YEAR(D1221),MONTH(D1221))</f>
         <v>20173</v>
       </c>
     </row>
@@ -92463,7 +92472,7 @@
     </row>
     <row r="1247" spans="1:17" ht="15.75" customHeight="1">
       <c r="A1247">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B1247" s="2" t="s">
         <v>135</v>
@@ -92509,24 +92518,42 @@
       </c>
     </row>
     <row r="1248" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1248">
+        <v>867</v>
+      </c>
+      <c r="B1248" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1248" s="2">
+        <v>10</v>
+      </c>
       <c r="D1248" s="3">
         <v>42805</v>
       </c>
+      <c r="E1248" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1248" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1248" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1248">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1248">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1248">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1248">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1248" t="b">
         <f t="shared" si="66"/>
@@ -92537,25 +92564,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1249" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1249" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1249">
+        <v>868</v>
+      </c>
+      <c r="B1249" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1249" s="2">
+        <v>7</v>
+      </c>
       <c r="D1249" s="3">
         <v>42805</v>
       </c>
+      <c r="E1249" s="5">
+        <v>12</v>
+      </c>
+      <c r="F1249" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1249" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1249">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1249">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1249">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1249">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1249" t="b">
         <f t="shared" si="66"/>
@@ -92566,25 +92611,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1250" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1250" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1250">
+        <v>869</v>
+      </c>
+      <c r="B1250" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1250" s="2">
+        <v>7</v>
+      </c>
       <c r="D1250" s="3">
         <v>42805</v>
       </c>
+      <c r="E1250" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1250" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1250" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1250">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1250">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1250">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1250">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1250" t="b">
         <f t="shared" si="66"/>
@@ -92595,25 +92658,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1251" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1251" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1251">
+        <v>870</v>
+      </c>
+      <c r="B1251" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1251" s="2">
+        <v>7</v>
+      </c>
       <c r="D1251" s="3">
         <v>42805</v>
       </c>
+      <c r="E1251" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1251" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1251" s="2">
+        <v>425000</v>
+      </c>
       <c r="H1251">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1251">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="J1251">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1251">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1251" t="b">
         <f t="shared" si="66"/>
@@ -92624,13 +92705,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1252" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1252" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1252">
+        <v>870</v>
+      </c>
+      <c r="B1252" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1252" s="2">
+        <v>4</v>
+      </c>
       <c r="D1252" s="3">
         <v>42805</v>
       </c>
+      <c r="E1252" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1252" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1252" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1252">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1252">
         <f t="shared" si="63"/>
@@ -92653,13 +92752,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1253" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1253" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1253">
+        <v>871</v>
+      </c>
+      <c r="B1253" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1253" s="2">
+        <v>3</v>
+      </c>
       <c r="D1253" s="3">
         <v>42805</v>
       </c>
+      <c r="E1253" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1253" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1253" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1253">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1253">
         <f t="shared" si="63"/>
@@ -92682,13 +92799,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1254" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1254" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1254">
+        <v>871</v>
+      </c>
+      <c r="B1254" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1254" s="2">
+        <v>5</v>
+      </c>
       <c r="D1254" s="3">
         <v>42805</v>
       </c>
+      <c r="E1254" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1254" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1254" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1254">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1254">
         <f t="shared" si="63"/>
@@ -92711,13 +92846,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1255" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1255" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1255">
+        <v>872</v>
+      </c>
+      <c r="B1255" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1255" s="2">
+        <v>2</v>
+      </c>
       <c r="D1255" s="3">
         <v>42805</v>
       </c>
+      <c r="E1255" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1255" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1255" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1255">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1255">
         <f t="shared" si="63"/>
@@ -92740,13 +92893,31 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1256" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1256" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1256">
+        <v>872</v>
+      </c>
+      <c r="B1256" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1256" s="2">
+        <v>2</v>
+      </c>
       <c r="D1256" s="3">
         <v>42805</v>
       </c>
+      <c r="E1256" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1256" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G1256" s="2">
+        <v>150000</v>
+      </c>
       <c r="H1256">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1256">
         <f t="shared" si="63"/>
@@ -92769,25 +92940,43 @@
         <v>20173</v>
       </c>
     </row>
-    <row r="1257" spans="4:17" ht="15.75" customHeight="1">
-      <c r="D1257" s="3">
-        <v>42805</v>
+    <row r="1257" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1257" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1257" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1257" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1257" s="9">
+        <v>42605</v>
+      </c>
+      <c r="E1257" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1257" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1257" s="2">
+        <v>300000</v>
       </c>
       <c r="H1257">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1257">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1257">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1257">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1257" t="b">
         <f t="shared" si="66"/>
@@ -92795,28 +92984,46 @@
       </c>
       <c r="Q1257" t="str">
         <f t="shared" si="68"/>
-        <v>20173</v>
-      </c>
-    </row>
-    <row r="1258" spans="4:17" ht="15.75" customHeight="1">
-      <c r="D1258" s="3">
-        <v>42805</v>
+        <v>20168</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1258" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1258" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1258" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1258" s="9">
+        <v>42636</v>
+      </c>
+      <c r="E1258" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1258" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1258" s="2">
+        <v>300000</v>
       </c>
       <c r="H1258">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1258">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1258">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1258">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1258" t="b">
         <f t="shared" si="66"/>
@@ -92824,28 +93031,46 @@
       </c>
       <c r="Q1258" t="str">
         <f t="shared" si="68"/>
-        <v>20173</v>
-      </c>
-    </row>
-    <row r="1259" spans="4:17" ht="15.75" customHeight="1">
-      <c r="D1259" s="3">
-        <v>42805</v>
+        <v>20169</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1259" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1259" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1259" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1259" s="9">
+        <v>42666</v>
+      </c>
+      <c r="E1259" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1259" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1259" s="2">
+        <v>300000</v>
       </c>
       <c r="H1259">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1259">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1259">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1259">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1259" t="b">
         <f t="shared" si="66"/>
@@ -92853,28 +93078,46 @@
       </c>
       <c r="Q1259" t="str">
         <f t="shared" si="68"/>
-        <v>20173</v>
-      </c>
-    </row>
-    <row r="1260" spans="4:17" ht="15.75" customHeight="1">
-      <c r="D1260" s="3">
-        <v>42805</v>
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1260" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1260" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1260" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1260" s="9">
+        <v>42697</v>
+      </c>
+      <c r="E1260" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1260" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1260" s="2">
+        <v>300000</v>
       </c>
       <c r="H1260">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1260">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1260">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1260">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1260" t="b">
         <f t="shared" si="66"/>
@@ -92882,57 +93125,93 @@
       </c>
       <c r="Q1260" t="str">
         <f t="shared" si="68"/>
-        <v>20173</v>
-      </c>
-    </row>
-    <row r="1261" spans="4:17" ht="15.75" customHeight="1">
-      <c r="D1261" s="3">
-        <v>42805</v>
+        <v>201611</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1261" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1261" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1261" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1261" s="9">
+        <v>42727</v>
+      </c>
+      <c r="E1261" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1261" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1261" s="2">
+        <v>300000</v>
       </c>
       <c r="H1261">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1261">
-        <f t="shared" ref="I1261:I1324" si="75">IF(C1261&lt;6,0,G1261-H1261-SUM(J1261:O1261))</f>
-        <v>0</v>
+        <f t="shared" ref="I1261:I1322" si="75">IF(C1261&lt;6,0,G1261-H1261-SUM(J1261:O1261))</f>
+        <v>135000</v>
       </c>
       <c r="J1261">
-        <f t="shared" ref="J1261:J1324" si="76">IF(C1261&lt;6,0,5000)</f>
-        <v>0</v>
+        <f t="shared" ref="J1261:J1322" si="76">IF(C1261&lt;6,0,5000)</f>
+        <v>5000</v>
       </c>
       <c r="K1261">
-        <f t="shared" ref="K1261:K1324" si="77">IF(C1261&lt;6,0,10000)</f>
-        <v>0</v>
+        <f t="shared" ref="K1261:K1322" si="77">IF(C1261&lt;6,0,10000)</f>
+        <v>10000</v>
       </c>
       <c r="P1261" t="b">
-        <f t="shared" ref="P1261:P1324" si="78">G1261=SUM(H1261:O1261)</f>
+        <f t="shared" ref="P1261:P1322" si="78">G1261=SUM(H1261:O1261)</f>
         <v>1</v>
       </c>
       <c r="Q1261" t="str">
         <f t="shared" si="68"/>
-        <v>20173</v>
-      </c>
-    </row>
-    <row r="1262" spans="4:17" ht="15.75" customHeight="1">
-      <c r="D1262" s="3">
-        <v>42805</v>
+        <v>201612</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1262" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1262" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1262" s="2">
+        <v>11</v>
+      </c>
+      <c r="D1262" s="9">
+        <v>42605</v>
+      </c>
+      <c r="E1262" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1262" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1262" s="2">
+        <v>300000</v>
       </c>
       <c r="H1262">
-        <f t="shared" si="67"/>
-        <v>0</v>
+        <f t="shared" ref="H1262:H1324" si="79">IF(C1262&lt;6,IF(E1262&lt;1,0,IF(G1262&gt;150000,150000,G1262)),150000)</f>
+        <v>150000</v>
       </c>
       <c r="I1262">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1262">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1262">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1262" t="b">
         <f t="shared" si="78"/>
@@ -92940,28 +93219,46 @@
       </c>
       <c r="Q1262" t="str">
         <f t="shared" si="68"/>
-        <v>20173</v>
-      </c>
-    </row>
-    <row r="1263" spans="4:17" ht="15.75" customHeight="1">
-      <c r="D1263" s="3">
-        <v>42805</v>
+        <v>20168</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1263" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1263" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1263" s="2">
+        <v>11</v>
+      </c>
+      <c r="D1263" s="9">
+        <v>42636</v>
+      </c>
+      <c r="E1263" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1263" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1263" s="2">
+        <v>300000</v>
       </c>
       <c r="H1263">
-        <f t="shared" ref="H1263:H1326" si="79">IF(C1263&lt;6,IF(E1263&lt;1,0,IF(G1263&gt;150000,150000,G1263)),150000)</f>
-        <v>0</v>
+        <f t="shared" si="79"/>
+        <v>150000</v>
       </c>
       <c r="I1263">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1263">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1263">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1263" t="b">
         <f t="shared" si="78"/>
@@ -92969,28 +93266,46 @@
       </c>
       <c r="Q1263" t="str">
         <f t="shared" si="68"/>
-        <v>20173</v>
-      </c>
-    </row>
-    <row r="1264" spans="4:17" ht="15.75" customHeight="1">
-      <c r="D1264" s="3">
-        <v>42805</v>
+        <v>20169</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1264" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1264" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1264" s="2">
+        <v>11</v>
+      </c>
+      <c r="D1264" s="9">
+        <v>42666</v>
+      </c>
+      <c r="E1264" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1264" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1264" s="2">
+        <v>300000</v>
       </c>
       <c r="H1264">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1264">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1264">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1264">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1264" t="b">
         <f t="shared" si="78"/>
@@ -92998,28 +93313,46 @@
       </c>
       <c r="Q1264" t="str">
         <f t="shared" si="68"/>
-        <v>20173</v>
-      </c>
-    </row>
-    <row r="1265" spans="4:17" ht="15.75" customHeight="1">
-      <c r="D1265" s="3">
-        <v>42805</v>
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1265" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1265" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1265" s="2">
+        <v>11</v>
+      </c>
+      <c r="D1265" s="9">
+        <v>42697</v>
+      </c>
+      <c r="E1265" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1265" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1265" s="2">
+        <v>300000</v>
       </c>
       <c r="H1265">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1265">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1265">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1265">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1265" t="b">
         <f t="shared" si="78"/>
@@ -93027,25 +93360,46 @@
       </c>
       <c r="Q1265" t="str">
         <f t="shared" si="68"/>
-        <v>20173</v>
-      </c>
-    </row>
-    <row r="1266" spans="4:17" ht="15.75" customHeight="1">
+        <v>201611</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1266" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1266" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1266" s="2">
+        <v>11</v>
+      </c>
+      <c r="D1266" s="9">
+        <v>42727</v>
+      </c>
+      <c r="E1266" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1266" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1266" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1266">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1266">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1266">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1266">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1266" t="b">
         <f t="shared" si="78"/>
@@ -93053,25 +93407,46 @@
       </c>
       <c r="Q1266" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1267" spans="4:17" ht="15.75" customHeight="1">
+        <v>201612</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1267" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1267" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1267" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1267" s="9">
+        <v>42636</v>
+      </c>
+      <c r="E1267" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1267" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1267" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1267">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1267">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1267">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1267">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1267" t="b">
         <f t="shared" si="78"/>
@@ -93079,25 +93454,46 @@
       </c>
       <c r="Q1267" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1268" spans="4:17" ht="15.75" customHeight="1">
+        <v>20169</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1268" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1268" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1268" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1268" s="9">
+        <v>42666</v>
+      </c>
+      <c r="E1268" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1268" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1268" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1268">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1268">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1268">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1268">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1268" t="b">
         <f t="shared" si="78"/>
@@ -93105,25 +93501,46 @@
       </c>
       <c r="Q1268" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1269" spans="4:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1269" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1269" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1269" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1269" s="9">
+        <v>42697</v>
+      </c>
+      <c r="E1269" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1269" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1269" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1269">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1269">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1269">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1269">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1269" t="b">
         <f t="shared" si="78"/>
@@ -93131,25 +93548,46 @@
       </c>
       <c r="Q1269" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1270" spans="4:17" ht="15.75" customHeight="1">
+        <v>201611</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1270" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1270" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1270" s="2">
+        <v>8</v>
+      </c>
+      <c r="D1270" s="9">
+        <v>42727</v>
+      </c>
+      <c r="E1270" s="2">
+        <v>12</v>
+      </c>
+      <c r="F1270" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1270" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1270">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1270">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1270">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1270">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1270" t="b">
         <f t="shared" si="78"/>
@@ -93157,25 +93595,46 @@
       </c>
       <c r="Q1270" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1271" spans="4:17" ht="15.75" customHeight="1">
+        <v>201612</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1271" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1271" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1271" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1271" s="9">
+        <v>42574</v>
+      </c>
+      <c r="E1271" s="2">
+        <v>7</v>
+      </c>
+      <c r="F1271" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1271" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1271">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1271">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1271">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1271">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1271" t="b">
         <f t="shared" si="78"/>
@@ -93183,25 +93642,46 @@
       </c>
       <c r="Q1271" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1272" spans="4:17" ht="15.75" customHeight="1">
+        <v>20167</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1272" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1272" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1272" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1272" s="9">
+        <v>42605</v>
+      </c>
+      <c r="E1272" s="2">
+        <v>8</v>
+      </c>
+      <c r="F1272" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1272" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1272">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1272">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1272">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1272">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1272" t="b">
         <f t="shared" si="78"/>
@@ -93209,25 +93689,46 @@
       </c>
       <c r="Q1272" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1273" spans="4:17" ht="15.75" customHeight="1">
+        <v>20168</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1273" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1273" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1273" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1273" s="9">
+        <v>42636</v>
+      </c>
+      <c r="E1273" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1273" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1273" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1273">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1273">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1273">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1273">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1273" t="b">
         <f t="shared" si="78"/>
@@ -93235,25 +93736,46 @@
       </c>
       <c r="Q1273" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1274" spans="4:17" ht="15.75" customHeight="1">
+        <v>20169</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A1274" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1274" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1274" s="2">
+        <v>7</v>
+      </c>
+      <c r="D1274" s="9">
+        <v>42666</v>
+      </c>
+      <c r="E1274" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1274" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1274" s="2">
+        <v>300000</v>
+      </c>
       <c r="H1274">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I1274">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="J1274">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K1274">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P1274" t="b">
         <f t="shared" si="78"/>
@@ -93261,10 +93783,10 @@
       </c>
       <c r="Q1274" t="str">
         <f t="shared" si="68"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1275" spans="4:17" ht="15.75" customHeight="1">
+        <v>201610</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1275">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93290,7 +93812,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1276" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1276" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1276">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93316,7 +93838,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1277" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1277" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1277">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93342,7 +93864,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1278" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1278" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1278">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93368,7 +93890,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1279" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1279" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1279">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93394,7 +93916,7 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1280" spans="4:17" ht="15.75" customHeight="1">
+    <row r="1280" spans="1:17" ht="15.75" customHeight="1">
       <c r="H1280">
         <f t="shared" si="79"/>
         <v>0</v>
@@ -93520,7 +94042,7 @@
         <v>1</v>
       </c>
       <c r="Q1284" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="Q1284:Q1332" si="80">CONCATENATE(YEAR(D1284),MONTH(D1284))</f>
         <v>19001</v>
       </c>
     </row>
@@ -93546,7 +94068,7 @@
         <v>1</v>
       </c>
       <c r="Q1285" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>19001</v>
       </c>
     </row>
@@ -93572,7 +94094,7 @@
         <v>1</v>
       </c>
       <c r="Q1286" t="str">
-        <f t="shared" ref="Q1286:Q1334" si="80">CONCATENATE(YEAR(D1286),MONTH(D1286))</f>
+        <f t="shared" si="80"/>
         <v>19001</v>
       </c>
     </row>
@@ -94518,19 +95040,19 @@
         <v>0</v>
       </c>
       <c r="I1323">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="I1323:I1332" si="81">IF(C1323&lt;6,0,G1323-H1323-SUM(J1323:O1323))</f>
         <v>0</v>
       </c>
       <c r="J1323">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="J1323:J1332" si="82">IF(C1323&lt;6,0,5000)</f>
         <v>0</v>
       </c>
       <c r="K1323">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="K1323:K1332" si="83">IF(C1323&lt;6,0,10000)</f>
         <v>0</v>
       </c>
       <c r="P1323" t="b">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="P1323:P1332" si="84">G1323=SUM(H1323:O1323)</f>
         <v>1</v>
       </c>
       <c r="Q1323" t="str">
@@ -94544,19 +95066,19 @@
         <v>0</v>
       </c>
       <c r="I1324">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="J1324">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="K1324">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P1324" t="b">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="Q1324" t="str">
@@ -94566,23 +95088,23 @@
     </row>
     <row r="1325" spans="8:17" ht="15.75" customHeight="1">
       <c r="H1325">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="H1325:H1332" si="85">IF(C1325&lt;6,IF(E1325&lt;1,0,IF(G1325&gt;150000,150000,G1325)),150000)</f>
         <v>0</v>
       </c>
       <c r="I1325">
-        <f t="shared" ref="I1325:I1334" si="81">IF(C1325&lt;6,0,G1325-H1325-SUM(J1325:O1325))</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="J1325">
-        <f t="shared" ref="J1325:J1334" si="82">IF(C1325&lt;6,0,5000)</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="K1325">
-        <f t="shared" ref="K1325:K1334" si="83">IF(C1325&lt;6,0,10000)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P1325" t="b">
-        <f t="shared" ref="P1325:P1334" si="84">G1325=SUM(H1325:O1325)</f>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="Q1325" t="str">
@@ -94592,7 +95114,7 @@
     </row>
     <row r="1326" spans="8:17" ht="15.75" customHeight="1">
       <c r="H1326">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="I1326">
@@ -94618,7 +95140,7 @@
     </row>
     <row r="1327" spans="8:17" ht="15.75" customHeight="1">
       <c r="H1327">
-        <f t="shared" ref="H1327:H1334" si="85">IF(C1327&lt;6,IF(E1327&lt;1,0,IF(G1327&gt;150000,150000,G1327)),150000)</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="I1327">
@@ -94772,60 +95294,8 @@
         <v>19001</v>
       </c>
     </row>
-    <row r="1333" spans="8:17" ht="15.75" customHeight="1">
-      <c r="H1333">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="I1333">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="J1333">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="K1333">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P1333" t="b">
-        <f t="shared" si="84"/>
-        <v>1</v>
-      </c>
-      <c r="Q1333" t="str">
-        <f t="shared" si="80"/>
-        <v>19001</v>
-      </c>
-    </row>
-    <row r="1334" spans="8:17" ht="15.75" customHeight="1">
-      <c r="H1334">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="I1334">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="J1334">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="K1334">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="P1334" t="b">
-        <f t="shared" si="84"/>
-        <v>1</v>
-      </c>
-      <c r="Q1334" t="str">
-        <f t="shared" si="80"/>
-        <v>19001</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q1334">
+  <autoFilter ref="A1:Q1332">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
